--- a/Testing Spreadsheet v1.0 OrderReceipt_AdamHale.xlsx
+++ b/Testing Spreadsheet v1.0 OrderReceipt_AdamHale.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <workbookProtection workbookPassword="A6C2" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24840" windowHeight="15600" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="1940" yWindow="60" windowWidth="24840" windowHeight="15600" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="5" r:id="rId1"/>
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="172">
   <si>
     <t xml:space="preserve">Req </t>
   </si>
@@ -433,9 +433,6 @@
     <t>To test that the order receipt contains the items placed on order</t>
   </si>
   <si>
-    <t>OrderPage_TCase_1</t>
-  </si>
-  <si>
     <t>Adam Hale</t>
   </si>
   <si>
@@ -466,21 +463,6 @@
     <t>OrderPage_TConn_6</t>
   </si>
   <si>
-    <t>OrderPage_TCase_2</t>
-  </si>
-  <si>
-    <t>OrderPage_TCase_3</t>
-  </si>
-  <si>
-    <t>OrderPage_TCase_4</t>
-  </si>
-  <si>
-    <t>OrderPage_TCase_6</t>
-  </si>
-  <si>
-    <t>OrderPage_TCase_5</t>
-  </si>
-  <si>
     <t>To test that the order receipt contains the items placed on order, specifically looking to see if it records the additional extras</t>
   </si>
   <si>
@@ -574,24 +556,15 @@
     <t>The Order receipt should include the confirmed date and time for collection having selected the later option for collection but choosing a time that has already passed</t>
   </si>
   <si>
-    <t>OrderPage_TCase_7</t>
-  </si>
-  <si>
     <t>Having added an order to the basket with extras and confirmed the collection time as later and selecting a date that has passed, that it does not progress to the order receipt</t>
   </si>
   <si>
     <t xml:space="preserve">Order receipt will not be generated until valid date is input </t>
   </si>
   <si>
-    <t>OrderPage_TCase_8</t>
-  </si>
-  <si>
     <t>Having added an order to the basket with extras and confirmed the collection time as later and selecting a time that has passed, that it does not progress to the order receipt</t>
   </si>
   <si>
-    <t>OrderPage_TCase_9</t>
-  </si>
-  <si>
     <t>The Order receipt should include a unique order reference different to the test before</t>
   </si>
   <si>
@@ -643,9 +616,6 @@
     <t>Meat Extravaganza with peppers</t>
   </si>
   <si>
-    <t>OrderPage_TCase_10</t>
-  </si>
-  <si>
     <t>This is the same order reference as the prevois test case thererfore it is not unique, it is not critical or high as it will not lead to system crash or failure, it will just cause significant difficulties on collection</t>
   </si>
   <si>
@@ -662,6 +632,126 @@
   </si>
   <si>
     <t>OrderPage_3</t>
+  </si>
+  <si>
+    <t>Having changed password, does the system still work and process the order providing a receipt</t>
+  </si>
+  <si>
+    <t>Changed password and when through ordering process again to make sure that an order receipt is generated</t>
+  </si>
+  <si>
+    <t>Deluxe with olives</t>
+  </si>
+  <si>
+    <t>OrderPage_TConn_11</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>The Order receipt should be generated when a user changes their password and places and order</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Having changed the users password and placing an order, the order receipt will still be generated </t>
+  </si>
+  <si>
+    <t>Order receipt will be successfully displayed with the correct order details and the unique order reference</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_1</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_2</t>
+  </si>
+  <si>
+    <t>OrderReceip_TConn_3</t>
+  </si>
+  <si>
+    <t>OrderReceip_TConn_4</t>
+  </si>
+  <si>
+    <t>OrderReceip_TConn_5</t>
+  </si>
+  <si>
+    <t>OrderReceip_TConn_6</t>
+  </si>
+  <si>
+    <t>OrderReceip_TConn_7</t>
+  </si>
+  <si>
+    <t>OrderReceip_TConn_8</t>
+  </si>
+  <si>
+    <t>OrderReceip_TConn_9</t>
+  </si>
+  <si>
+    <t>OrderReceip_TConn_10</t>
+  </si>
+  <si>
+    <t>OrderReceip_TConn_11</t>
+  </si>
+  <si>
+    <t>OrderReceip_TCase_1</t>
+  </si>
+  <si>
+    <t>OrderReceip_TCase_2</t>
+  </si>
+  <si>
+    <t>OrderReceip_TCase_3</t>
+  </si>
+  <si>
+    <t>OrderReceip_TCase_4</t>
+  </si>
+  <si>
+    <t>OrderReceip_TCase_5</t>
+  </si>
+  <si>
+    <t>OrderReceip_TCase_6</t>
+  </si>
+  <si>
+    <t>OrderReceip_TCase_7</t>
+  </si>
+  <si>
+    <t>OrderReceip_TCase_8</t>
+  </si>
+  <si>
+    <t>OrderReceip_TCase_9</t>
+  </si>
+  <si>
+    <t>OrderReceip_TCase_10</t>
+  </si>
+  <si>
+    <t>OrderReceip_TCase_11</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_3</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_4</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_5</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_6</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_7</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_8</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_9</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_10</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_11</t>
   </si>
 </sst>
 </file>
@@ -874,8 +964,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="203">
+  <cellStyleXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1175,7 +1277,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="203">
+  <cellStyles count="215">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1277,6 +1379,12 @@
     <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1378,6 +1486,12 @@
     <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -1435,6 +1549,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1444,6 +1559,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1453,6 +1569,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1491,7 +1608,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.0</c:v>
@@ -1517,6 +1634,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1613,11 +1731,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2090090136"/>
-        <c:axId val="2090087176"/>
+        <c:axId val="2071990488"/>
+        <c:axId val="2071987528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2090090136"/>
+        <c:axId val="2071990488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1626,7 +1744,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2090087176"/>
+        <c:crossAx val="2071987528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1634,7 +1752,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2090087176"/>
+        <c:axId val="2071987528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1645,7 +1763,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2090090136"/>
+        <c:crossAx val="2071990488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2059,7 +2177,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2085,7 +2203,7 @@
     </row>
     <row r="2" spans="1:9" ht="35.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>141</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>58</v>
@@ -2102,7 +2220,7 @@
     </row>
     <row r="3" spans="1:9" ht="35.5" customHeight="1">
       <c r="A3" s="32" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>60</v>
@@ -2117,7 +2235,7 @@
     </row>
     <row r="4" spans="1:9" ht="28">
       <c r="A4" s="32" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>61</v>
@@ -2134,7 +2252,7 @@
     </row>
     <row r="5" spans="1:9" ht="23">
       <c r="A5" s="32" t="s">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>62</v>
@@ -2151,10 +2269,10 @@
     </row>
     <row r="6" spans="1:9" ht="28">
       <c r="A6" s="32" t="s">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>59</v>
@@ -2168,10 +2286,10 @@
     </row>
     <row r="7" spans="1:9" ht="28">
       <c r="A7" s="32" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>59</v>
@@ -2185,10 +2303,10 @@
     </row>
     <row r="8" spans="1:9" ht="42">
       <c r="A8" s="32" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>59</v>
@@ -2202,10 +2320,10 @@
     </row>
     <row r="9" spans="1:9" ht="42">
       <c r="A9" s="32" t="s">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>59</v>
@@ -2216,7 +2334,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="32" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="B10" s="32" t="s">
         <v>63</v>
@@ -2230,10 +2348,10 @@
     </row>
     <row r="11" spans="1:9" ht="28">
       <c r="A11" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="32" t="s">
         <v>109</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>118</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>59</v>
@@ -2242,11 +2360,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+    <row r="12" spans="1:9" ht="28">
+      <c r="A12" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:9">
       <c r="D13" s="1"/>
@@ -2283,8 +2409,8 @@
   </sheetPr>
   <dimension ref="A1:Z161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2356,19 +2482,19 @@
     </row>
     <row r="2" spans="1:26" ht="52">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>152</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>6</v>
@@ -2380,7 +2506,7 @@
         <v>24</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="4"/>
@@ -2395,19 +2521,19 @@
     </row>
     <row r="3" spans="1:26" ht="65">
       <c r="A3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>27</v>
@@ -2419,7 +2545,7 @@
         <v>24</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="4"/>
@@ -2434,19 +2560,19 @@
     </row>
     <row r="4" spans="1:26" ht="52">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>27</v>
@@ -2458,10 +2584,10 @@
         <v>25</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>33</v>
@@ -2473,10 +2599,10 @@
         <v>42074</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="P4" s="10"/>
       <c r="Z4" s="5" t="s">
@@ -2485,19 +2611,19 @@
     </row>
     <row r="5" spans="1:26" ht="52">
       <c r="A5" s="1" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>27</v>
@@ -2509,7 +2635,7 @@
         <v>24</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="4"/>
@@ -2521,19 +2647,19 @@
     </row>
     <row r="6" spans="1:26" ht="65">
       <c r="A6" s="1" t="s">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>6</v>
@@ -2545,10 +2671,10 @@
         <v>25</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>33</v>
@@ -2560,28 +2686,28 @@
         <v>42074</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="P6" s="10"/>
     </row>
     <row r="7" spans="1:26" ht="65">
       <c r="A7" s="1" t="s">
-        <v>79</v>
+        <v>157</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>6</v>
@@ -2593,7 +2719,7 @@
         <v>24</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="4"/>
@@ -2608,19 +2734,19 @@
     </row>
     <row r="8" spans="1:26" ht="52">
       <c r="A8" s="1" t="s">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>6</v>
@@ -2632,7 +2758,7 @@
         <v>24</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="4"/>
@@ -2646,24 +2772,24 @@
       </c>
       <c r="U8" s="31">
         <f>COUNTIF(H2:H90,"*Passed*")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="52">
       <c r="A9" s="1" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>6</v>
@@ -2675,7 +2801,7 @@
         <v>24</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="4"/>
@@ -2694,19 +2820,19 @@
     </row>
     <row r="10" spans="1:26" ht="52">
       <c r="A10" s="1" t="s">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>6</v>
@@ -2718,7 +2844,7 @@
         <v>24</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="4"/>
@@ -2735,21 +2861,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="65">
+    <row r="11" spans="1:26" ht="76" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>6</v>
@@ -2761,10 +2887,10 @@
         <v>25</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>33</v>
@@ -2776,20 +2902,44 @@
         <v>42074</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="O11" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="P11" s="10"/>
+    </row>
+    <row r="12" spans="1:26" ht="65">
+      <c r="A12" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="34">
+        <v>42086</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="P11" s="10"/>
-    </row>
-    <row r="12" spans="1:26">
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
@@ -4974,14 +5124,14 @@
   </sheetPr>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
     <col min="3" max="3" width="35.33203125" customWidth="1"/>
     <col min="4" max="5" width="24.1640625" customWidth="1"/>
     <col min="6" max="6" width="18.6640625" customWidth="1"/>
@@ -5017,19 +5167,19 @@
     </row>
     <row r="2" spans="1:13" ht="42">
       <c r="A2" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>141</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" s="1"/>
       <c r="H2" s="27" t="s">
@@ -5043,19 +5193,19 @@
     </row>
     <row r="3" spans="1:13" ht="56">
       <c r="A3" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="1"/>
@@ -5068,19 +5218,19 @@
     </row>
     <row r="4" spans="1:13" ht="56">
       <c r="A4" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>72</v>
+        <v>163</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -5093,19 +5243,19 @@
     </row>
     <row r="5" spans="1:13" ht="42">
       <c r="A5" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>73</v>
+        <v>164</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -5118,19 +5268,19 @@
     </row>
     <row r="6" spans="1:13" ht="42">
       <c r="A6" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>74</v>
+        <v>165</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -5143,19 +5293,19 @@
     </row>
     <row r="7" spans="1:13" ht="56">
       <c r="A7" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -5168,19 +5318,19 @@
     </row>
     <row r="8" spans="1:13" ht="56">
       <c r="A8" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -5193,19 +5343,19 @@
     </row>
     <row r="9" spans="1:13" ht="56">
       <c r="A9" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -5218,19 +5368,19 @@
     </row>
     <row r="10" spans="1:13" ht="56">
       <c r="A10" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -5243,19 +5393,19 @@
     </row>
     <row r="11" spans="1:13" ht="56">
       <c r="A11" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>109</v>
+        <v>170</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -5266,12 +5416,22 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+    <row r="12" spans="1:13" ht="71" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -5489,12 +5649,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C0A86D0A1DF85A4CBF24319CD50F658E" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="18023c554c1e7c0fe5f8bda126dbbbe1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -5608,7 +5762,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -5617,16 +5771,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64745CD4-DB27-427B-80D9-1CCB91D6E4BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5642,10 +5793,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testing Spreadsheet v1.0 OrderReceipt_AdamHale.xlsx
+++ b/Testing Spreadsheet v1.0 OrderReceipt_AdamHale.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <workbookProtection workbookPassword="A6C2" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="60" windowWidth="24840" windowHeight="15600" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="9600" yWindow="0" windowWidth="15080" windowHeight="15140" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="5" r:id="rId1"/>
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="337">
   <si>
     <t xml:space="preserve">Req </t>
   </si>
@@ -550,9 +550,6 @@
     <t>OrderPage_TConn_10</t>
   </si>
   <si>
-    <t>The Order receipt should include the confirmed date and time for collection having selected the later option for collection but choosing a date that has already passed</t>
-  </si>
-  <si>
     <t>The Order receipt should include the confirmed date and time for collection having selected the later option for collection but choosing a time that has already passed</t>
   </si>
   <si>
@@ -646,9 +643,6 @@
     <t>OrderPage_TConn_11</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>The Order receipt should be generated when a user changes their password and places and order</t>
   </si>
   <si>
@@ -752,6 +746,508 @@
   </si>
   <si>
     <t>OrderReceipt_TConn_11</t>
+  </si>
+  <si>
+    <t>The Order receipt should not be accessed having confirmed date and time for collection, selecting the later option for collection but choosing a date that has already passed</t>
+  </si>
+  <si>
+    <t>OrderReceip_TConn_12</t>
+  </si>
+  <si>
+    <t>OrderReceip_TConn_13</t>
+  </si>
+  <si>
+    <t>OrderReceip_TConn_14</t>
+  </si>
+  <si>
+    <t>OrderReceip_TConn_15</t>
+  </si>
+  <si>
+    <t>The Order receipt page should have the company logo in the header of the web page</t>
+  </si>
+  <si>
+    <t>The Order receipt page should have a copyright and site version in the footer</t>
+  </si>
+  <si>
+    <t>The Order receipt page should have a title for the page</t>
+  </si>
+  <si>
+    <t>The Order receipt page should have navigation accessible on the page</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>4.1.1</t>
+  </si>
+  <si>
+    <t>4.1.2</t>
+  </si>
+  <si>
+    <t>4.1.4</t>
+  </si>
+  <si>
+    <t>4.1.7</t>
+  </si>
+  <si>
+    <t>OrderReceip_TCase_12</t>
+  </si>
+  <si>
+    <t>OrderReceip_TCase_13</t>
+  </si>
+  <si>
+    <t>OrderReceip_TCase_14</t>
+  </si>
+  <si>
+    <t>OrderReceip_TCase_15</t>
+  </si>
+  <si>
+    <t>OrderPage_TConn_12</t>
+  </si>
+  <si>
+    <t>OrderPage_TConn_13</t>
+  </si>
+  <si>
+    <t>OrderPage_TConn_14</t>
+  </si>
+  <si>
+    <t>OrderPage_TConn_15</t>
+  </si>
+  <si>
+    <t>When on the Order Receipt page, the company logo should be in the header of the page</t>
+  </si>
+  <si>
+    <t>Having ordered a pizza and confirmed collection</t>
+  </si>
+  <si>
+    <t>Cheese Pizza</t>
+  </si>
+  <si>
+    <t>When on the Order Receipt page, the company Copyright and site version should be in the footer of the page</t>
+  </si>
+  <si>
+    <t>When on the Order Receipt page, there will be a title telling the user what page they are on</t>
+  </si>
+  <si>
+    <t>When on the Order Receipt page, there will be  common navagation method for users to use</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_12</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_13</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_14</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_15</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_12</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_13</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_14</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_15</t>
+  </si>
+  <si>
+    <t>Having added a plain cheese pizza to the basket and confirmed collection, the user should see the company logo in the header of the page</t>
+  </si>
+  <si>
+    <t>There will be the company logo within the header of the page</t>
+  </si>
+  <si>
+    <t>exploratory</t>
+  </si>
+  <si>
+    <t>Having added a plain cheese pizza to the basket and confirmed collection, the user should see the company copyright and site version in the footer of the page</t>
+  </si>
+  <si>
+    <t>There will be the company copyright and site version in the footer of the page</t>
+  </si>
+  <si>
+    <t>Having added a plain cheese pizza to the basket and confirmed collection, the user should see the title of the page they are on</t>
+  </si>
+  <si>
+    <t>There will be a title for the Order Receipt page</t>
+  </si>
+  <si>
+    <t>There will be common navigation on the page</t>
+  </si>
+  <si>
+    <t>Having added a plain cheese pizza to the basket and confirmed collection, the user should see common navagation on the page</t>
+  </si>
+  <si>
+    <t>OrderPage_Tcon_13</t>
+  </si>
+  <si>
+    <t>Minor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is no copyright in the footer, also need to clarify if "2015 - QUB CSC3056 CSC7056" is valid for site version
+</t>
+  </si>
+  <si>
+    <t>OrderReceip_TCase_16</t>
+  </si>
+  <si>
+    <t>OrderReceip_TCase_17</t>
+  </si>
+  <si>
+    <t>OrderReceip_TCase_18</t>
+  </si>
+  <si>
+    <t>OrderReceip_TCase_19</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_16</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_17</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_18</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_19</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_16</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_17</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_18</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_19</t>
+  </si>
+  <si>
+    <t>Test the the navigation for "Home" works from the Order Receipt page</t>
+  </si>
+  <si>
+    <t>Test the the navigation for "Order" works from the Order Receipt page</t>
+  </si>
+  <si>
+    <t>Test the the navigation for "About" works from the Order Receipt page</t>
+  </si>
+  <si>
+    <t>Test the the navigation for "Contact" works from the Order Receipt page</t>
+  </si>
+  <si>
+    <t>User will be directed to the Home page</t>
+  </si>
+  <si>
+    <t>User will be directed to the Order page</t>
+  </si>
+  <si>
+    <t>User will be directed to the About page</t>
+  </si>
+  <si>
+    <t>User will be directed to the Contact page</t>
+  </si>
+  <si>
+    <t>OrderPage_TConn_16</t>
+  </si>
+  <si>
+    <t>OrderPage_TConn_17</t>
+  </si>
+  <si>
+    <t>OrderPage_TConn_18</t>
+  </si>
+  <si>
+    <t>OrderPage_TConn_19</t>
+  </si>
+  <si>
+    <t>Test that clicking on the navigation for Order will direct user to Order page</t>
+  </si>
+  <si>
+    <t>Test that clicking on the navigation for Home will direct user to Home page</t>
+  </si>
+  <si>
+    <t>Test that clicking on the navigation for About will direct user to About page</t>
+  </si>
+  <si>
+    <t>Test that clicking on the navigation for Contact will direct user to Contact page</t>
+  </si>
+  <si>
+    <t>OrderReceip_TConn_16</t>
+  </si>
+  <si>
+    <t>OrderReceip_TConn_17</t>
+  </si>
+  <si>
+    <t>OrderReceip_TConn_18</t>
+  </si>
+  <si>
+    <t>OrderReceip_TConn_19</t>
+  </si>
+  <si>
+    <t>4.1.8</t>
+  </si>
+  <si>
+    <t>Having clicked on the Home navigation while on the Order Receipt page, the user will be directed to the Home page</t>
+  </si>
+  <si>
+    <t>Having clicked on the Contact navigation while on the Order Receipt page, the user will be directed to the Contact page</t>
+  </si>
+  <si>
+    <t>Having clicked on the About navigation while on the Order Receipt page, the user will be directed to the About page</t>
+  </si>
+  <si>
+    <t>Having clicked on the Order navigation while on the Order Receipt page, the user will be directed to the Order page</t>
+  </si>
+  <si>
+    <t>OrderReceip_TCase_20</t>
+  </si>
+  <si>
+    <t>OrderReceip_TCase_21</t>
+  </si>
+  <si>
+    <t>OrderReceip_TCase_22</t>
+  </si>
+  <si>
+    <t>OrderReceip_TCase_23</t>
+  </si>
+  <si>
+    <t>OrderReceip_TCase_24</t>
+  </si>
+  <si>
+    <t>OrderReceip_TCase_25</t>
+  </si>
+  <si>
+    <t>OrderReceip_TCase_26</t>
+  </si>
+  <si>
+    <t>OrderReceip_TCase_27</t>
+  </si>
+  <si>
+    <t>From the Order Receipt page, a user that is logged in can navigate to the reset password page</t>
+  </si>
+  <si>
+    <t>Users that are logged in should be able to log off from the Order Receipt page</t>
+  </si>
+  <si>
+    <t>OrderPage_TConn_20</t>
+  </si>
+  <si>
+    <t>OrderPage_TConn_21</t>
+  </si>
+  <si>
+    <t>OrderPage_TConn_22</t>
+  </si>
+  <si>
+    <t>OrderPage_TConn_23</t>
+  </si>
+  <si>
+    <t>OrderPage_TConn_24</t>
+  </si>
+  <si>
+    <t>OrderPage_TConn_25</t>
+  </si>
+  <si>
+    <t>OrderPage_TConn_26</t>
+  </si>
+  <si>
+    <t>OrderPage_TConn_27</t>
+  </si>
+  <si>
+    <t>Any user that is not registered should not be able to access the Order Receipt page</t>
+  </si>
+  <si>
+    <t>Test the Order Receipt page on … mobile device</t>
+  </si>
+  <si>
+    <t>Test the Order Receipt page on Google Chrome browser, version 36</t>
+  </si>
+  <si>
+    <t>Test the Order Receipt page on Internet Explorer 11</t>
+  </si>
+  <si>
+    <t>OrderReceip_TConn_20</t>
+  </si>
+  <si>
+    <t>OrderReceip_TConn_21</t>
+  </si>
+  <si>
+    <t>OrderReceip_TConn_22</t>
+  </si>
+  <si>
+    <t>OrderReceip_TConn_23</t>
+  </si>
+  <si>
+    <t>OrderReceip_TConn_24</t>
+  </si>
+  <si>
+    <t>OrderReceip_TConn_25</t>
+  </si>
+  <si>
+    <t>OrderReceip_TConn_26</t>
+  </si>
+  <si>
+    <t>4.1.10</t>
+  </si>
+  <si>
+    <t>To ensure all logged users can navigate to the reset password page</t>
+  </si>
+  <si>
+    <t>To ensure that logged users can log off from the Order receipt page</t>
+  </si>
+  <si>
+    <t>To check the Schedule web page works on different browser types</t>
+  </si>
+  <si>
+    <t>OrderReceip_TConn_27</t>
+  </si>
+  <si>
+    <t>3.2.1</t>
+  </si>
+  <si>
+    <t>3.2.2</t>
+  </si>
+  <si>
+    <t>OrderReceip_TCase_28</t>
+  </si>
+  <si>
+    <t>OrderReceip_TCase_29</t>
+  </si>
+  <si>
+    <t>OrderPage_TConn_28</t>
+  </si>
+  <si>
+    <t>OrderPage_TConn_29</t>
+  </si>
+  <si>
+    <t>To check the Order Receipt page works on the Amazon Kindle Fire 7 inch mobile device</t>
+  </si>
+  <si>
+    <t>To check the Order Receipt page worls on the iPad 4 mobile device</t>
+  </si>
+  <si>
+    <t>To check the Order Receipt page works on the iPhone 6 mobile device</t>
+  </si>
+  <si>
+    <t>To check the Order Receipt page works on the Google Nexus 10 mobile device</t>
+  </si>
+  <si>
+    <t>To check the Order Receipt page works on the Samsung Galaxy S4 mobile device</t>
+  </si>
+  <si>
+    <t>To check that unregistered users or not logged in users can't access the Order Receipt page</t>
+  </si>
+  <si>
+    <t>OrderReceip_TConn_28</t>
+  </si>
+  <si>
+    <t>OrderReceip_TConn_29</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_20</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_21</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_22</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_23</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_24</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_25</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_26</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_27</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_28</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_29</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_20</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_21</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_22</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_23</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_24</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_25</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_26</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_27</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_28</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_29</t>
+  </si>
+  <si>
+    <t>The system should prevent unregistered users accessing the Schedule Order page</t>
+  </si>
+  <si>
+    <t>Test Order Receipt page on a iPhone 6 mobile device</t>
+  </si>
+  <si>
+    <t>Test Order Receipt page on a Chrome Web Browser, version 36</t>
+  </si>
+  <si>
+    <t>Test OrderReceipt  page on  a version of Internet Explorer 11</t>
+  </si>
+  <si>
+    <t>Test Order Receipt page on a iPad 4 mobile device</t>
+  </si>
+  <si>
+    <t>Test Order Receipt page on a Amazon Kindle Fire 7 inch mobile device</t>
+  </si>
+  <si>
+    <t>Test Order Receipt page on a Google Nexus 10 mobile device</t>
+  </si>
+  <si>
+    <t>Test Order Receipt page on a Samsung Galaxy S4 mobile device</t>
+  </si>
+  <si>
+    <t>Order Receipt page opens as intended</t>
+  </si>
+  <si>
+    <t>Unregistered users are ristricted and are not allowed to view the Order Receipt page</t>
+  </si>
+  <si>
+    <t>User is able to log of from Order Receipt page</t>
+  </si>
+  <si>
+    <t>User is able to get to the reset password page and reset password from Order Receipt page</t>
+  </si>
+  <si>
+    <t>From the Order Receipt page, a logged user can navigate to the reset password page</t>
+  </si>
+  <si>
+    <t>A logged user should be able to log off from the Order Receipt page</t>
   </si>
 </sst>
 </file>
@@ -964,7 +1460,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="215">
+  <cellStyleXfs count="309">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1180,8 +1676,102 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1276,8 +1866,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="215">
+  <cellStyles count="309">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1385,6 +1979,53 @@
     <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1492,6 +2133,53 @@
     <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -1608,13 +2296,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8.0</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1704,10 +2392,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.0</c:v>
@@ -1731,11 +2419,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2071990488"/>
-        <c:axId val="2071987528"/>
+        <c:axId val="2107205560"/>
+        <c:axId val="2107208504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2071990488"/>
+        <c:axId val="2107205560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1744,7 +2432,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2071987528"/>
+        <c:crossAx val="2107208504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1752,7 +2440,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2071987528"/>
+        <c:axId val="2107208504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1763,7 +2451,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2071990488"/>
+        <c:crossAx val="2107205560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2174,10 +2862,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF023FAE"/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2203,7 +2891,7 @@
     </row>
     <row r="2" spans="1:9" ht="35.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>58</v>
@@ -2220,7 +2908,7 @@
     </row>
     <row r="3" spans="1:9" ht="35.5" customHeight="1">
       <c r="A3" s="32" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>60</v>
@@ -2235,7 +2923,7 @@
     </row>
     <row r="4" spans="1:9" ht="28">
       <c r="A4" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>61</v>
@@ -2252,7 +2940,7 @@
     </row>
     <row r="5" spans="1:9" ht="23">
       <c r="A5" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>62</v>
@@ -2269,7 +2957,7 @@
     </row>
     <row r="6" spans="1:9" ht="28">
       <c r="A6" s="32" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>93</v>
@@ -2286,7 +2974,7 @@
     </row>
     <row r="7" spans="1:9" ht="28">
       <c r="A7" s="32" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>96</v>
@@ -2303,10 +2991,10 @@
     </row>
     <row r="8" spans="1:9" ht="42">
       <c r="A8" s="32" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>59</v>
@@ -2320,10 +3008,10 @@
     </row>
     <row r="9" spans="1:9" ht="42">
       <c r="A9" s="32" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>59</v>
@@ -2334,7 +3022,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="32" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B10" s="32" t="s">
         <v>63</v>
@@ -2348,10 +3036,10 @@
     </row>
     <row r="11" spans="1:9" ht="28">
       <c r="A11" s="32" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>59</v>
@@ -2362,10 +3050,10 @@
     </row>
     <row r="12" spans="1:9" ht="28">
       <c r="A12" s="32" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>59</v>
@@ -2374,11 +3062,257 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="D14" s="1"/>
+    <row r="13" spans="1:9" ht="28">
+      <c r="A13" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="28">
+      <c r="A14" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="28">
+      <c r="A16" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="28">
+      <c r="A17" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="28">
+      <c r="A18" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="28">
+      <c r="A19" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="28">
+      <c r="A20" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="28">
+      <c r="A21" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="28">
+      <c r="A23" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="28">
+      <c r="A24" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="28">
+      <c r="A25" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="28">
+      <c r="A26" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="28">
+      <c r="A27" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="28">
+      <c r="A28" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="28">
+      <c r="A29" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="28">
+      <c r="A30" s="32" t="s">
+        <v>302</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2391,7 +3325,7 @@
           <x14:formula1>
             <xm:f>Settings!$B$4:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D14</xm:sqref>
+          <xm:sqref>D2:D12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2409,8 +3343,8 @@
   </sheetPr>
   <dimension ref="A1:Z161"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="E14" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2482,7 +3416,7 @@
     </row>
     <row r="2" spans="1:26" ht="52">
       <c r="A2" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>64</v>
@@ -2521,7 +3455,7 @@
     </row>
     <row r="3" spans="1:26" ht="65">
       <c r="A3" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>75</v>
@@ -2560,7 +3494,7 @@
     </row>
     <row r="4" spans="1:26" ht="52">
       <c r="A4" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>85</v>
@@ -2587,7 +3521,7 @@
         <v>65</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>33</v>
@@ -2611,7 +3545,7 @@
     </row>
     <row r="5" spans="1:26" ht="52">
       <c r="A5" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>89</v>
@@ -2647,7 +3581,7 @@
     </row>
     <row r="6" spans="1:26" ht="65">
       <c r="A6" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>92</v>
@@ -2674,7 +3608,7 @@
         <v>65</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>33</v>
@@ -2695,7 +3629,7 @@
     </row>
     <row r="7" spans="1:26" ht="65">
       <c r="A7" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>97</v>
@@ -2734,10 +3668,10 @@
     </row>
     <row r="8" spans="1:26" ht="52">
       <c r="A8" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>76</v>
@@ -2772,15 +3706,15 @@
       </c>
       <c r="U8" s="31">
         <f>COUNTIF(H2:H90,"*Passed*")</f>
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="52">
       <c r="A9" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>76</v>
@@ -2815,21 +3749,21 @@
       </c>
       <c r="U9" s="31">
         <f>COUNTIF(H3:H90,"*Failed*")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="52">
       <c r="A10" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E10" s="32" t="s">
         <v>102</v>
@@ -2858,21 +3792,21 @@
       </c>
       <c r="U10" s="31">
         <f>COUNTIF(H4:H90,"*Not*")</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="76" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E11" s="32" t="s">
         <v>103</v>
@@ -2890,7 +3824,7 @@
         <v>65</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>33</v>
@@ -2905,30 +3839,30 @@
         <v>83</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P11" s="10"/>
     </row>
     <row r="12" spans="1:26" ht="65">
       <c r="A12" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="32" t="s">
         <v>134</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>135</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G12" s="36">
         <v>42086</v>
       </c>
       <c r="H12" s="26" t="s">
@@ -2937,9 +3871,7 @@
       <c r="I12" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="J12" s="10" t="s">
-        <v>136</v>
-      </c>
+      <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
@@ -2947,12 +3879,34 @@
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
     </row>
-    <row r="13" spans="1:26">
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="10"/>
+    <row r="13" spans="1:26" ht="52">
+      <c r="A13" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="36">
+        <v>42099</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
@@ -2961,26 +3915,82 @@
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
     </row>
-    <row r="14" spans="1:26">
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
+    <row r="14" spans="1:26" ht="65">
+      <c r="A14" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="36">
+        <v>42099</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="K14" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="M14" s="34">
+        <v>42099</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="P14" s="10"/>
     </row>
-    <row r="15" spans="1:26">
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="10"/>
+    <row r="15" spans="1:26" ht="52">
+      <c r="A15" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="36">
+        <v>42099</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
@@ -2989,12 +3999,34 @@
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
     </row>
-    <row r="16" spans="1:26">
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="10"/>
+    <row r="16" spans="1:26" ht="52">
+      <c r="A16" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="36">
+        <v>42099</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
@@ -3003,11 +4035,31 @@
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
     </row>
-    <row r="17" spans="5:21">
-      <c r="E17" s="10"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="26"/>
+    <row r="17" spans="1:21" ht="39">
+      <c r="A17" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="36">
+        <v>42099</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>24</v>
+      </c>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
@@ -3017,11 +4069,31 @@
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
     </row>
-    <row r="18" spans="5:21">
-      <c r="E18" s="10"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="26"/>
+    <row r="18" spans="1:21" ht="39">
+      <c r="A18" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="36">
+        <v>42099</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>24</v>
+      </c>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
@@ -3031,11 +4103,31 @@
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
     </row>
-    <row r="19" spans="5:21">
-      <c r="E19" s="10"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="26"/>
+    <row r="19" spans="1:21" ht="39">
+      <c r="A19" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="36">
+        <v>42099</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>24</v>
+      </c>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
@@ -3045,11 +4137,31 @@
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
     </row>
-    <row r="20" spans="5:21">
-      <c r="E20" s="10"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="26"/>
+    <row r="20" spans="1:21" ht="39">
+      <c r="A20" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="36">
+        <v>42099</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>24</v>
+      </c>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
@@ -3059,11 +4171,31 @@
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
     </row>
-    <row r="21" spans="5:21">
-      <c r="E21" s="10"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="26"/>
+    <row r="21" spans="1:21" ht="52">
+      <c r="A21" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="36">
+        <v>42099</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>23</v>
+      </c>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
@@ -3073,11 +4205,31 @@
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
     </row>
-    <row r="22" spans="5:21">
-      <c r="E22" s="10"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="26"/>
+    <row r="22" spans="1:21" ht="39">
+      <c r="A22" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="36">
+        <v>42099</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>23</v>
+      </c>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
@@ -3087,11 +4239,31 @@
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
     </row>
-    <row r="23" spans="5:21">
-      <c r="E23" s="10"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="26"/>
+    <row r="23" spans="1:21" ht="52">
+      <c r="A23" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="36">
+        <v>42099</v>
+      </c>
+      <c r="H23" s="26" t="s">
+        <v>23</v>
+      </c>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
@@ -3101,11 +4273,31 @@
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
     </row>
-    <row r="24" spans="5:21">
-      <c r="E24" s="10"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="26"/>
+    <row r="24" spans="1:21" ht="26">
+      <c r="A24" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="36">
+        <v>42099</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>23</v>
+      </c>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
@@ -3115,11 +4307,31 @@
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
     </row>
-    <row r="25" spans="5:21">
-      <c r="E25" s="10"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="26"/>
+    <row r="25" spans="1:21" ht="26">
+      <c r="A25" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="36">
+        <v>42099</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>23</v>
+      </c>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
@@ -3132,11 +4344,31 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="5:21">
-      <c r="E26" s="10"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="26"/>
+    <row r="26" spans="1:21" ht="26">
+      <c r="A26" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="36">
+        <v>42099</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>23</v>
+      </c>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
@@ -3150,14 +4382,34 @@
       </c>
       <c r="U26" s="31">
         <f>COUNTIF(L2:L50,"*Minor*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="5:21">
-      <c r="E27" s="10"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="26"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="26">
+      <c r="A27" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="36">
+        <v>42099</v>
+      </c>
+      <c r="H27" s="26" t="s">
+        <v>23</v>
+      </c>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
@@ -3170,15 +4422,34 @@
         <v>57</v>
       </c>
       <c r="U27" s="31">
-        <f>COUNTIF(L2:L7,"*Moderate*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="5:21">
-      <c r="E28" s="10"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="26"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="26">
+      <c r="A28" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="36">
+        <v>42099</v>
+      </c>
+      <c r="H28" s="26" t="s">
+        <v>23</v>
+      </c>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
@@ -3195,11 +4466,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="5:21">
-      <c r="E29" s="10"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="26"/>
+    <row r="29" spans="1:21" ht="39">
+      <c r="A29" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="36">
+        <v>42099</v>
+      </c>
+      <c r="H29" s="26" t="s">
+        <v>23</v>
+      </c>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
@@ -3216,11 +4507,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="5:21">
-      <c r="E30" s="10"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="26"/>
+    <row r="30" spans="1:21" ht="26">
+      <c r="A30" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="36">
+        <v>42099</v>
+      </c>
+      <c r="H30" s="26" t="s">
+        <v>23</v>
+      </c>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
@@ -3237,7 +4548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="5:21">
+    <row r="31" spans="1:21">
       <c r="E31" s="10"/>
       <c r="F31" s="11"/>
       <c r="G31" s="10"/>
@@ -3251,7 +4562,7 @@
       <c r="O31" s="10"/>
       <c r="P31" s="10"/>
     </row>
-    <row r="32" spans="5:21">
+    <row r="32" spans="1:21">
       <c r="E32" s="10"/>
       <c r="F32" s="11"/>
       <c r="G32" s="10"/>
@@ -5122,10 +6433,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF99FF99"/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5167,10 +6478,10 @@
     </row>
     <row r="2" spans="1:13" ht="42">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>69</v>
@@ -5193,10 +6504,10 @@
     </row>
     <row r="3" spans="1:13" ht="56">
       <c r="A3" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>78</v>
@@ -5218,10 +6529,10 @@
     </row>
     <row r="4" spans="1:13" ht="56">
       <c r="A4" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>87</v>
@@ -5243,10 +6554,10 @@
     </row>
     <row r="5" spans="1:13" ht="42">
       <c r="A5" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>87</v>
@@ -5268,10 +6579,10 @@
     </row>
     <row r="6" spans="1:13" ht="42">
       <c r="A6" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>100</v>
@@ -5293,10 +6604,10 @@
     </row>
     <row r="7" spans="1:13" ht="56">
       <c r="A7" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>99</v>
@@ -5318,16 +6629,16 @@
     </row>
     <row r="8" spans="1:13" ht="56">
       <c r="A8" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>68</v>
@@ -5343,16 +6654,16 @@
     </row>
     <row r="9" spans="1:13" ht="56">
       <c r="A9" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>68</v>
@@ -5368,16 +6679,16 @@
     </row>
     <row r="10" spans="1:13" ht="56">
       <c r="A10" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>68</v>
@@ -5393,16 +6704,16 @@
     </row>
     <row r="11" spans="1:13" ht="56">
       <c r="A11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>68</v>
@@ -5418,16 +6729,16 @@
     </row>
     <row r="12" spans="1:13" ht="71" customHeight="1">
       <c r="A12" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>68</v>
@@ -5441,12 +6752,22 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+    <row r="13" spans="1:13" ht="56">
+      <c r="A13" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -5456,12 +6777,22 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+    <row r="14" spans="1:13" ht="56">
+      <c r="A14" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -5471,12 +6802,22 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+    <row r="15" spans="1:13" ht="42">
+      <c r="A15" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -5486,12 +6827,22 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+    <row r="16" spans="1:13" ht="42">
+      <c r="A16" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>208</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -5501,12 +6852,22 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+    <row r="17" spans="1:13" ht="28">
+      <c r="A17" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>208</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -5516,12 +6877,22 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+    <row r="18" spans="1:13" ht="28">
+      <c r="A18" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>208</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -5531,12 +6902,22 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+    <row r="19" spans="1:13" ht="28">
+      <c r="A19" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>208</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -5545,6 +6926,193 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" ht="28">
+      <c r="A20" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="56">
+      <c r="A21" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="28">
+      <c r="A22" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="56">
+      <c r="A23" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>332</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="28">
+      <c r="A24" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="28">
+      <c r="A25" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="28">
+      <c r="A26" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="28">
+      <c r="A27" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="28">
+      <c r="A28" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="28">
+      <c r="A29" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="28">
+      <c r="A30" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>208</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5649,6 +7217,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C0A86D0A1DF85A4CBF24319CD50F658E" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="18023c554c1e7c0fe5f8bda126dbbbe1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -5762,22 +7345,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64745CD4-DB27-427B-80D9-1CCB91D6E4BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5791,21 +7376,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Testing Spreadsheet v1.0 OrderReceipt_AdamHale.xlsx
+++ b/Testing Spreadsheet v1.0 OrderReceipt_AdamHale.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <workbookProtection workbookPassword="A6C2" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="0" windowWidth="15080" windowHeight="15140" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="-760" yWindow="-460" windowWidth="25600" windowHeight="16000" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="5" r:id="rId1"/>
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="435">
   <si>
     <t xml:space="preserve">Req </t>
   </si>
@@ -613,9 +613,6 @@
     <t>Meat Extravaganza with peppers</t>
   </si>
   <si>
-    <t>This is the same order reference as the prevois test case thererfore it is not unique, it is not critical or high as it will not lead to system crash or failure, it will just cause significant difficulties on collection</t>
-  </si>
-  <si>
     <t>To test that the system provides a unique order reference  on the order receipt that is different to the previous Test Case</t>
   </si>
   <si>
@@ -688,39 +685,6 @@
     <t>OrderReceip_TConn_11</t>
   </si>
   <si>
-    <t>OrderReceip_TCase_1</t>
-  </si>
-  <si>
-    <t>OrderReceip_TCase_2</t>
-  </si>
-  <si>
-    <t>OrderReceip_TCase_3</t>
-  </si>
-  <si>
-    <t>OrderReceip_TCase_4</t>
-  </si>
-  <si>
-    <t>OrderReceip_TCase_5</t>
-  </si>
-  <si>
-    <t>OrderReceip_TCase_6</t>
-  </si>
-  <si>
-    <t>OrderReceip_TCase_7</t>
-  </si>
-  <si>
-    <t>OrderReceip_TCase_8</t>
-  </si>
-  <si>
-    <t>OrderReceip_TCase_9</t>
-  </si>
-  <si>
-    <t>OrderReceip_TCase_10</t>
-  </si>
-  <si>
-    <t>OrderReceip_TCase_11</t>
-  </si>
-  <si>
     <t>OrderReceipt_TConn_3</t>
   </si>
   <si>
@@ -790,18 +754,6 @@
     <t>4.1.7</t>
   </si>
   <si>
-    <t>OrderReceip_TCase_12</t>
-  </si>
-  <si>
-    <t>OrderReceip_TCase_13</t>
-  </si>
-  <si>
-    <t>OrderReceip_TCase_14</t>
-  </si>
-  <si>
-    <t>OrderReceip_TCase_15</t>
-  </si>
-  <si>
     <t>OrderPage_TConn_12</t>
   </si>
   <si>
@@ -881,9 +833,6 @@
   </si>
   <si>
     <t>Having added a plain cheese pizza to the basket and confirmed collection, the user should see common navagation on the page</t>
-  </si>
-  <si>
-    <t>OrderPage_Tcon_13</t>
   </si>
   <si>
     <t>Minor</t>
@@ -893,18 +842,6 @@
 </t>
   </si>
   <si>
-    <t>OrderReceip_TCase_16</t>
-  </si>
-  <si>
-    <t>OrderReceip_TCase_17</t>
-  </si>
-  <si>
-    <t>OrderReceip_TCase_18</t>
-  </si>
-  <si>
-    <t>OrderReceip_TCase_19</t>
-  </si>
-  <si>
     <t>OrderReceipt_TProc_16</t>
   </si>
   <si>
@@ -1004,30 +941,6 @@
     <t>Having clicked on the Order navigation while on the Order Receipt page, the user will be directed to the Order page</t>
   </si>
   <si>
-    <t>OrderReceip_TCase_20</t>
-  </si>
-  <si>
-    <t>OrderReceip_TCase_21</t>
-  </si>
-  <si>
-    <t>OrderReceip_TCase_22</t>
-  </si>
-  <si>
-    <t>OrderReceip_TCase_23</t>
-  </si>
-  <si>
-    <t>OrderReceip_TCase_24</t>
-  </si>
-  <si>
-    <t>OrderReceip_TCase_25</t>
-  </si>
-  <si>
-    <t>OrderReceip_TCase_26</t>
-  </si>
-  <si>
-    <t>OrderReceip_TCase_27</t>
-  </si>
-  <si>
     <t>From the Order Receipt page, a user that is logged in can navigate to the reset password page</t>
   </si>
   <si>
@@ -1061,15 +974,6 @@
     <t>Any user that is not registered should not be able to access the Order Receipt page</t>
   </si>
   <si>
-    <t>Test the Order Receipt page on … mobile device</t>
-  </si>
-  <si>
-    <t>Test the Order Receipt page on Google Chrome browser, version 36</t>
-  </si>
-  <si>
-    <t>Test the Order Receipt page on Internet Explorer 11</t>
-  </si>
-  <si>
     <t>OrderReceip_TConn_20</t>
   </si>
   <si>
@@ -1100,9 +1004,6 @@
     <t>To ensure that logged users can log off from the Order receipt page</t>
   </si>
   <si>
-    <t>To check the Schedule web page works on different browser types</t>
-  </si>
-  <si>
     <t>OrderReceip_TConn_27</t>
   </si>
   <si>
@@ -1112,33 +1013,12 @@
     <t>3.2.2</t>
   </si>
   <si>
-    <t>OrderReceip_TCase_28</t>
-  </si>
-  <si>
-    <t>OrderReceip_TCase_29</t>
-  </si>
-  <si>
     <t>OrderPage_TConn_28</t>
   </si>
   <si>
     <t>OrderPage_TConn_29</t>
   </si>
   <si>
-    <t>To check the Order Receipt page works on the Amazon Kindle Fire 7 inch mobile device</t>
-  </si>
-  <si>
-    <t>To check the Order Receipt page worls on the iPad 4 mobile device</t>
-  </si>
-  <si>
-    <t>To check the Order Receipt page works on the iPhone 6 mobile device</t>
-  </si>
-  <si>
-    <t>To check the Order Receipt page works on the Google Nexus 10 mobile device</t>
-  </si>
-  <si>
-    <t>To check the Order Receipt page works on the Samsung Galaxy S4 mobile device</t>
-  </si>
-  <si>
     <t>To check that unregistered users or not logged in users can't access the Order Receipt page</t>
   </si>
   <si>
@@ -1211,21 +1091,6 @@
     <t>The system should prevent unregistered users accessing the Schedule Order page</t>
   </si>
   <si>
-    <t>Test Order Receipt page on a iPhone 6 mobile device</t>
-  </si>
-  <si>
-    <t>Test Order Receipt page on a Chrome Web Browser, version 36</t>
-  </si>
-  <si>
-    <t>Test OrderReceipt  page on  a version of Internet Explorer 11</t>
-  </si>
-  <si>
-    <t>Test Order Receipt page on a iPad 4 mobile device</t>
-  </si>
-  <si>
-    <t>Test Order Receipt page on a Amazon Kindle Fire 7 inch mobile device</t>
-  </si>
-  <si>
     <t>Test Order Receipt page on a Google Nexus 10 mobile device</t>
   </si>
   <si>
@@ -1238,9 +1103,6 @@
     <t>Unregistered users are ristricted and are not allowed to view the Order Receipt page</t>
   </si>
   <si>
-    <t>User is able to log of from Order Receipt page</t>
-  </si>
-  <si>
     <t>User is able to get to the reset password page and reset password from Order Receipt page</t>
   </si>
   <si>
@@ -1248,13 +1110,445 @@
   </si>
   <si>
     <t>A logged user should be able to log off from the Order Receipt page</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_1</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_2</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_3</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_4</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_5</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_6</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_7</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_8</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_9</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_10</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_11</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_12</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_13</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_14</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_15</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_16</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_17</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_18</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_19</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_20</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_21</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_22</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_23</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_24</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_25</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_26</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_27</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_28</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_29</t>
+  </si>
+  <si>
+    <t>OrderPage_21</t>
+  </si>
+  <si>
+    <t>OrderPage_13</t>
+  </si>
+  <si>
+    <t>When clicking on the log out button, the user is first redirected to the Order Page. They are not directly logged out straight away, it is only when this is clicked for a second time is the user logged out</t>
+  </si>
+  <si>
+    <t>Test Order Receipt page on an Amazon Kindle Fire 7 inch mobile device</t>
+  </si>
+  <si>
+    <t>Test the Order Receipt page on an Amazon Kindle Fire 7 inch mobile device</t>
+  </si>
+  <si>
+    <t>Test Order Receipt page on an iPad 4 mobile device</t>
+  </si>
+  <si>
+    <t>Test the Order Receipt page on a Google Nexus 10 mobile device</t>
+  </si>
+  <si>
+    <t>Test Order Receipt page on an iPhone 6 mobile device</t>
+  </si>
+  <si>
+    <t>Test the Order Receipt page on an iPhone 6 mobile device</t>
+  </si>
+  <si>
+    <t>On the Amazon Kindle Fire 7 inch mobile device, the Order receipt should include a list of the order items including individual prices</t>
+  </si>
+  <si>
+    <t>To check the Order Receipt page works on the Amazon Kindle Fire 7 inch mobile device. This will be a general test looking for new defects on this mobile device before testing begins for defects found initially</t>
+  </si>
+  <si>
+    <t>This is the same order reference as the previous test case thererfore it is not unique, it is not critical or high as it will not lead to system crash or failure, it will just cause significant difficulties on collection</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_30</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_31</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_32</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_33</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_34</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_30</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_31</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_32</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_33</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_34</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_30</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_31</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_32</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_33</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_34</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_35</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_36</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_37</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_38</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_39</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_40</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_41</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_42</t>
+  </si>
+  <si>
+    <t>OrderPage_TConn_30</t>
+  </si>
+  <si>
+    <t>OrderPage_TConn_31</t>
+  </si>
+  <si>
+    <t>OrderPage_TConn_32</t>
+  </si>
+  <si>
+    <t>OrderPage_TConn_33</t>
+  </si>
+  <si>
+    <t>OrderPage_TConn_34</t>
+  </si>
+  <si>
+    <t>OrderPage_TConn_35</t>
+  </si>
+  <si>
+    <t>OrderPage_TConn_36</t>
+  </si>
+  <si>
+    <t>OrderPage_TConn_37</t>
+  </si>
+  <si>
+    <t>OrderPage_TConn_38</t>
+  </si>
+  <si>
+    <t>OrderPage_TConn_39</t>
+  </si>
+  <si>
+    <t>OrderPage_TConn_40</t>
+  </si>
+  <si>
+    <t>OrderPage_TConn_41</t>
+  </si>
+  <si>
+    <t>OrderPage_TConn_42</t>
+  </si>
+  <si>
+    <t>OrderPage_TConn_43</t>
+  </si>
+  <si>
+    <t>OrderPage_TConn_44</t>
+  </si>
+  <si>
+    <t>OrderPage_TConn_45</t>
+  </si>
+  <si>
+    <t>OrderPage_TConn_46</t>
+  </si>
+  <si>
+    <t>OrderPage_TConn_47</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_43</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_44</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_45</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_46</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_47</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_48</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_49</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_50</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_51</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_52</t>
+  </si>
+  <si>
+    <t>OrderPage_TConn_48</t>
+  </si>
+  <si>
+    <t>OrderPage_TConn_49</t>
+  </si>
+  <si>
+    <t>OrderPage_TConn_50</t>
+  </si>
+  <si>
+    <t>OrderPage_TConn_51</t>
+  </si>
+  <si>
+    <t>OrderPage_TConn_52</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_35</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_36</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_37</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_38</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_39</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_40</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_41</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_42</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_43</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_44</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_45</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_46</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_47</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_48</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_49</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_50</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_51</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_52</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_35</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_36</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_37</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_38</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_39</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_40</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_41</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_42</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_43</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_44</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_45</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_46</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_47</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_48</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_49</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_50</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_51</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_52</t>
+  </si>
+  <si>
+    <t>To check the Order Receipt page works on theiPad 4 mobile device. This will be a general test looking for new defects on this mobile device before testing begins for defects found initially</t>
+  </si>
+  <si>
+    <t>On the iPad 4 mobile device, the Order receipt should include a list of the order items including individual prices</t>
+  </si>
+  <si>
+    <t>OrderReceip_TConn_30</t>
+  </si>
+  <si>
+    <t>OrderReceip_TConn_31</t>
+  </si>
+  <si>
+    <t>OrderReceip_TConn_32</t>
+  </si>
+  <si>
+    <t>OrderReceip_TConn_33</t>
+  </si>
+  <si>
+    <t>OrderReceip_TConn_34</t>
+  </si>
+  <si>
+    <t>To check the Order Receipt page works on the iPad 4 mobile device. This will be a general test looking for new defects on this mobile device before testing begins for defects found initially</t>
+  </si>
+  <si>
+    <t>Test the Order Receipt page on an iPad 4 mobile device</t>
+  </si>
+  <si>
+    <t>Test the Order Receipt page on  a Samsung Galaxy S4 mobile device</t>
+  </si>
+  <si>
+    <t>User is able to log off from Order Receipt page</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1375,6 +1669,12 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1460,7 +1760,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="309">
+  <cellStyleXfs count="669">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1770,8 +2070,368 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1870,8 +2530,14 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="309">
+  <cellStyles count="669">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2026,6 +2692,186 @@
     <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="474" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="476" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="480" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="488" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="492" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="494" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="496" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="498" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="500" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="502" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="504" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="506" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="508" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="510" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="512" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="514" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="516" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="518" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="520" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="522" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="524" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="526" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="528" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="530" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="532" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="534" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="536" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="538" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="540" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="542" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="544" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="546" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="548" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="550" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="552" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="554" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="556" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="558" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="560" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="562" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="564" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="566" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="568" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="570" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="572" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="574" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="576" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="578" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="580" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="582" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="584" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="586" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="588" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="590" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="592" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="594" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="596" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="598" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="600" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="602" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="604" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="606" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="608" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="610" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="612" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="614" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="616" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="618" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="620" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="622" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="624" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="626" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="628" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="630" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="632" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="634" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="636" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="638" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="640" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="642" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="644" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="646" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="648" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="650" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="652" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="654" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="656" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="658" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="660" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="662" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="664" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="666" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="668" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2180,6 +3026,186 @@
     <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="445" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="447" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="449" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="451" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="453" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="455" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="457" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="459" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="461" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="463" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="467" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="469" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="471" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="473" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="475" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="477" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="479" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="483" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="487" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="489" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="491" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="493" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="495" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="497" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="499" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="501" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="503" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="505" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="507" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="509" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="511" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="513" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="515" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="517" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="519" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="521" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="523" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="525" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="527" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="529" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="531" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="533" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="535" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="537" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="539" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="541" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="543" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="545" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="547" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="549" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="551" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="553" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="555" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="557" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="559" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="561" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="563" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="565" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="567" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="569" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="571" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="573" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="575" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="577" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="579" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="581" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="583" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="585" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="587" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="589" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="591" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="593" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="595" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="597" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="599" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="601" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="603" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="605" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="607" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="609" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="611" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="613" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="615" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="617" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="619" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="621" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="623" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="625" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="627" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="629" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="631" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="633" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="635" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="637" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="639" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="641" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="643" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="645" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="647" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="649" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="651" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="653" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="655" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="657" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="659" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="661" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="663" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="665" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="667" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -2296,13 +3322,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>15.0</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.0</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2419,11 +3445,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2107205560"/>
-        <c:axId val="2107208504"/>
+        <c:axId val="2105623048"/>
+        <c:axId val="2105620088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2107205560"/>
+        <c:axId val="2105623048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2432,7 +3458,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107208504"/>
+        <c:crossAx val="2105620088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2440,7 +3466,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2107208504"/>
+        <c:axId val="2105620088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2451,7 +3477,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107205560"/>
+        <c:crossAx val="2105623048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2862,10 +3888,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF023FAE"/>
   </sheetPr>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2891,7 +3917,7 @@
     </row>
     <row r="2" spans="1:9" ht="35.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>58</v>
@@ -2908,7 +3934,7 @@
     </row>
     <row r="3" spans="1:9" ht="35.5" customHeight="1">
       <c r="A3" s="32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>60</v>
@@ -2923,7 +3949,7 @@
     </row>
     <row r="4" spans="1:9" ht="28">
       <c r="A4" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>61</v>
@@ -2940,7 +3966,7 @@
     </row>
     <row r="5" spans="1:9" ht="23">
       <c r="A5" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>62</v>
@@ -2957,7 +3983,7 @@
     </row>
     <row r="6" spans="1:9" ht="28">
       <c r="A6" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>93</v>
@@ -2974,7 +4000,7 @@
     </row>
     <row r="7" spans="1:9" ht="28">
       <c r="A7" s="32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>96</v>
@@ -2991,10 +4017,10 @@
     </row>
     <row r="8" spans="1:9" ht="42">
       <c r="A8" s="32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>59</v>
@@ -3008,7 +4034,7 @@
     </row>
     <row r="9" spans="1:9" ht="42">
       <c r="A9" s="32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B9" s="32" t="s">
         <v>104</v>
@@ -3022,7 +4048,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B10" s="32" t="s">
         <v>63</v>
@@ -3036,7 +4062,7 @@
     </row>
     <row r="11" spans="1:9" ht="28">
       <c r="A11" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>108</v>
@@ -3050,10 +4076,10 @@
     </row>
     <row r="12" spans="1:9" ht="28">
       <c r="A12" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>59</v>
@@ -3064,13 +4090,13 @@
     </row>
     <row r="13" spans="1:9" ht="28">
       <c r="A13" s="32" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>11</v>
@@ -3078,13 +4104,13 @@
     </row>
     <row r="14" spans="1:9" ht="28">
       <c r="A14" s="32" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>11</v>
@@ -3092,13 +4118,13 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="32" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
@@ -3106,13 +4132,13 @@
     </row>
     <row r="16" spans="1:9" ht="28">
       <c r="A16" s="32" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>11</v>
@@ -3120,13 +4146,13 @@
     </row>
     <row r="17" spans="1:4" ht="28">
       <c r="A17" s="32" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>11</v>
@@ -3134,13 +4160,13 @@
     </row>
     <row r="18" spans="1:4" ht="28">
       <c r="A18" s="32" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>11</v>
@@ -3148,13 +4174,13 @@
     </row>
     <row r="19" spans="1:4" ht="28">
       <c r="A19" s="32" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>11</v>
@@ -3162,13 +4188,13 @@
     </row>
     <row r="20" spans="1:4" ht="28">
       <c r="A20" s="32" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>11</v>
@@ -3176,13 +4202,13 @@
     </row>
     <row r="21" spans="1:4" ht="28">
       <c r="A21" s="32" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>11</v>
@@ -3190,83 +4216,83 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="32" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="28">
       <c r="A23" s="32" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="28">
+    <row r="24" spans="1:4" ht="56">
       <c r="A24" s="32" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>290</v>
+        <v>257</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="28">
+    <row r="25" spans="1:4" ht="42">
       <c r="A25" s="32" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>290</v>
+        <v>59</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>6</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="28">
       <c r="A26" s="32" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>297</v>
+        <v>93</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>290</v>
+        <v>59</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>6</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="28">
       <c r="A27" s="32" t="s">
-        <v>283</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>298</v>
+        <v>251</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>108</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>290</v>
+        <v>59</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>6</v>
@@ -3274,44 +4300,80 @@
     </row>
     <row r="28" spans="1:4" ht="28">
       <c r="A28" s="32" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>299</v>
+        <v>164</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>290</v>
+        <v>169</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="32" t="s">
-        <v>301</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>287</v>
+        <v>261</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>254</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>290</v>
+        <v>252</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="28">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="56">
       <c r="A30" s="32" t="s">
-        <v>302</v>
+        <v>262</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>6</v>
+        <v>431</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" ht="28">
+      <c r="A31" s="32" t="s">
+        <v>426</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="28">
+      <c r="A32" s="32" t="s">
+        <v>427</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="28">
+      <c r="A33" s="32" t="s">
+        <v>428</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="28">
+      <c r="A34" s="32" t="s">
+        <v>429</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="56">
+      <c r="A35" s="32" t="s">
+        <v>430</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -3343,15 +4405,15 @@
   </sheetPr>
   <dimension ref="A1:Z161"/>
   <sheetViews>
-    <sheetView topLeftCell="E14" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView topLeftCell="A44" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" customWidth="1"/>
-    <col min="3" max="3" width="23.1640625" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
     <col min="4" max="4" width="32.5" customWidth="1"/>
     <col min="5" max="6" width="18.5" customWidth="1"/>
     <col min="7" max="7" width="22.6640625" customWidth="1"/>
@@ -3414,9 +4476,9 @@
       </c>
       <c r="P1" s="19"/>
     </row>
-    <row r="2" spans="1:26" ht="52">
+    <row r="2" spans="1:26" ht="39">
       <c r="A2" s="1" t="s">
-        <v>150</v>
+        <v>291</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>64</v>
@@ -3453,9 +4515,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="65">
+    <row r="3" spans="1:26" ht="52">
       <c r="A3" s="1" t="s">
-        <v>151</v>
+        <v>292</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>75</v>
@@ -3492,9 +4554,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="52">
+    <row r="4" spans="1:26" ht="39">
       <c r="A4" s="1" t="s">
-        <v>152</v>
+        <v>293</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>85</v>
@@ -3521,7 +4583,7 @@
         <v>65</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>33</v>
@@ -3543,9 +4605,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="52">
+    <row r="5" spans="1:26" ht="39">
       <c r="A5" s="1" t="s">
-        <v>153</v>
+        <v>294</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>89</v>
@@ -3579,9 +4641,9 @@
       <c r="O5" s="9"/>
       <c r="P5" s="10"/>
     </row>
-    <row r="6" spans="1:26" ht="65">
+    <row r="6" spans="1:26" ht="52">
       <c r="A6" s="1" t="s">
-        <v>154</v>
+        <v>295</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>92</v>
@@ -3608,7 +4670,7 @@
         <v>65</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>33</v>
@@ -3627,9 +4689,9 @@
       </c>
       <c r="P6" s="10"/>
     </row>
-    <row r="7" spans="1:26" ht="65">
+    <row r="7" spans="1:26" ht="52">
       <c r="A7" s="1" t="s">
-        <v>155</v>
+        <v>296</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>97</v>
@@ -3666,9 +4728,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="52">
+    <row r="8" spans="1:26" ht="39">
       <c r="A8" s="1" t="s">
-        <v>156</v>
+        <v>297</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>109</v>
@@ -3706,12 +4768,12 @@
       </c>
       <c r="U8" s="31">
         <f>COUNTIF(H2:H90,"*Passed*")</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="52">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="39">
       <c r="A9" s="1" t="s">
-        <v>157</v>
+        <v>298</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>109</v>
@@ -3749,15 +4811,15 @@
       </c>
       <c r="U9" s="31">
         <f>COUNTIF(H3:H90,"*Failed*")</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="39">
       <c r="A10" s="1" t="s">
-        <v>158</v>
+        <v>299</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>76</v>
@@ -3792,15 +4854,15 @@
       </c>
       <c r="U10" s="31">
         <f>COUNTIF(H4:H90,"*Not*")</f>
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="76" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>159</v>
+        <v>300</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>76</v>
@@ -3824,7 +4886,7 @@
         <v>65</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>33</v>
@@ -3839,25 +4901,25 @@
         <v>83</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>125</v>
+        <v>331</v>
       </c>
       <c r="P11" s="10"/>
     </row>
-    <row r="12" spans="1:26" ht="65">
+    <row r="12" spans="1:26" ht="52">
       <c r="A12" s="1" t="s">
-        <v>160</v>
+        <v>301</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="32" t="s">
         <v>133</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>134</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>6</v>
@@ -3879,21 +4941,21 @@
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
     </row>
-    <row r="13" spans="1:26" ht="52">
+    <row r="13" spans="1:26" ht="39">
       <c r="A13" s="1" t="s">
-        <v>184</v>
+        <v>302</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>11</v>
@@ -3915,21 +4977,21 @@
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
     </row>
-    <row r="14" spans="1:26" ht="65">
+    <row r="14" spans="1:26" ht="42">
       <c r="A14" s="1" t="s">
-        <v>185</v>
+        <v>303</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>11</v>
@@ -3944,13 +5006,13 @@
         <v>65</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>215</v>
+        <v>321</v>
       </c>
       <c r="K14" s="35" t="s">
         <v>33</v>
       </c>
       <c r="L14" s="35" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="M14" s="34">
         <v>42099</v>
@@ -3959,25 +5021,25 @@
         <v>83</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="P14" s="10"/>
     </row>
-    <row r="15" spans="1:26" ht="52">
+    <row r="15" spans="1:26" ht="39">
       <c r="A15" s="1" t="s">
-        <v>186</v>
+        <v>304</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>11</v>
@@ -3999,21 +5061,21 @@
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
     </row>
-    <row r="16" spans="1:26" ht="52">
+    <row r="16" spans="1:26" ht="39">
       <c r="A16" s="1" t="s">
-        <v>187</v>
+        <v>305</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>11</v>
@@ -4035,21 +5097,21 @@
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
     </row>
-    <row r="17" spans="1:21" ht="39">
+    <row r="17" spans="1:21" ht="26">
       <c r="A17" s="1" t="s">
-        <v>218</v>
+        <v>306</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>11</v>
@@ -4060,7 +5122,9 @@
       <c r="H17" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="10"/>
+      <c r="I17" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
@@ -4069,21 +5133,21 @@
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
     </row>
-    <row r="18" spans="1:21" ht="39">
+    <row r="18" spans="1:21" ht="26">
       <c r="A18" s="1" t="s">
-        <v>219</v>
+        <v>307</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>11</v>
@@ -4094,7 +5158,9 @@
       <c r="H18" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="10"/>
+      <c r="I18" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
@@ -4103,21 +5169,21 @@
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
     </row>
-    <row r="19" spans="1:21" ht="39">
+    <row r="19" spans="1:21" ht="26">
       <c r="A19" s="1" t="s">
-        <v>220</v>
+        <v>308</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>11</v>
@@ -4128,7 +5194,9 @@
       <c r="H19" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="10"/>
+      <c r="I19" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
@@ -4137,21 +5205,21 @@
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
     </row>
-    <row r="20" spans="1:21" ht="39">
+    <row r="20" spans="1:21" ht="26">
       <c r="A20" s="1" t="s">
-        <v>221</v>
+        <v>309</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>11</v>
@@ -4162,7 +5230,9 @@
       <c r="H20" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="I20" s="10"/>
+      <c r="I20" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
@@ -4171,21 +5241,21 @@
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
     </row>
-    <row r="21" spans="1:21" ht="52">
+    <row r="21" spans="1:21" ht="39">
       <c r="A21" s="1" t="s">
-        <v>255</v>
+        <v>310</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>11</v>
@@ -4194,9 +5264,11 @@
         <v>42099</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" s="10"/>
+        <v>24</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
@@ -4205,21 +5277,21 @@
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
     </row>
-    <row r="22" spans="1:21" ht="39">
+    <row r="22" spans="1:21" ht="26">
       <c r="A22" s="1" t="s">
-        <v>256</v>
+        <v>311</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>27</v>
@@ -4228,32 +5300,46 @@
         <v>42099</v>
       </c>
       <c r="H22" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
+        <v>25</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="K22" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="M22" s="34">
+        <v>42099</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>322</v>
+      </c>
       <c r="P22" s="10"/>
     </row>
-    <row r="23" spans="1:21" ht="52">
+    <row r="23" spans="1:21" ht="39">
       <c r="A23" s="1" t="s">
-        <v>257</v>
+        <v>312</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>194</v>
+        <v>83</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>6</v>
@@ -4262,9 +5348,11 @@
         <v>42099</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" s="10"/>
+        <v>24</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -4273,12 +5361,12 @@
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
     </row>
-    <row r="24" spans="1:21" ht="26">
+    <row r="24" spans="1:21" ht="39">
       <c r="A24" s="1" t="s">
-        <v>258</v>
+        <v>313</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>274</v>
+        <v>324</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>83</v>
@@ -4287,7 +5375,7 @@
         <v>83</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>6</v>
@@ -4296,9 +5384,11 @@
         <v>42099</v>
       </c>
       <c r="H24" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24" s="10"/>
+        <v>24</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -4307,24 +5397,24 @@
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
     </row>
-    <row r="25" spans="1:21" ht="26">
+    <row r="25" spans="1:21" ht="39">
       <c r="A25" s="1" t="s">
-        <v>259</v>
+        <v>314</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>274</v>
+        <v>85</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="G25" s="36">
         <v>42099</v>
@@ -4332,7 +5422,9 @@
       <c r="H25" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I25" s="10"/>
+      <c r="I25" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -4344,21 +5436,21 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="26">
+    <row r="26" spans="1:21" ht="52">
       <c r="A26" s="1" t="s">
-        <v>260</v>
+        <v>315</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>274</v>
+        <v>92</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>6</v>
@@ -4369,7 +5461,9 @@
       <c r="H26" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I26" s="10"/>
+      <c r="I26" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -4385,21 +5479,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="26">
+    <row r="27" spans="1:21" ht="52">
       <c r="A27" s="1" t="s">
-        <v>261</v>
+        <v>316</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>274</v>
+        <v>125</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>6</v>
@@ -4410,7 +5504,9 @@
       <c r="H27" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I27" s="10"/>
+      <c r="I27" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -4425,24 +5521,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="26">
+    <row r="28" spans="1:21" ht="39">
       <c r="A28" s="1" t="s">
-        <v>262</v>
+        <v>317</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>274</v>
+        <v>179</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>83</v>
+        <v>177</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>83</v>
+        <v>178</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G28" s="36">
         <v>42099</v>
@@ -4450,7 +5546,9 @@
       <c r="H28" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I28" s="10"/>
+      <c r="I28" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
@@ -4466,24 +5564,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="39">
+    <row r="29" spans="1:21" ht="26">
       <c r="A29" s="1" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>275</v>
+        <v>235</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>83</v>
+        <v>177</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>83</v>
+        <v>178</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="G29" s="36">
         <v>42099</v>
@@ -4491,7 +5589,9 @@
       <c r="H29" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I29" s="10"/>
+      <c r="I29" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
       <c r="L29" s="10"/>
@@ -4509,10 +5609,10 @@
     </row>
     <row r="30" spans="1:21" ht="26">
       <c r="A30" s="1" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>276</v>
+        <v>432</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>83</v>
@@ -4521,7 +5621,7 @@
         <v>83</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>6</v>
@@ -4532,7 +5632,9 @@
       <c r="H30" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I30" s="10"/>
+      <c r="I30" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
@@ -4548,12 +5650,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
-      <c r="E31" s="10"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="10"/>
+    <row r="31" spans="1:21" ht="39">
+      <c r="A31" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="36">
+        <v>42099</v>
+      </c>
+      <c r="H31" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
@@ -4562,12 +5686,34 @@
       <c r="O31" s="10"/>
       <c r="P31" s="10"/>
     </row>
-    <row r="32" spans="1:21">
-      <c r="E32" s="10"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="10"/>
+    <row r="32" spans="1:21" ht="52">
+      <c r="A32" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>356</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="36">
+        <v>42099</v>
+      </c>
+      <c r="H32" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
       <c r="L32" s="10"/>
@@ -4576,12 +5722,34 @@
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
     </row>
-    <row r="33" spans="5:16">
-      <c r="E33" s="10"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="10"/>
+    <row r="33" spans="1:16" ht="52">
+      <c r="A33" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="36">
+        <v>42099</v>
+      </c>
+      <c r="H33" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
       <c r="L33" s="10"/>
@@ -4590,12 +5758,34 @@
       <c r="O33" s="10"/>
       <c r="P33" s="10"/>
     </row>
-    <row r="34" spans="5:16">
-      <c r="E34" s="10"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="10"/>
+    <row r="34" spans="1:16" ht="39">
+      <c r="A34" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="36">
+        <v>42099</v>
+      </c>
+      <c r="H34" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="J34" s="10"/>
       <c r="K34" s="10"/>
       <c r="L34" s="10"/>
@@ -4604,12 +5794,34 @@
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
     </row>
-    <row r="35" spans="5:16">
-      <c r="E35" s="10"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="10"/>
+    <row r="35" spans="1:16" ht="26">
+      <c r="A35" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="36">
+        <v>42099</v>
+      </c>
+      <c r="H35" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="J35" s="10"/>
       <c r="K35" s="10"/>
       <c r="L35" s="10"/>
@@ -4618,12 +5830,34 @@
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
     </row>
-    <row r="36" spans="5:16">
-      <c r="E36" s="10"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="10"/>
+    <row r="36" spans="1:16" ht="26">
+      <c r="A36" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="36">
+        <v>42099</v>
+      </c>
+      <c r="H36" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="J36" s="10"/>
       <c r="K36" s="10"/>
       <c r="L36" s="10"/>
@@ -4632,12 +5866,34 @@
       <c r="O36" s="10"/>
       <c r="P36" s="10"/>
     </row>
-    <row r="37" spans="5:16">
-      <c r="E37" s="10"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="10"/>
+    <row r="37" spans="1:16" ht="39">
+      <c r="A37" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B37" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="39">
+        <v>42099</v>
+      </c>
+      <c r="H37" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
       <c r="L37" s="10"/>
@@ -4646,12 +5902,34 @@
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
     </row>
-    <row r="38" spans="5:16">
-      <c r="E38" s="10"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="10"/>
+    <row r="38" spans="1:16" ht="52">
+      <c r="A38" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="39">
+        <v>42099</v>
+      </c>
+      <c r="H38" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
       <c r="L38" s="10"/>
@@ -4660,12 +5938,34 @@
       <c r="O38" s="10"/>
       <c r="P38" s="10"/>
     </row>
-    <row r="39" spans="5:16">
-      <c r="E39" s="10"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="10"/>
+    <row r="39" spans="1:16" ht="52">
+      <c r="A39" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="39">
+        <v>42099</v>
+      </c>
+      <c r="H39" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
       <c r="L39" s="10"/>
@@ -4674,12 +5974,34 @@
       <c r="O39" s="10"/>
       <c r="P39" s="10"/>
     </row>
-    <row r="40" spans="5:16">
-      <c r="E40" s="10"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="10"/>
+    <row r="40" spans="1:16" ht="39">
+      <c r="A40" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="39">
+        <v>42099</v>
+      </c>
+      <c r="H40" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
       <c r="L40" s="10"/>
@@ -4688,12 +6010,34 @@
       <c r="O40" s="10"/>
       <c r="P40" s="10"/>
     </row>
-    <row r="41" spans="5:16">
-      <c r="E41" s="10"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="10"/>
+    <row r="41" spans="1:16" ht="26">
+      <c r="A41" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E41" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G41" s="39">
+        <v>42099</v>
+      </c>
+      <c r="H41" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
       <c r="L41" s="10"/>
@@ -4702,12 +6046,34 @@
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
     </row>
-    <row r="42" spans="5:16">
-      <c r="E42" s="10"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="10"/>
+    <row r="42" spans="1:16" ht="26">
+      <c r="A42" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" s="39">
+        <v>42099</v>
+      </c>
+      <c r="H42" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
       <c r="L42" s="10"/>
@@ -4716,12 +6082,34 @@
       <c r="O42" s="10"/>
       <c r="P42" s="10"/>
     </row>
-    <row r="43" spans="5:16">
-      <c r="E43" s="10"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="10"/>
+    <row r="43" spans="1:16" ht="39">
+      <c r="A43" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B43" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E43" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" s="39">
+        <v>42099</v>
+      </c>
+      <c r="H43" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
       <c r="L43" s="10"/>
@@ -4730,12 +6118,34 @@
       <c r="O43" s="10"/>
       <c r="P43" s="10"/>
     </row>
-    <row r="44" spans="5:16">
-      <c r="E44" s="10"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="10"/>
+    <row r="44" spans="1:16" ht="52">
+      <c r="A44" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E44" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="39">
+        <v>42099</v>
+      </c>
+      <c r="H44" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
@@ -4744,12 +6154,34 @@
       <c r="O44" s="10"/>
       <c r="P44" s="10"/>
     </row>
-    <row r="45" spans="5:16">
-      <c r="E45" s="10"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="10"/>
+    <row r="45" spans="1:16" ht="52">
+      <c r="A45" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E45" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45" s="39">
+        <v>42099</v>
+      </c>
+      <c r="H45" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
       <c r="L45" s="10"/>
@@ -4758,12 +6190,34 @@
       <c r="O45" s="10"/>
       <c r="P45" s="10"/>
     </row>
-    <row r="46" spans="5:16">
-      <c r="E46" s="10"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="10"/>
+    <row r="46" spans="1:16" ht="39">
+      <c r="A46" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E46" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="39">
+        <v>42099</v>
+      </c>
+      <c r="H46" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
       <c r="L46" s="10"/>
@@ -4772,12 +6226,34 @@
       <c r="O46" s="10"/>
       <c r="P46" s="10"/>
     </row>
-    <row r="47" spans="5:16">
-      <c r="E47" s="10"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="10"/>
+    <row r="47" spans="1:16" ht="26">
+      <c r="A47" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G47" s="39">
+        <v>42099</v>
+      </c>
+      <c r="H47" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
       <c r="L47" s="10"/>
@@ -4786,12 +6262,34 @@
       <c r="O47" s="10"/>
       <c r="P47" s="10"/>
     </row>
-    <row r="48" spans="5:16">
-      <c r="E48" s="10"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="10"/>
+    <row r="48" spans="1:16" ht="26">
+      <c r="A48" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B48" s="38" t="s">
+        <v>433</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E48" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" s="39">
+        <v>42099</v>
+      </c>
+      <c r="H48" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
       <c r="L48" s="10"/>
@@ -4800,12 +6298,34 @@
       <c r="O48" s="10"/>
       <c r="P48" s="10"/>
     </row>
-    <row r="49" spans="5:16">
-      <c r="E49" s="10"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="10"/>
+    <row r="49" spans="1:16" ht="39">
+      <c r="A49" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B49" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E49" s="32" t="s">
+        <v>383</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G49" s="39">
+        <v>42099</v>
+      </c>
+      <c r="H49" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
       <c r="L49" s="10"/>
@@ -4814,12 +6334,34 @@
       <c r="O49" s="10"/>
       <c r="P49" s="10"/>
     </row>
-    <row r="50" spans="5:16">
-      <c r="E50" s="10"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="10"/>
+    <row r="50" spans="1:16" ht="52">
+      <c r="A50" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E50" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" s="39">
+        <v>42099</v>
+      </c>
+      <c r="H50" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
@@ -4828,12 +6370,34 @@
       <c r="O50" s="10"/>
       <c r="P50" s="10"/>
     </row>
-    <row r="51" spans="5:16">
-      <c r="E51" s="10"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="10"/>
+    <row r="51" spans="1:16" ht="52">
+      <c r="A51" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E51" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G51" s="39">
+        <v>42099</v>
+      </c>
+      <c r="H51" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
       <c r="L51" s="10"/>
@@ -4842,12 +6406,34 @@
       <c r="O51" s="10"/>
       <c r="P51" s="10"/>
     </row>
-    <row r="52" spans="5:16">
-      <c r="E52" s="10"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="10"/>
+    <row r="52" spans="1:16" ht="39">
+      <c r="A52" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E52" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52" s="39">
+        <v>42099</v>
+      </c>
+      <c r="H52" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
       <c r="L52" s="10"/>
@@ -4856,12 +6442,34 @@
       <c r="O52" s="10"/>
       <c r="P52" s="10"/>
     </row>
-    <row r="53" spans="5:16">
-      <c r="E53" s="10"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="10"/>
+    <row r="53" spans="1:16" ht="26">
+      <c r="A53" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E53" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G53" s="39">
+        <v>42099</v>
+      </c>
+      <c r="H53" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
       <c r="L53" s="10"/>
@@ -4870,7 +6478,7 @@
       <c r="O53" s="10"/>
       <c r="P53" s="10"/>
     </row>
-    <row r="54" spans="5:16">
+    <row r="54" spans="1:16">
       <c r="E54" s="10"/>
       <c r="F54" s="11"/>
       <c r="G54" s="10"/>
@@ -4884,7 +6492,7 @@
       <c r="O54" s="10"/>
       <c r="P54" s="10"/>
     </row>
-    <row r="55" spans="5:16">
+    <row r="55" spans="1:16">
       <c r="E55" s="10"/>
       <c r="F55" s="11"/>
       <c r="G55" s="10"/>
@@ -4898,7 +6506,7 @@
       <c r="O55" s="10"/>
       <c r="P55" s="10"/>
     </row>
-    <row r="56" spans="5:16">
+    <row r="56" spans="1:16">
       <c r="E56" s="10"/>
       <c r="F56" s="11"/>
       <c r="G56" s="10"/>
@@ -4912,7 +6520,7 @@
       <c r="O56" s="10"/>
       <c r="P56" s="10"/>
     </row>
-    <row r="57" spans="5:16">
+    <row r="57" spans="1:16">
       <c r="E57" s="10"/>
       <c r="F57" s="11"/>
       <c r="G57" s="10"/>
@@ -4926,7 +6534,7 @@
       <c r="O57" s="10"/>
       <c r="P57" s="10"/>
     </row>
-    <row r="58" spans="5:16">
+    <row r="58" spans="1:16">
       <c r="E58" s="10"/>
       <c r="F58" s="11"/>
       <c r="G58" s="10"/>
@@ -4940,7 +6548,7 @@
       <c r="O58" s="10"/>
       <c r="P58" s="10"/>
     </row>
-    <row r="59" spans="5:16">
+    <row r="59" spans="1:16">
       <c r="E59" s="10"/>
       <c r="F59" s="11"/>
       <c r="G59" s="10"/>
@@ -4954,7 +6562,7 @@
       <c r="O59" s="10"/>
       <c r="P59" s="10"/>
     </row>
-    <row r="60" spans="5:16">
+    <row r="60" spans="1:16">
       <c r="E60" s="10"/>
       <c r="F60" s="11"/>
       <c r="G60" s="10"/>
@@ -4968,7 +6576,7 @@
       <c r="O60" s="10"/>
       <c r="P60" s="10"/>
     </row>
-    <row r="61" spans="5:16">
+    <row r="61" spans="1:16">
       <c r="E61" s="10"/>
       <c r="F61" s="11"/>
       <c r="G61" s="10"/>
@@ -4982,7 +6590,7 @@
       <c r="O61" s="10"/>
       <c r="P61" s="10"/>
     </row>
-    <row r="62" spans="5:16">
+    <row r="62" spans="1:16">
       <c r="E62" s="10"/>
       <c r="F62" s="11"/>
       <c r="G62" s="10"/>
@@ -4996,7 +6604,7 @@
       <c r="O62" s="10"/>
       <c r="P62" s="10"/>
     </row>
-    <row r="63" spans="5:16">
+    <row r="63" spans="1:16">
       <c r="E63" s="10"/>
       <c r="F63" s="11"/>
       <c r="G63" s="10"/>
@@ -5010,7 +6618,7 @@
       <c r="O63" s="10"/>
       <c r="P63" s="10"/>
     </row>
-    <row r="64" spans="5:16">
+    <row r="64" spans="1:16">
       <c r="E64" s="10"/>
       <c r="F64" s="11"/>
       <c r="G64" s="10"/>
@@ -6383,9 +7991,9 @@
       <c r="P161" s="10"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H44:H159">
+  <conditionalFormatting sqref="H54:H159">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Passed ">
-      <formula>NOT(ISERROR(SEARCH("Passed ",H44)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed ",H54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6399,7 +8007,7 @@
           <x14:formula1>
             <xm:f>Settings!$A$4:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H43</xm:sqref>
+          <xm:sqref>H2:H53</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -6433,10 +8041,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF99FF99"/>
   </sheetPr>
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6481,7 +8089,7 @@
         <v>111</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>69</v>
@@ -6507,7 +8115,7 @@
         <v>112</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>78</v>
@@ -6532,7 +8140,7 @@
         <v>113</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>87</v>
@@ -6557,7 +8165,7 @@
         <v>114</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>87</v>
@@ -6582,7 +8190,7 @@
         <v>115</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>100</v>
@@ -6607,7 +8215,7 @@
         <v>116</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>99</v>
@@ -6632,7 +8240,7 @@
         <v>117</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>105</v>
@@ -6657,7 +8265,7 @@
         <v>118</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>107</v>
@@ -6682,7 +8290,7 @@
         <v>121</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>119</v>
@@ -6707,7 +8315,7 @@
         <v>122</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>123</v>
@@ -6729,16 +8337,16 @@
     </row>
     <row r="12" spans="1:13" ht="71" customHeight="1">
       <c r="A12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>68</v>
@@ -6754,19 +8362,19 @@
     </row>
     <row r="13" spans="1:13" ht="56">
       <c r="A13" s="1" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -6779,19 +8387,19 @@
     </row>
     <row r="14" spans="1:13" ht="56">
       <c r="A14" s="1" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -6804,19 +8412,19 @@
     </row>
     <row r="15" spans="1:13" ht="42">
       <c r="A15" s="1" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -6829,19 +8437,19 @@
     </row>
     <row r="16" spans="1:13" ht="42">
       <c r="A16" s="1" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -6854,19 +8462,19 @@
     </row>
     <row r="17" spans="1:13" ht="28">
       <c r="A17" s="1" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -6879,19 +8487,19 @@
     </row>
     <row r="18" spans="1:13" ht="28">
       <c r="A18" s="1" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -6904,19 +8512,19 @@
     </row>
     <row r="19" spans="1:13" ht="28">
       <c r="A19" s="1" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -6929,50 +8537,50 @@
     </row>
     <row r="20" spans="1:13" ht="28">
       <c r="A20" s="1" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="56">
       <c r="A21" s="1" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>313</v>
+        <v>273</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>335</v>
+        <v>289</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>334</v>
+        <v>288</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="28">
       <c r="A22" s="1" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>314</v>
+        <v>274</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>336</v>
+        <v>290</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>333</v>
+        <v>434</v>
       </c>
       <c r="E22" s="32" t="s">
         <v>68</v>
@@ -6980,16 +8588,16 @@
     </row>
     <row r="23" spans="1:13" ht="56">
       <c r="A23" s="1" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>315</v>
+        <v>275</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>323</v>
+        <v>283</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>332</v>
+        <v>287</v>
       </c>
       <c r="E23" s="32" t="s">
         <v>68</v>
@@ -6997,121 +8605,512 @@
     </row>
     <row r="24" spans="1:13" ht="28">
       <c r="A24" s="1" t="s">
-        <v>306</v>
+        <v>266</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>316</v>
+        <v>276</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>331</v>
+        <v>286</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="28">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="56">
       <c r="A25" s="1" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>327</v>
+        <v>277</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>331</v>
+        <v>82</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="28">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="42">
       <c r="A26" s="1" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>324</v>
+        <v>278</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>331</v>
+        <v>91</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="28">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="56">
       <c r="A27" s="1" t="s">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>329</v>
+        <v>279</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>331</v>
+        <v>120</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="28">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="56">
       <c r="A28" s="1" t="s">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>330</v>
+        <v>280</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>331</v>
+        <v>194</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="28">
       <c r="A29" s="1" t="s">
-        <v>311</v>
+        <v>271</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>321</v>
+        <v>281</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>331</v>
+        <v>434</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="28">
       <c r="A30" s="1" t="s">
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>322</v>
+        <v>282</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>331</v>
+        <v>286</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>208</v>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="56">
+      <c r="A31" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="42">
+      <c r="A32" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="56">
+      <c r="A33" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="56">
+      <c r="A34" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="28">
+      <c r="A35" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="28">
+      <c r="A36" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="56">
+      <c r="A37" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="42">
+      <c r="A38" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="56">
+      <c r="A39" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="56">
+      <c r="A40" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="28">
+      <c r="A41" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E41" s="32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="28">
+      <c r="A42" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C42" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="56">
+      <c r="A43" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" s="32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="42">
+      <c r="A44" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" s="32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="56">
+      <c r="A45" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E45" s="32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="56">
+      <c r="A46" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E46" s="32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="28">
+      <c r="A47" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="28">
+      <c r="A48" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C48" s="38" t="s">
+        <v>285</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E48" s="32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="56">
+      <c r="A49" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E49" s="32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="42">
+      <c r="A50" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E50" s="32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="56">
+      <c r="A51" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E51" s="32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="56">
+      <c r="A52" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E52" s="32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="28">
+      <c r="A53" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E53" s="32" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -7217,21 +9216,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C0A86D0A1DF85A4CBF24319CD50F658E" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="18023c554c1e7c0fe5f8bda126dbbbe1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -7345,15 +9335,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -7362,7 +9353,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64745CD4-DB27-427B-80D9-1CCB91D6E4BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7376,4 +9367,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testing Spreadsheet v1.0 OrderReceipt_AdamHale.xlsx
+++ b/Testing Spreadsheet v1.0 OrderReceipt_AdamHale.xlsx
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="528">
   <si>
     <t xml:space="preserve">Req </t>
   </si>
@@ -1511,9 +1511,6 @@
     <t>OrderReceipt_TConn_52</t>
   </si>
   <si>
-    <t>To check the Order Receipt page works on theiPad 4 mobile device. This will be a general test looking for new defects on this mobile device before testing begins for defects found initially</t>
-  </si>
-  <si>
     <t>On the iPad 4 mobile device, the Order receipt should include a list of the order items including individual prices</t>
   </si>
   <si>
@@ -1542,6 +1539,288 @@
   </si>
   <si>
     <t>User is able to log off from Order Receipt page</t>
+  </si>
+  <si>
+    <t>OrderReceip_TConn_35</t>
+  </si>
+  <si>
+    <t>OrderReceip_TConn_36</t>
+  </si>
+  <si>
+    <t>OrderReceip_TConn_37</t>
+  </si>
+  <si>
+    <t>OrderReceip_TConn_38</t>
+  </si>
+  <si>
+    <t>OrderReceip_TConn_39</t>
+  </si>
+  <si>
+    <t>OrderReceip_TConn_40</t>
+  </si>
+  <si>
+    <t>OrderReceip_TConn_41</t>
+  </si>
+  <si>
+    <t>OrderReceip_TConn_42</t>
+  </si>
+  <si>
+    <t>OrderReceip_TConn_43</t>
+  </si>
+  <si>
+    <t>OrderReceip_TConn_44</t>
+  </si>
+  <si>
+    <t>OrderReceip_TConn_45</t>
+  </si>
+  <si>
+    <t>OrderReceip_TConn_46</t>
+  </si>
+  <si>
+    <t>OrderReceip_TConn_47</t>
+  </si>
+  <si>
+    <t>OrderReceip_TConn_48</t>
+  </si>
+  <si>
+    <t>OrderReceip_TConn_49</t>
+  </si>
+  <si>
+    <t>OrderReceip_TConn_50</t>
+  </si>
+  <si>
+    <t>OrderReceip_TConn_51</t>
+  </si>
+  <si>
+    <t>OrderReceip_TConn_52</t>
+  </si>
+  <si>
+    <t>To check the Order Receipt page works on the iPhone 6 mobile device. This will be a general test looking for new defects on this mobile device before testing begins for defects found initially</t>
+  </si>
+  <si>
+    <t>On the iPhone 6 mobile device, the Order receipt should include a list of the order items including individual prices</t>
+  </si>
+  <si>
+    <t>To check the Order Receipt page works on the Google Nexus 10 mobile device. This will be a general test looking for new defects on this mobile device before testing begins for defects found initially</t>
+  </si>
+  <si>
+    <t>On the Google nexus 10 mobile device, the Order receipt should include a list of the order items including individual prices</t>
+  </si>
+  <si>
+    <t>To check the Order Receipt page works on the Samsung Galaxy S4 mobile device. This will be a general test looking for new defects on this mobile device before testing begins for defects found initially</t>
+  </si>
+  <si>
+    <t>On the Samsung Galaxy S4 mobile device, the Order receipt should include a list of the order items including individual prices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On the Amazon Kindle Fire 7 inch mobile device, the Order receipt should include a unique order reference </t>
+  </si>
+  <si>
+    <t>On the Amazon Kindle Fire 7 inch mobile device, the Order receipt should include the confirmed date and time for collection having selected the now option</t>
+  </si>
+  <si>
+    <t>On the Amazon Kindle Fire 7 inch mobile device, to ensure that logged users can log off from the Order receipt page</t>
+  </si>
+  <si>
+    <t>On the Amazon Kindle Fire 7 inch mobile device, the Order receipt page should have a copyright and site version in the footer</t>
+  </si>
+  <si>
+    <t>On the iPad 4 mobile device, the Order receipt should include the confirmed date and time for collection having selected the now option</t>
+  </si>
+  <si>
+    <t>On the iPad 4 mobile device, the Order receipt should include a unique order reference different to the test before</t>
+  </si>
+  <si>
+    <t>On the iPad 4 mobile device, the Order receipt page should have a copyright and site version in the footer</t>
+  </si>
+  <si>
+    <t>On the iPad 4 mobile device, to ensure that logged users can log off from the Order receipt page</t>
+  </si>
+  <si>
+    <t>On the iPhone 6 mobile device, the Order receipt should include the confirmed date and time for collection having selected the now option</t>
+  </si>
+  <si>
+    <t>On the iPhone 6 mobile device, the Order receipt should include a unique order reference different to the test before</t>
+  </si>
+  <si>
+    <t>On the iPhone 6 mobile device, the Order receipt page should have a copyright and site version in the footer</t>
+  </si>
+  <si>
+    <t>On the iPhone 6 mobile device, to ensure that logged users can log off from the Order receipt page</t>
+  </si>
+  <si>
+    <t>On the Google nexus 10 mobile device, the Order receipt should include the confirmed date and time for collection having selected the now option</t>
+  </si>
+  <si>
+    <t>On the Google nexus 10 mobile device, the Order receipt should include a unique order reference different to the test before</t>
+  </si>
+  <si>
+    <t>On the Google nexus 10 mobile device, the Order receipt page should have a copyright and site version in the footer</t>
+  </si>
+  <si>
+    <t>On the Google nexus 10 mobile device, to ensure that logged users can log off from the Order receipt page</t>
+  </si>
+  <si>
+    <t>On the Samsung Galaxy S4 mobile device, the Order receipt should include the confirmed date and time for collection having selected the now option</t>
+  </si>
+  <si>
+    <t>On the Samsung Galaxy S4 mobile device, the Order receipt should include a unique order reference different to the test before</t>
+  </si>
+  <si>
+    <t>On the Samsung Galaxy S4 mobile device, the Order receipt page should have a copyright and site version in the footer</t>
+  </si>
+  <si>
+    <t>On the Samsung Galaxy S4 mobile device, to ensure that logged users can log off from the Order receipt page</t>
+  </si>
+  <si>
+    <t>Users that are logged in should be able to log off from the Order Receipt page on an Amazon Kindle Fire 7 inch mobile device</t>
+  </si>
+  <si>
+    <t>When on the Order Receipt page, the company Copyright and site version should be in the footer of the page on an Amazon Kindle Fire 7 inch mobile device</t>
+  </si>
+  <si>
+    <t>To test that the system provides a unique order reference  on the order receipt  on an Amazon Kindle Fire 7 inch mobile device</t>
+  </si>
+  <si>
+    <t>To test that the order receipt includes the date and time that the order has been placed for collection if selecting to collect now on an Amazon Kindle Fire 7 inch mobile device</t>
+  </si>
+  <si>
+    <t>To test that the order receipt contains invididual prices for each item that have been ordered on an Amazon Kindle Fire 7 inch mobile device</t>
+  </si>
+  <si>
+    <t>To test that the order receipt contains invididual prices for each item that have been ordered on an iPad 4 mobile device</t>
+  </si>
+  <si>
+    <t>To test that the order receipt includes the date and time that the order has been placed for collection if selecting to collect now  on an iPad 4 mobile device</t>
+  </si>
+  <si>
+    <t>To test that the system provides a unique order reference  on the order receipt  on an iPad 4 mobile device</t>
+  </si>
+  <si>
+    <t>When on the Order Receipt page, the company Copyright and site version should be in the footer of the page  on an iPad 4 mobile device</t>
+  </si>
+  <si>
+    <t>Users that are logged in should be able to log off from the Order Receipt page  on an iPad 4 mobile device</t>
+  </si>
+  <si>
+    <t>To test that the order receipt contains invididual prices for each item that have been ordered on an iPhone 6 mobile device</t>
+  </si>
+  <si>
+    <t>To test that the order receipt includes the date and time that the order has been placed for collection if selecting to collect now on an iPhone 6 mobile device</t>
+  </si>
+  <si>
+    <t>To test that the system provides a unique order reference  on the order receipt on an iPhone 6 mobile device</t>
+  </si>
+  <si>
+    <t>When on the Order Receipt page, the company Copyright and site version should be in the footer of the page on an iPhone 6 mobile device</t>
+  </si>
+  <si>
+    <t>Users that are logged in should be able to log off from the Order Receipt page on an iPhone 6 mobile device</t>
+  </si>
+  <si>
+    <t>To test that the order receipt contains invididual prices for each item that have been ordered on a Google Nexus 10 mobile device</t>
+  </si>
+  <si>
+    <t>To test that the order receipt includes the date and time that the order has been placed for collection if selecting to collect now on a Google Nexus 10 mobile device</t>
+  </si>
+  <si>
+    <t>To test that the system provides a unique order reference  on the order receipt on a Google Nexus 10 mobile device</t>
+  </si>
+  <si>
+    <t>When on the Order Receipt page, the company Copyright and site version should be in the footer of the page on a Google Nexus 10 mobile device</t>
+  </si>
+  <si>
+    <t>Users that are logged in should be able to log off from the Order Receipt page on a Google Nexus 10 mobile device</t>
+  </si>
+  <si>
+    <t>To test that the order receipt contains invididual prices for each item that have been orderedon  a Samsung Galaxy S4 mobile device</t>
+  </si>
+  <si>
+    <t>To test that the order receipt includes the date and time that the order has been placed for collection if selecting to collect now on  a Samsung Galaxy S4 mobile device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To test that the system provides a unique order reference  on the order receipt on  a Samsung Galaxy S4 mobile device </t>
+  </si>
+  <si>
+    <t>When on the Order Receipt page, the company Copyright and site version should be in the footer of the page on  a Samsung Galaxy S4 mobile device</t>
+  </si>
+  <si>
+    <t>Users that are logged in should be able to log off from the Order Receipt page on  a Samsung Galaxy S4 mobile device</t>
+  </si>
+  <si>
+    <t>Having added an order to the basket with extras and confirmed the collection time, take user to the order receipt on an Amazon Kindle Fire 7 inch mobile device</t>
+  </si>
+  <si>
+    <t>Having added an order to the basket and confirming valid collection details, the order receipt will have a unique ordering reference using an Amazon Kindle Fire 7 inch mobile device</t>
+  </si>
+  <si>
+    <t>Having added an order to the basket with no extras and confirmed the collection time as now, take user to the order receipt, on an Amazon Kindle Fire 7 inch mobile device</t>
+  </si>
+  <si>
+    <t>Having added a plain cheese pizza to the basket and confirmed collection, the user should see the company copyright and site version in the footer of the page, on an Amazon Kindle Fire 7 inch mobile device</t>
+  </si>
+  <si>
+    <t>A logged user should be able to log off from the Order Receipt page, on an Amazon Kindle Fire 7 inch mobile device</t>
+  </si>
+  <si>
+    <t>Having added an order to the basket with extras and confirmed the collection time, take user to the order receipt on an iPad 4 mobile device</t>
+  </si>
+  <si>
+    <t>Having added an order to the basket with no extras and confirmed the collection time as now, take user to the order receipt, on an iPad 4 mobile device</t>
+  </si>
+  <si>
+    <t>Having added an order to the basket and confirming valid collection details, the order receipt will have a unique ordering reference on an iPad 4 mobile device</t>
+  </si>
+  <si>
+    <t>Having added a plain cheese pizza to the basket and confirmed collection, the user should see the company copyright and site version in the footer of the page, on an iPad 4 mobile device</t>
+  </si>
+  <si>
+    <t>A logged user should be able to log off from the Order Receipt page, on an iPad 4 mobile device</t>
+  </si>
+  <si>
+    <t>Having added an order to the basket with extras and confirmed the collection time, take user to the order receipt, on an iPhone 6 mobile device</t>
+  </si>
+  <si>
+    <t>Having added an order to the basket with no extras and confirmed the collection time as now, take user to the order receipt, on an iPhone 6 mobile device</t>
+  </si>
+  <si>
+    <t>Having added an order to the basket and confirming valid collection details, the order receipt will have a unique ordering reference on an iPhone 6 mobile device</t>
+  </si>
+  <si>
+    <t>Having added a plain cheese pizza to the basket and confirmed collection, the user should see the company copyright and site version in the footer of the page, on an iPhone 6 mobile device</t>
+  </si>
+  <si>
+    <t>A logged user should be able to log off from the Order Receipt page, on an iPhone 6 mobile device</t>
+  </si>
+  <si>
+    <t>Having added an order to the basket with extras and confirmed the collection time, take user to the order receipt, on a Google Nexus 10 mobile device</t>
+  </si>
+  <si>
+    <t>Having added an order to the basket with no extras and confirmed the collection time as now, take user to the order receipt, on a Google Nexus 10 mobile device</t>
+  </si>
+  <si>
+    <t>Having added an order to the basket and confirming valid collection details, the order receipt will have a unique ordering reference on a Google Nexus 10 mobile device</t>
+  </si>
+  <si>
+    <t>Having added a plain cheese pizza to the basket and confirmed collection, the user should see the company copyright and site version in the footer of the page, on a Google Nexus 10 mobile device</t>
+  </si>
+  <si>
+    <t>A logged user should be able to log off from the Order Receipt page, on a Google Nexus 10 mobile device</t>
+  </si>
+  <si>
+    <t>Having added an order to the basket with extras and confirmed the collection time, take user to the order receipt, on a Samsung Galaxy S4 mobile device</t>
+  </si>
+  <si>
+    <t>Having added an order to the basket with no extras and confirmed the collection time as now, take user to the order receipt, on a Samsung Galaxy S4 mobile device</t>
+  </si>
+  <si>
+    <t>Having added an order to the basket and confirming valid collection details, the order receipt will have a unique ordering reference on a Samsung Galaxy S4 mobile device</t>
+  </si>
+  <si>
+    <t>Having added a plain cheese pizza to the basket and confirmed collection, the user should see the company copyright and site version in the footer of the page, on a Samsung Galaxy S4 mobile device</t>
+  </si>
+  <si>
+    <t>A logged user should be able to log off from the Order Receipt page, on a Samsung Galaxy S4 mobile device</t>
   </si>
 </sst>
 </file>
@@ -1760,8 +2039,78 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="669">
+  <cellStyleXfs count="739">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2537,7 +2886,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="669">
+  <cellStyles count="739">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2872,6 +3221,41 @@
     <cellStyle name="Followed Hyperlink" xfId="664" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="666" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="668" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="670" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="672" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="674" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="676" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="678" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="680" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="682" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="684" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="686" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="688" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="690" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="692" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="694" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="696" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="698" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="700" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="702" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="704" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="706" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="708" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="710" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="712" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="714" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="716" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="718" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="720" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="722" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="724" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="726" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="728" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="730" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="732" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="734" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="736" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="738" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3206,6 +3590,41 @@
     <cellStyle name="Hyperlink" xfId="663" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="665" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="667" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="669" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="671" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="673" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="675" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="677" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="679" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="681" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="683" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="685" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="687" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="689" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="691" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="693" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="695" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="697" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="699" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="701" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="703" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="705" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="707" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="709" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="711" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="713" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="715" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="717" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="719" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="721" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="723" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="725" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="727" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="729" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="731" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="733" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="735" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="737" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -3888,10 +4307,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF023FAE"/>
   </sheetPr>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4270,12 +4689,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="28">
+    <row r="26" spans="1:4" ht="42">
       <c r="A26" s="32" t="s">
         <v>250</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>93</v>
+        <v>459</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>59</v>
@@ -4289,7 +4708,7 @@
         <v>251</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>108</v>
+        <v>458</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>59</v>
@@ -4298,12 +4717,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="28">
+    <row r="28" spans="1:4" ht="42">
       <c r="A28" s="32" t="s">
         <v>255</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>164</v>
+        <v>461</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>169</v>
@@ -4317,7 +4736,7 @@
         <v>261</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>254</v>
+        <v>460</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>252</v>
@@ -4331,49 +4750,329 @@
         <v>262</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+        <v>430</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" spans="1:4" ht="28">
       <c r="A31" s="32" t="s">
+        <v>425</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="42">
+      <c r="A32" s="32" t="s">
         <v>426</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="28">
-      <c r="A32" s="32" t="s">
+      <c r="B32" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="28">
+      <c r="A33" s="32" t="s">
         <v>427</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="28">
-      <c r="A33" s="32" t="s">
+      <c r="B33" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="28">
+      <c r="A34" s="32" t="s">
         <v>428</v>
       </c>
-      <c r="B33" s="32" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="28">
-      <c r="A34" s="32" t="s">
+      <c r="B34" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="32" t="s">
         <v>429</v>
       </c>
-      <c r="B34" s="32" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="56">
-      <c r="A35" s="32" t="s">
-        <v>430</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>424</v>
+      <c r="B35" s="37" t="s">
+        <v>465</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="56">
+      <c r="A36" s="32" t="s">
+        <v>434</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="28">
+      <c r="A37" s="32" t="s">
+        <v>435</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="42">
+      <c r="A38" s="32" t="s">
+        <v>436</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="28">
+      <c r="A39" s="32" t="s">
+        <v>437</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="28">
+      <c r="A40" s="32" t="s">
+        <v>438</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>468</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="32" t="s">
+        <v>439</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>469</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="56">
+      <c r="A42" s="32" t="s">
+        <v>440</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="42">
+      <c r="A43" s="32" t="s">
+        <v>441</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="42">
+      <c r="A44" s="32" t="s">
+        <v>442</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="42">
+      <c r="A45" s="32" t="s">
+        <v>443</v>
+      </c>
+      <c r="B45" s="32" t="s">
+        <v>471</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="28">
+      <c r="A46" s="32" t="s">
+        <v>444</v>
+      </c>
+      <c r="B46" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="32" t="s">
+        <v>445</v>
+      </c>
+      <c r="B47" s="37" t="s">
+        <v>473</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="56">
+      <c r="A48" s="32" t="s">
+        <v>446</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="42">
+      <c r="A49" s="32" t="s">
+        <v>447</v>
+      </c>
+      <c r="B49" s="32" t="s">
+        <v>457</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="42">
+      <c r="A50" s="32" t="s">
+        <v>448</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="42">
+      <c r="A51" s="32" t="s">
+        <v>449</v>
+      </c>
+      <c r="B51" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="28">
+      <c r="A52" s="32" t="s">
+        <v>450</v>
+      </c>
+      <c r="B52" s="32" t="s">
+        <v>476</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="B53" s="37" t="s">
+        <v>477</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -4406,7 +5105,7 @@
   <dimension ref="A1:Z161"/>
   <sheetViews>
     <sheetView topLeftCell="A44" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5397,12 +6096,12 @@
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
     </row>
-    <row r="25" spans="1:21" ht="39">
+    <row r="25" spans="1:21" ht="52">
       <c r="A25" s="1" t="s">
         <v>314</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>85</v>
+        <v>482</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>76</v>
@@ -5436,12 +6135,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="52">
+    <row r="26" spans="1:21" ht="65">
       <c r="A26" s="1" t="s">
         <v>315</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>92</v>
+        <v>481</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>76</v>
@@ -5484,7 +6183,7 @@
         <v>316</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>125</v>
+        <v>480</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>76</v>
@@ -5521,12 +6220,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="39">
+    <row r="28" spans="1:21" ht="65">
       <c r="A28" s="1" t="s">
         <v>317</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>179</v>
+        <v>479</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>177</v>
@@ -5564,12 +6263,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="26">
+    <row r="29" spans="1:21" ht="52">
       <c r="A29" s="1" t="s">
         <v>318</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>235</v>
+        <v>478</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>177</v>
@@ -5612,7 +6311,7 @@
         <v>319</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>83</v>
@@ -5650,12 +6349,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="39">
+    <row r="31" spans="1:21" ht="52">
       <c r="A31" s="1" t="s">
         <v>342</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>85</v>
+        <v>483</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>76</v>
@@ -5691,7 +6390,7 @@
         <v>343</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>92</v>
+        <v>484</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>76</v>
@@ -5722,12 +6421,12 @@
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
     </row>
-    <row r="33" spans="1:16" ht="52">
+    <row r="33" spans="1:16" ht="39">
       <c r="A33" s="1" t="s">
         <v>344</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>125</v>
+        <v>485</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>76</v>
@@ -5758,12 +6457,12 @@
       <c r="O33" s="10"/>
       <c r="P33" s="10"/>
     </row>
-    <row r="34" spans="1:16" ht="39">
+    <row r="34" spans="1:16" ht="52">
       <c r="A34" s="1" t="s">
         <v>345</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>179</v>
+        <v>486</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>177</v>
@@ -5794,12 +6493,12 @@
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
     </row>
-    <row r="35" spans="1:16" ht="26">
+    <row r="35" spans="1:16" ht="39">
       <c r="A35" s="1" t="s">
         <v>346</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>235</v>
+        <v>487</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>177</v>
@@ -5866,12 +6565,12 @@
       <c r="O36" s="10"/>
       <c r="P36" s="10"/>
     </row>
-    <row r="37" spans="1:16" ht="39">
+    <row r="37" spans="1:16" ht="52">
       <c r="A37" s="1" t="s">
         <v>348</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>85</v>
+        <v>488</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>76</v>
@@ -5902,12 +6601,12 @@
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
     </row>
-    <row r="38" spans="1:16" ht="52">
+    <row r="38" spans="1:16" ht="65">
       <c r="A38" s="1" t="s">
         <v>349</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>92</v>
+        <v>489</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>76</v>
@@ -5938,12 +6637,12 @@
       <c r="O38" s="10"/>
       <c r="P38" s="10"/>
     </row>
-    <row r="39" spans="1:16" ht="52">
+    <row r="39" spans="1:16" ht="39">
       <c r="A39" s="1" t="s">
         <v>350</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>125</v>
+        <v>490</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>76</v>
@@ -5974,12 +6673,12 @@
       <c r="O39" s="10"/>
       <c r="P39" s="10"/>
     </row>
-    <row r="40" spans="1:16" ht="39">
+    <row r="40" spans="1:16" ht="52">
       <c r="A40" s="1" t="s">
         <v>351</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>179</v>
+        <v>491</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>177</v>
@@ -6010,12 +6709,12 @@
       <c r="O40" s="10"/>
       <c r="P40" s="10"/>
     </row>
-    <row r="41" spans="1:16" ht="26">
+    <row r="41" spans="1:16" ht="39">
       <c r="A41" s="1" t="s">
         <v>352</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>235</v>
+        <v>492</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>177</v>
@@ -6082,12 +6781,12 @@
       <c r="O42" s="10"/>
       <c r="P42" s="10"/>
     </row>
-    <row r="43" spans="1:16" ht="39">
+    <row r="43" spans="1:16" ht="52">
       <c r="A43" s="1" t="s">
         <v>354</v>
       </c>
       <c r="B43" s="38" t="s">
-        <v>85</v>
+        <v>493</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>76</v>
@@ -6118,12 +6817,12 @@
       <c r="O43" s="10"/>
       <c r="P43" s="10"/>
     </row>
-    <row r="44" spans="1:16" ht="52">
+    <row r="44" spans="1:16" ht="65">
       <c r="A44" s="1" t="s">
         <v>373</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>92</v>
+        <v>494</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>76</v>
@@ -6159,7 +6858,7 @@
         <v>374</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>125</v>
+        <v>495</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>76</v>
@@ -6190,12 +6889,12 @@
       <c r="O45" s="10"/>
       <c r="P45" s="10"/>
     </row>
-    <row r="46" spans="1:16" ht="39">
+    <row r="46" spans="1:16" ht="52">
       <c r="A46" s="1" t="s">
         <v>375</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>179</v>
+        <v>496</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>177</v>
@@ -6226,12 +6925,12 @@
       <c r="O46" s="10"/>
       <c r="P46" s="10"/>
     </row>
-    <row r="47" spans="1:16" ht="26">
+    <row r="47" spans="1:16" ht="39">
       <c r="A47" s="1" t="s">
         <v>376</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>235</v>
+        <v>497</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>177</v>
@@ -6267,7 +6966,7 @@
         <v>377</v>
       </c>
       <c r="B48" s="38" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>83</v>
@@ -6298,12 +6997,12 @@
       <c r="O48" s="10"/>
       <c r="P48" s="10"/>
     </row>
-    <row r="49" spans="1:16" ht="39">
+    <row r="49" spans="1:16" ht="52">
       <c r="A49" s="1" t="s">
         <v>378</v>
       </c>
       <c r="B49" s="38" t="s">
-        <v>85</v>
+        <v>498</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>76</v>
@@ -6334,12 +7033,12 @@
       <c r="O49" s="10"/>
       <c r="P49" s="10"/>
     </row>
-    <row r="50" spans="1:16" ht="52">
+    <row r="50" spans="1:16" ht="65">
       <c r="A50" s="1" t="s">
         <v>379</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>92</v>
+        <v>499</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>76</v>
@@ -6375,7 +7074,7 @@
         <v>380</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>125</v>
+        <v>500</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>76</v>
@@ -6406,12 +7105,12 @@
       <c r="O51" s="10"/>
       <c r="P51" s="10"/>
     </row>
-    <row r="52" spans="1:16" ht="39">
+    <row r="52" spans="1:16" ht="52">
       <c r="A52" s="1" t="s">
         <v>381</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>179</v>
+        <v>501</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>177</v>
@@ -6442,12 +7141,12 @@
       <c r="O52" s="10"/>
       <c r="P52" s="10"/>
     </row>
-    <row r="53" spans="1:16" ht="26">
+    <row r="53" spans="1:16" ht="52">
       <c r="A53" s="1" t="s">
         <v>382</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>235</v>
+        <v>502</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>177</v>
@@ -8043,8 +8742,8 @@
   </sheetPr>
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -8580,7 +9279,7 @@
         <v>290</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E22" s="32" t="s">
         <v>68</v>
@@ -8628,7 +9327,7 @@
         <v>277</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>87</v>
+        <v>503</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>82</v>
@@ -8637,7 +9336,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="42">
+    <row r="26" spans="1:13" ht="56">
       <c r="A26" s="1" t="s">
         <v>268</v>
       </c>
@@ -8645,7 +9344,7 @@
         <v>278</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>100</v>
+        <v>505</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>91</v>
@@ -8654,7 +9353,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="56">
+    <row r="27" spans="1:13" ht="70">
       <c r="A27" s="1" t="s">
         <v>269</v>
       </c>
@@ -8662,7 +9361,7 @@
         <v>279</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>123</v>
+        <v>504</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>120</v>
@@ -8671,7 +9370,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="56">
+    <row r="28" spans="1:13" ht="70">
       <c r="A28" s="1" t="s">
         <v>270</v>
       </c>
@@ -8679,7 +9378,7 @@
         <v>280</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>193</v>
+        <v>506</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>194</v>
@@ -8688,7 +9387,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="28">
+    <row r="29" spans="1:13" ht="39">
       <c r="A29" s="1" t="s">
         <v>271</v>
       </c>
@@ -8696,10 +9395,10 @@
         <v>281</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>290</v>
+        <v>507</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E29" s="32" t="s">
         <v>192</v>
@@ -8730,7 +9429,7 @@
         <v>337</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>87</v>
+        <v>508</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>82</v>
@@ -8739,7 +9438,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="42">
+    <row r="32" spans="1:13" ht="56">
       <c r="A32" s="1" t="s">
         <v>333</v>
       </c>
@@ -8747,7 +9446,7 @@
         <v>338</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>100</v>
+        <v>509</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>91</v>
@@ -8764,7 +9463,7 @@
         <v>339</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>123</v>
+        <v>510</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>120</v>
@@ -8773,7 +9472,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="56">
+    <row r="34" spans="1:5" ht="70">
       <c r="A34" s="1" t="s">
         <v>335</v>
       </c>
@@ -8781,7 +9480,7 @@
         <v>340</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>193</v>
+        <v>511</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>194</v>
@@ -8790,7 +9489,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="28">
+    <row r="35" spans="1:5" ht="39">
       <c r="A35" s="1" t="s">
         <v>336</v>
       </c>
@@ -8798,10 +9497,10 @@
         <v>341</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>290</v>
+        <v>512</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E35" s="32" t="s">
         <v>192</v>
@@ -8832,7 +9531,7 @@
         <v>407</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>87</v>
+        <v>513</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>82</v>
@@ -8841,7 +9540,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="42">
+    <row r="38" spans="1:5" ht="56">
       <c r="A38" s="1" t="s">
         <v>390</v>
       </c>
@@ -8849,7 +9548,7 @@
         <v>408</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>100</v>
+        <v>514</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>91</v>
@@ -8866,7 +9565,7 @@
         <v>409</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>123</v>
+        <v>515</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>120</v>
@@ -8875,7 +9574,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="56">
+    <row r="40" spans="1:5" ht="70">
       <c r="A40" s="1" t="s">
         <v>392</v>
       </c>
@@ -8883,7 +9582,7 @@
         <v>410</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>193</v>
+        <v>516</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>194</v>
@@ -8892,7 +9591,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="28">
+    <row r="41" spans="1:5" ht="39">
       <c r="A41" s="1" t="s">
         <v>393</v>
       </c>
@@ -8900,10 +9599,10 @@
         <v>411</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>290</v>
+        <v>517</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E41" s="32" t="s">
         <v>192</v>
@@ -8934,7 +9633,7 @@
         <v>413</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>87</v>
+        <v>518</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>82</v>
@@ -8943,7 +9642,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="42">
+    <row r="44" spans="1:5" ht="56">
       <c r="A44" s="1" t="s">
         <v>396</v>
       </c>
@@ -8951,7 +9650,7 @@
         <v>414</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>100</v>
+        <v>519</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>91</v>
@@ -8968,7 +9667,7 @@
         <v>415</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>123</v>
+        <v>520</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>120</v>
@@ -8977,7 +9676,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="56">
+    <row r="46" spans="1:5" ht="70">
       <c r="A46" s="1" t="s">
         <v>398</v>
       </c>
@@ -8985,7 +9684,7 @@
         <v>416</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>193</v>
+        <v>521</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>194</v>
@@ -8994,7 +9693,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="28">
+    <row r="47" spans="1:5" ht="39">
       <c r="A47" s="1" t="s">
         <v>399</v>
       </c>
@@ -9002,10 +9701,10 @@
         <v>417</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>290</v>
+        <v>522</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E47" s="32" t="s">
         <v>192</v>
@@ -9036,7 +9735,7 @@
         <v>419</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>87</v>
+        <v>523</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>82</v>
@@ -9045,7 +9744,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="42">
+    <row r="50" spans="1:5" ht="56">
       <c r="A50" s="1" t="s">
         <v>402</v>
       </c>
@@ -9053,7 +9752,7 @@
         <v>420</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>100</v>
+        <v>524</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>91</v>
@@ -9070,7 +9769,7 @@
         <v>421</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>123</v>
+        <v>525</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>120</v>
@@ -9079,7 +9778,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="56">
+    <row r="52" spans="1:5" ht="70">
       <c r="A52" s="1" t="s">
         <v>404</v>
       </c>
@@ -9087,7 +9786,7 @@
         <v>422</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>193</v>
+        <v>526</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>194</v>
@@ -9096,7 +9795,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="28">
+    <row r="53" spans="1:5" ht="39">
       <c r="A53" s="1" t="s">
         <v>405</v>
       </c>
@@ -9104,10 +9803,10 @@
         <v>423</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>290</v>
+        <v>527</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E53" s="32" t="s">
         <v>192</v>

--- a/Testing Spreadsheet v1.0 OrderReceipt_AdamHale.xlsx
+++ b/Testing Spreadsheet v1.0 OrderReceipt_AdamHale.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <workbookProtection workbookPassword="A6C2" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-760" yWindow="-460" windowWidth="25600" windowHeight="16000" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="2380" yWindow="1420" windowWidth="25140" windowHeight="12720" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="5" r:id="rId1"/>
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="550">
   <si>
     <t xml:space="preserve">Req </t>
   </si>
@@ -490,9 +490,6 @@
     <t>na</t>
   </si>
   <si>
-    <t>Individual prices are not shown for any item, only the total pricefor the order is.</t>
-  </si>
-  <si>
     <t>To test that the order receipt contains invididual prices for each item that have been ordered</t>
   </si>
   <si>
@@ -521,9 +518,6 @@
   </si>
   <si>
     <t>OrderPage_TConn_7</t>
-  </si>
-  <si>
-    <t>This works but it has failed due to the spec clearly saying that the collection time will be 20 minutes after ordering, when it I infact 30 minutes. This has been recorded through the automated Selenium test.</t>
   </si>
   <si>
     <t>The Order receipt should include the confirmed date and time for collection having selected the later option for collection</t>
@@ -1821,6 +1815,78 @@
   </si>
   <si>
     <t>A logged user should be able to log off from the Order Receipt page, on a Samsung Galaxy S4 mobile device</t>
+  </si>
+  <si>
+    <t>OrderPage_25</t>
+  </si>
+  <si>
+    <t>OrderPage_28</t>
+  </si>
+  <si>
+    <t>Individual prices are not shown for any item, only the total price for the order is.</t>
+  </si>
+  <si>
+    <t>Meat Extravaganza with peppers and onions as extras and a Cheese pizza</t>
+  </si>
+  <si>
+    <t>This works but it has failed due to the spec clearly saying that the collection time will be 20 minutes after ordering, when it is infact 30 minutes. This has been recorded through the automated Selenium test.</t>
+  </si>
+  <si>
+    <t>OrderPage_32</t>
+  </si>
+  <si>
+    <t>This works but it has failed due to the spec clearly saying that the collection time will be 20 minutes after ordering, when it is infact 30 minutes.</t>
+  </si>
+  <si>
+    <t>OrderPage_27</t>
+  </si>
+  <si>
+    <t>OrderPage_31</t>
+  </si>
+  <si>
+    <t>OrderPage_33</t>
+  </si>
+  <si>
+    <t>OrderPage_34</t>
+  </si>
+  <si>
+    <t>Meat Extravaganza with peppers and olives as extras and a cheese pizza</t>
+  </si>
+  <si>
+    <t>OderPage_37</t>
+  </si>
+  <si>
+    <t>This works but it has failed due to the spec clearly saying that the collection time will be 20 minutes after ordering, when it is infact 30 minutes</t>
+  </si>
+  <si>
+    <t>OrderPage_38</t>
+  </si>
+  <si>
+    <t>OrderPage_39</t>
+  </si>
+  <si>
+    <t>OrderPage_40</t>
+  </si>
+  <si>
+    <t>OrderPage_43</t>
+  </si>
+  <si>
+    <t>OrderPage_45</t>
+  </si>
+  <si>
+    <t>OrderPage_46</t>
+  </si>
+  <si>
+    <t>OrderPage_49</t>
+  </si>
+  <si>
+    <t>OrderPage_50</t>
+  </si>
+  <si>
+    <t>OderPage_51</t>
+  </si>
+  <si>
+    <t>OrderPage_52</t>
   </si>
 </sst>
 </file>
@@ -2039,8 +2105,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="739">
+  <cellStyleXfs count="741">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2886,7 +2954,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="739">
+  <cellStyles count="741">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3256,6 +3324,7 @@
     <cellStyle name="Followed Hyperlink" xfId="734" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="736" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="738" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="740" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3625,6 +3694,7 @@
     <cellStyle name="Hyperlink" xfId="733" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="735" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="737" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="739" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -3741,13 +3811,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>18.0</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3837,7 +3907,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.0</c:v>
@@ -3864,11 +3934,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2105623048"/>
-        <c:axId val="2105620088"/>
+        <c:axId val="2117287704"/>
+        <c:axId val="2117290648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2105623048"/>
+        <c:axId val="2117287704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3877,7 +3947,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2105620088"/>
+        <c:crossAx val="2117290648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3885,7 +3955,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2105620088"/>
+        <c:axId val="2117290648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3896,7 +3966,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2105623048"/>
+        <c:crossAx val="2117287704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4336,7 +4406,7 @@
     </row>
     <row r="2" spans="1:9" ht="35.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>58</v>
@@ -4353,7 +4423,7 @@
     </row>
     <row r="3" spans="1:9" ht="35.5" customHeight="1">
       <c r="A3" s="32" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>60</v>
@@ -4368,7 +4438,7 @@
     </row>
     <row r="4" spans="1:9" ht="28">
       <c r="A4" s="32" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>61</v>
@@ -4385,7 +4455,7 @@
     </row>
     <row r="5" spans="1:9" ht="23">
       <c r="A5" s="32" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>62</v>
@@ -4402,10 +4472,10 @@
     </row>
     <row r="6" spans="1:9" ht="28">
       <c r="A6" s="32" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>59</v>
@@ -4419,10 +4489,10 @@
     </row>
     <row r="7" spans="1:9" ht="28">
       <c r="A7" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>59</v>
@@ -4436,10 +4506,10 @@
     </row>
     <row r="8" spans="1:9" ht="42">
       <c r="A8" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>59</v>
@@ -4453,10 +4523,10 @@
     </row>
     <row r="9" spans="1:9" ht="42">
       <c r="A9" s="32" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>59</v>
@@ -4467,7 +4537,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="32" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B10" s="32" t="s">
         <v>63</v>
@@ -4481,10 +4551,10 @@
     </row>
     <row r="11" spans="1:9" ht="28">
       <c r="A11" s="32" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>59</v>
@@ -4495,10 +4565,10 @@
     </row>
     <row r="12" spans="1:9" ht="28">
       <c r="A12" s="32" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>59</v>
@@ -4509,13 +4579,13 @@
     </row>
     <row r="13" spans="1:9" ht="28">
       <c r="A13" s="32" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>11</v>
@@ -4523,13 +4593,13 @@
     </row>
     <row r="14" spans="1:9" ht="28">
       <c r="A14" s="32" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>11</v>
@@ -4537,13 +4607,13 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="32" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
@@ -4551,13 +4621,13 @@
     </row>
     <row r="16" spans="1:9" ht="28">
       <c r="A16" s="32" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>11</v>
@@ -4565,13 +4635,13 @@
     </row>
     <row r="17" spans="1:4" ht="28">
       <c r="A17" s="32" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>11</v>
@@ -4579,13 +4649,13 @@
     </row>
     <row r="18" spans="1:4" ht="28">
       <c r="A18" s="32" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>11</v>
@@ -4593,13 +4663,13 @@
     </row>
     <row r="19" spans="1:4" ht="28">
       <c r="A19" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>11</v>
@@ -4607,13 +4677,13 @@
     </row>
     <row r="20" spans="1:4" ht="28">
       <c r="A20" s="32" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>11</v>
@@ -4621,13 +4691,13 @@
     </row>
     <row r="21" spans="1:4" ht="28">
       <c r="A21" s="32" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>11</v>
@@ -4635,27 +4705,27 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="32" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="28">
       <c r="A23" s="32" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>6</v>
@@ -4663,13 +4733,13 @@
     </row>
     <row r="24" spans="1:4" ht="56">
       <c r="A24" s="32" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>6</v>
@@ -4677,38 +4747,38 @@
     </row>
     <row r="25" spans="1:4" ht="42">
       <c r="A25" s="32" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="42">
       <c r="A26" s="32" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="28">
       <c r="A27" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>59</v>
@@ -4719,13 +4789,13 @@
     </row>
     <row r="28" spans="1:4" ht="42">
       <c r="A28" s="32" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>11</v>
@@ -4733,27 +4803,27 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="32" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="56">
       <c r="A30" s="32" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>6</v>
@@ -4761,38 +4831,38 @@
     </row>
     <row r="31" spans="1:4" ht="28">
       <c r="A31" s="32" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="42">
       <c r="A32" s="32" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="28">
       <c r="A33" s="32" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>59</v>
@@ -4803,10 +4873,10 @@
     </row>
     <row r="34" spans="1:4" ht="28">
       <c r="A34" s="32" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>11</v>
@@ -4814,24 +4884,24 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="32" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="56">
       <c r="A36" s="32" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>6</v>
@@ -4839,38 +4909,38 @@
     </row>
     <row r="37" spans="1:4" ht="28">
       <c r="A37" s="32" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="42">
       <c r="A38" s="32" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="28">
       <c r="A39" s="32" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>59</v>
@@ -4881,13 +4951,13 @@
     </row>
     <row r="40" spans="1:4" ht="28">
       <c r="A40" s="32" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>11</v>
@@ -4895,27 +4965,27 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="32" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="56">
       <c r="A42" s="32" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>6</v>
@@ -4923,38 +4993,38 @@
     </row>
     <row r="43" spans="1:4" ht="42">
       <c r="A43" s="32" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="42">
       <c r="A44" s="32" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="42">
       <c r="A45" s="32" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>59</v>
@@ -4965,13 +5035,13 @@
     </row>
     <row r="46" spans="1:4" ht="28">
       <c r="A46" s="32" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B46" s="32" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>11</v>
@@ -4979,27 +5049,27 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="32" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B47" s="37" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="56">
       <c r="A48" s="32" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>6</v>
@@ -5007,38 +5077,38 @@
     </row>
     <row r="49" spans="1:4" ht="42">
       <c r="A49" s="32" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B49" s="32" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="42">
       <c r="A50" s="32" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="42">
       <c r="A51" s="32" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B51" s="32" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>59</v>
@@ -5049,13 +5119,13 @@
     </row>
     <row r="52" spans="1:4" ht="28">
       <c r="A52" s="32" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>11</v>
@@ -5063,16 +5133,16 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="32" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B53" s="37" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -5104,8 +5174,8 @@
   </sheetPr>
   <dimension ref="A1:Z161"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="D44" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="O54" sqref="O54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5177,7 +5247,7 @@
     </row>
     <row r="2" spans="1:26" ht="39">
       <c r="A2" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>64</v>
@@ -5216,7 +5286,7 @@
     </row>
     <row r="3" spans="1:26" ht="52">
       <c r="A3" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>75</v>
@@ -5255,16 +5325,16 @@
     </row>
     <row r="4" spans="1:26" ht="39">
       <c r="A4" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>79</v>
+        <v>529</v>
       </c>
       <c r="E4" s="32" t="s">
         <v>71</v>
@@ -5282,7 +5352,7 @@
         <v>65</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>33</v>
@@ -5297,7 +5367,7 @@
         <v>83</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>84</v>
+        <v>528</v>
       </c>
       <c r="P4" s="10"/>
       <c r="Z4" s="5" t="s">
@@ -5306,16 +5376,16 @@
     </row>
     <row r="5" spans="1:26" ht="39">
       <c r="A5" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E5" s="32" t="s">
         <v>72</v>
@@ -5342,16 +5412,16 @@
     </row>
     <row r="6" spans="1:26" ht="52">
       <c r="A6" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>73</v>
@@ -5369,7 +5439,7 @@
         <v>65</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>33</v>
@@ -5384,22 +5454,22 @@
         <v>83</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>95</v>
+        <v>530</v>
       </c>
       <c r="P6" s="10"/>
     </row>
     <row r="7" spans="1:26" ht="52">
       <c r="A7" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E7" s="32" t="s">
         <v>74</v>
@@ -5429,19 +5499,19 @@
     </row>
     <row r="8" spans="1:26" ht="39">
       <c r="A8" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>6</v>
@@ -5467,24 +5537,24 @@
       </c>
       <c r="U8" s="31">
         <f>COUNTIF(H2:H90,"*Passed*")</f>
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="39">
       <c r="A9" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>6</v>
@@ -5510,24 +5580,24 @@
       </c>
       <c r="U9" s="31">
         <f>COUNTIF(H3:H90,"*Failed*")</f>
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="39">
       <c r="A10" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>6</v>
@@ -5553,24 +5623,24 @@
       </c>
       <c r="U10" s="31">
         <f>COUNTIF(H4:H90,"*Not*")</f>
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="76" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>6</v>
@@ -5585,7 +5655,7 @@
         <v>65</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>33</v>
@@ -5600,25 +5670,25 @@
         <v>83</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="P11" s="10"/>
     </row>
     <row r="12" spans="1:26" ht="52">
       <c r="A12" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="E12" s="32" t="s">
         <v>131</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>133</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>6</v>
@@ -5642,19 +5712,19 @@
     </row>
     <row r="13" spans="1:26" ht="39">
       <c r="A13" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>178</v>
-      </c>
       <c r="E13" s="32" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>11</v>
@@ -5678,19 +5748,19 @@
     </row>
     <row r="14" spans="1:26" ht="42">
       <c r="A14" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>11</v>
@@ -5705,13 +5775,13 @@
         <v>65</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K14" s="35" t="s">
         <v>33</v>
       </c>
       <c r="L14" s="35" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M14" s="34">
         <v>42099</v>
@@ -5720,25 +5790,25 @@
         <v>83</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="P14" s="10"/>
     </row>
     <row r="15" spans="1:26" ht="39">
       <c r="A15" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>11</v>
@@ -5762,19 +5832,19 @@
     </row>
     <row r="16" spans="1:26" ht="39">
       <c r="A16" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>11</v>
@@ -5798,19 +5868,19 @@
     </row>
     <row r="17" spans="1:21" ht="26">
       <c r="A17" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>11</v>
@@ -5834,19 +5904,19 @@
     </row>
     <row r="18" spans="1:21" ht="26">
       <c r="A18" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>11</v>
@@ -5870,19 +5940,19 @@
     </row>
     <row r="19" spans="1:21" ht="26">
       <c r="A19" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>11</v>
@@ -5906,19 +5976,19 @@
     </row>
     <row r="20" spans="1:21" ht="26">
       <c r="A20" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>11</v>
@@ -5942,19 +6012,19 @@
     </row>
     <row r="21" spans="1:21" ht="39">
       <c r="A21" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E21" s="32" t="s">
         <v>234</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>236</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>11</v>
@@ -5978,19 +6048,19 @@
     </row>
     <row r="22" spans="1:21" ht="26">
       <c r="A22" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E22" s="32" t="s">
         <v>235</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>237</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>27</v>
@@ -6005,7 +6075,7 @@
         <v>65</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K22" s="35" t="s">
         <v>33</v>
@@ -6020,16 +6090,16 @@
         <v>83</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="P22" s="10"/>
     </row>
     <row r="23" spans="1:21" ht="39">
       <c r="A23" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>83</v>
@@ -6038,7 +6108,7 @@
         <v>83</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>6</v>
@@ -6062,10 +6132,10 @@
     </row>
     <row r="24" spans="1:21" ht="39">
       <c r="A24" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>83</v>
@@ -6074,7 +6144,7 @@
         <v>83</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>6</v>
@@ -6098,19 +6168,19 @@
     </row>
     <row r="25" spans="1:21" ht="52">
       <c r="A25" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>79</v>
+        <v>537</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>27</v>
@@ -6119,15 +6189,15 @@
         <v>42099</v>
       </c>
       <c r="H25" s="26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="J25" s="10"/>
+      <c r="J25" s="35"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
+      <c r="M25" s="34"/>
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
       <c r="P25" s="10"/>
@@ -6137,19 +6207,19 @@
     </row>
     <row r="26" spans="1:21" ht="65">
       <c r="A26" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>6</v>
@@ -6158,41 +6228,53 @@
         <v>42099</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
+      <c r="J26" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M26" s="34">
+        <v>42106</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="O26" s="10" t="s">
+        <v>532</v>
+      </c>
       <c r="P26" s="10"/>
       <c r="T26" t="s">
         <v>34</v>
       </c>
       <c r="U26" s="31">
         <f>COUNTIF(L2:L50,"*Minor*")</f>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="52">
       <c r="A27" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>6</v>
@@ -6201,7 +6283,7 @@
         <v>42099</v>
       </c>
       <c r="H27" s="26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>65</v>
@@ -6222,19 +6304,19 @@
     </row>
     <row r="28" spans="1:21" ht="65">
       <c r="A28" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>11</v>
@@ -6243,17 +6325,29 @@
         <v>42099</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
+      <c r="J28" s="35" t="s">
+        <v>533</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="M28" s="34">
+        <v>42106</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="P28" s="10"/>
       <c r="T28" t="s">
         <v>35</v>
@@ -6265,19 +6359,19 @@
     </row>
     <row r="29" spans="1:21" ht="52">
       <c r="A29" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>27</v>
@@ -6286,17 +6380,29 @@
         <v>42099</v>
       </c>
       <c r="H29" s="26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
+      <c r="J29" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M29" s="34">
+        <v>42106</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="O29" s="10" t="s">
+        <v>320</v>
+      </c>
       <c r="P29" s="10"/>
       <c r="T29" t="s">
         <v>36</v>
@@ -6308,10 +6414,10 @@
     </row>
     <row r="30" spans="1:21" ht="26">
       <c r="A30" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>83</v>
@@ -6320,7 +6426,7 @@
         <v>83</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>6</v>
@@ -6329,7 +6435,7 @@
         <v>42099</v>
       </c>
       <c r="H30" s="26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>65</v>
@@ -6351,19 +6457,19 @@
     </row>
     <row r="31" spans="1:21" ht="52">
       <c r="A31" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>79</v>
+        <v>537</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>27</v>
@@ -6372,7 +6478,7 @@
         <v>42099</v>
       </c>
       <c r="H31" s="26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>65</v>
@@ -6387,19 +6493,19 @@
     </row>
     <row r="32" spans="1:21" ht="52">
       <c r="A32" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>6</v>
@@ -6408,34 +6514,46 @@
         <v>42099</v>
       </c>
       <c r="H32" s="26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
+      <c r="J32" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M32" s="34">
+        <v>42106</v>
+      </c>
+      <c r="N32" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="O32" s="10" t="s">
+        <v>532</v>
+      </c>
       <c r="P32" s="10"/>
     </row>
     <row r="33" spans="1:16" ht="39">
       <c r="A33" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F33" s="11" t="s">
         <v>6</v>
@@ -6444,34 +6562,46 @@
         <v>42099</v>
       </c>
       <c r="H33" s="26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
+      <c r="J33" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M33" s="34">
+        <v>42106</v>
+      </c>
+      <c r="N33" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="O33" s="10" t="s">
+        <v>329</v>
+      </c>
       <c r="P33" s="10"/>
     </row>
     <row r="34" spans="1:16" ht="52">
       <c r="A34" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F34" s="11" t="s">
         <v>11</v>
@@ -6480,34 +6610,46 @@
         <v>42099</v>
       </c>
       <c r="H34" s="26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
+      <c r="J34" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="M34" s="34">
+        <v>42106</v>
+      </c>
+      <c r="N34" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="P34" s="10"/>
     </row>
     <row r="35" spans="1:16" ht="39">
       <c r="A35" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E35" s="32" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F35" s="11" t="s">
         <v>27</v>
@@ -6516,25 +6658,37 @@
         <v>42099</v>
       </c>
       <c r="H35" s="26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
+      <c r="J35" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M35" s="34">
+        <v>42106</v>
+      </c>
+      <c r="N35" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="O35" s="10" t="s">
+        <v>320</v>
+      </c>
       <c r="P35" s="10"/>
     </row>
     <row r="36" spans="1:16" ht="26">
       <c r="A36" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>83</v>
@@ -6543,7 +6697,7 @@
         <v>83</v>
       </c>
       <c r="E36" s="32" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>27</v>
@@ -6552,7 +6706,7 @@
         <v>42099</v>
       </c>
       <c r="H36" s="26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>65</v>
@@ -6560,26 +6714,26 @@
       <c r="J36" s="10"/>
       <c r="K36" s="10"/>
       <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
+      <c r="M36" s="34"/>
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
       <c r="P36" s="10"/>
     </row>
     <row r="37" spans="1:16" ht="52">
       <c r="A37" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>79</v>
+        <v>537</v>
       </c>
       <c r="E37" s="32" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F37" s="11" t="s">
         <v>27</v>
@@ -6588,7 +6742,7 @@
         <v>42099</v>
       </c>
       <c r="H37" s="26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I37" s="10" t="s">
         <v>65</v>
@@ -6603,19 +6757,19 @@
     </row>
     <row r="38" spans="1:16" ht="65">
       <c r="A38" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E38" s="32" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F38" s="11" t="s">
         <v>6</v>
@@ -6624,34 +6778,46 @@
         <v>42099</v>
       </c>
       <c r="H38" s="26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
+      <c r="J38" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M38" s="34">
+        <v>42106</v>
+      </c>
+      <c r="N38" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="O38" s="10" t="s">
+        <v>539</v>
+      </c>
       <c r="P38" s="10"/>
     </row>
     <row r="39" spans="1:16" ht="39">
       <c r="A39" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>6</v>
@@ -6660,34 +6826,46 @@
         <v>42099</v>
       </c>
       <c r="H39" s="26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I39" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
+      <c r="J39" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L39" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M39" s="34">
+        <v>42106</v>
+      </c>
+      <c r="N39" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="O39" s="10" t="s">
+        <v>329</v>
+      </c>
       <c r="P39" s="10"/>
     </row>
     <row r="40" spans="1:16" ht="52">
       <c r="A40" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E40" s="32" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>6</v>
@@ -6696,34 +6874,46 @@
         <v>42099</v>
       </c>
       <c r="H40" s="26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I40" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
+      <c r="J40" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L40" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="M40" s="34">
+        <v>42106</v>
+      </c>
+      <c r="N40" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="P40" s="10"/>
     </row>
     <row r="41" spans="1:16" ht="39">
       <c r="A41" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E41" s="32" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F41" s="11" t="s">
         <v>27</v>
@@ -6732,25 +6922,37 @@
         <v>42099</v>
       </c>
       <c r="H41" s="26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
+      <c r="J41" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K41" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L41" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M41" s="34">
+        <v>42106</v>
+      </c>
+      <c r="N41" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="O41" s="10" t="s">
+        <v>320</v>
+      </c>
       <c r="P41" s="10"/>
     </row>
     <row r="42" spans="1:16" ht="26">
       <c r="A42" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>83</v>
@@ -6759,7 +6961,7 @@
         <v>83</v>
       </c>
       <c r="E42" s="32" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>6</v>
@@ -6768,7 +6970,7 @@
         <v>42099</v>
       </c>
       <c r="H42" s="26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>65</v>
@@ -6783,19 +6985,19 @@
     </row>
     <row r="43" spans="1:16" ht="52">
       <c r="A43" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B43" s="38" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>79</v>
+        <v>537</v>
       </c>
       <c r="E43" s="32" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F43" s="11" t="s">
         <v>27</v>
@@ -6804,7 +7006,7 @@
         <v>42099</v>
       </c>
       <c r="H43" s="26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>65</v>
@@ -6819,19 +7021,19 @@
     </row>
     <row r="44" spans="1:16" ht="65">
       <c r="A44" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E44" s="32" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>6</v>
@@ -6840,34 +7042,46 @@
         <v>42099</v>
       </c>
       <c r="H44" s="26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I44" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
+      <c r="J44" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L44" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M44" s="34">
+        <v>42106</v>
+      </c>
+      <c r="N44" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="O44" s="10" t="s">
+        <v>539</v>
+      </c>
       <c r="P44" s="10"/>
     </row>
     <row r="45" spans="1:16" ht="52">
       <c r="A45" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F45" s="11" t="s">
         <v>6</v>
@@ -6876,7 +7090,7 @@
         <v>42099</v>
       </c>
       <c r="H45" s="26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I45" s="10" t="s">
         <v>65</v>
@@ -6891,19 +7105,19 @@
     </row>
     <row r="46" spans="1:16" ht="52">
       <c r="A46" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E46" s="32" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>6</v>
@@ -6912,34 +7126,46 @@
         <v>42099</v>
       </c>
       <c r="H46" s="26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
+      <c r="J46" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L46" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="M46" s="34">
+        <v>42106</v>
+      </c>
+      <c r="N46" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="P46" s="10"/>
     </row>
     <row r="47" spans="1:16" ht="39">
       <c r="A47" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E47" s="32" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>27</v>
@@ -6948,25 +7174,37 @@
         <v>42099</v>
       </c>
       <c r="H47" s="26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I47" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
+      <c r="J47" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="K47" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L47" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M47" s="34">
+        <v>42106</v>
+      </c>
+      <c r="N47" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="O47" s="10" t="s">
+        <v>320</v>
+      </c>
       <c r="P47" s="10"/>
     </row>
     <row r="48" spans="1:16" ht="26">
       <c r="A48" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B48" s="38" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>83</v>
@@ -6975,7 +7213,7 @@
         <v>83</v>
       </c>
       <c r="E48" s="32" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>6</v>
@@ -6984,7 +7222,7 @@
         <v>42099</v>
       </c>
       <c r="H48" s="26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I48" s="10" t="s">
         <v>65</v>
@@ -6999,10 +7237,10 @@
     </row>
     <row r="49" spans="1:16" ht="52">
       <c r="A49" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B49" s="38" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>76</v>
@@ -7011,7 +7249,7 @@
         <v>79</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>27</v>
@@ -7020,7 +7258,7 @@
         <v>42099</v>
       </c>
       <c r="H49" s="26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I49" s="10" t="s">
         <v>65</v>
@@ -7028,26 +7266,26 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
       <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
+      <c r="M49" s="34"/>
       <c r="N49" s="10"/>
       <c r="O49" s="10"/>
       <c r="P49" s="10"/>
     </row>
     <row r="50" spans="1:16" ht="65">
       <c r="A50" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E50" s="32" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F50" s="11" t="s">
         <v>6</v>
@@ -7056,34 +7294,46 @@
         <v>42099</v>
       </c>
       <c r="H50" s="26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I50" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
+      <c r="J50" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L50" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M50" s="34">
+        <v>42106</v>
+      </c>
+      <c r="N50" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="O50" s="10" t="s">
+        <v>539</v>
+      </c>
       <c r="P50" s="10"/>
     </row>
     <row r="51" spans="1:16" ht="52">
       <c r="A51" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E51" s="32" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F51" s="11" t="s">
         <v>6</v>
@@ -7092,34 +7342,46 @@
         <v>42099</v>
       </c>
       <c r="H51" s="26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I51" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
+      <c r="J51" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L51" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M51" s="34">
+        <v>42106</v>
+      </c>
+      <c r="N51" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="O51" s="10" t="s">
+        <v>329</v>
+      </c>
       <c r="P51" s="10"/>
     </row>
     <row r="52" spans="1:16" ht="52">
       <c r="A52" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E52" s="32" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F52" s="11" t="s">
         <v>6</v>
@@ -7128,34 +7390,46 @@
         <v>42099</v>
       </c>
       <c r="H52" s="26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I52" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
+      <c r="J52" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="K52" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L52" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="M52" s="34">
+        <v>42106</v>
+      </c>
+      <c r="N52" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="P52" s="10"/>
     </row>
     <row r="53" spans="1:16" ht="52">
       <c r="A53" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E53" s="32" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F53" s="11" t="s">
         <v>27</v>
@@ -7164,17 +7438,29 @@
         <v>42099</v>
       </c>
       <c r="H53" s="26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I53" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
+      <c r="J53" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="K53" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L53" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="M53" s="34">
+        <v>42106</v>
+      </c>
+      <c r="N53" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="O53" s="10" t="s">
+        <v>320</v>
+      </c>
       <c r="P53" s="10"/>
     </row>
     <row r="54" spans="1:16">
@@ -8742,7 +9028,7 @@
   </sheetPr>
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
       <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
@@ -8785,10 +9071,10 @@
     </row>
     <row r="2" spans="1:13" ht="42">
       <c r="A2" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>69</v>
@@ -8811,10 +9097,10 @@
     </row>
     <row r="3" spans="1:13" ht="56">
       <c r="A3" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>78</v>
@@ -8836,13 +9122,13 @@
     </row>
     <row r="4" spans="1:13" ht="56">
       <c r="A4" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>82</v>
@@ -8861,16 +9147,16 @@
     </row>
     <row r="5" spans="1:13" ht="42">
       <c r="A5" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>68</v>
@@ -8886,16 +9172,16 @@
     </row>
     <row r="6" spans="1:13" ht="42">
       <c r="A6" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>68</v>
@@ -8911,16 +9197,16 @@
     </row>
     <row r="7" spans="1:13" ht="56">
       <c r="A7" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>68</v>
@@ -8936,16 +9222,16 @@
     </row>
     <row r="8" spans="1:13" ht="56">
       <c r="A8" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>68</v>
@@ -8961,16 +9247,16 @@
     </row>
     <row r="9" spans="1:13" ht="56">
       <c r="A9" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>68</v>
@@ -8986,16 +9272,16 @@
     </row>
     <row r="10" spans="1:13" ht="56">
       <c r="A10" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>68</v>
@@ -9011,16 +9297,16 @@
     </row>
     <row r="11" spans="1:13" ht="56">
       <c r="A11" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>68</v>
@@ -9036,16 +9322,16 @@
     </row>
     <row r="12" spans="1:13" ht="71" customHeight="1">
       <c r="A12" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>68</v>
@@ -9061,19 +9347,19 @@
     </row>
     <row r="13" spans="1:13" ht="56">
       <c r="A13" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -9086,19 +9372,19 @@
     </row>
     <row r="14" spans="1:13" ht="56">
       <c r="A14" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -9111,19 +9397,19 @@
     </row>
     <row r="15" spans="1:13" ht="42">
       <c r="A15" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -9136,19 +9422,19 @@
     </row>
     <row r="16" spans="1:13" ht="42">
       <c r="A16" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -9161,19 +9447,19 @@
     </row>
     <row r="17" spans="1:13" ht="28">
       <c r="A17" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -9186,19 +9472,19 @@
     </row>
     <row r="18" spans="1:13" ht="28">
       <c r="A18" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -9211,19 +9497,19 @@
     </row>
     <row r="19" spans="1:13" ht="28">
       <c r="A19" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -9236,50 +9522,50 @@
     </row>
     <row r="20" spans="1:13" ht="28">
       <c r="A20" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="56">
       <c r="A21" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="28">
       <c r="A22" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E22" s="32" t="s">
         <v>68</v>
@@ -9287,16 +9573,16 @@
     </row>
     <row r="23" spans="1:13" ht="56">
       <c r="A23" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E23" s="32" t="s">
         <v>68</v>
@@ -9304,512 +9590,512 @@
     </row>
     <row r="24" spans="1:13" ht="28">
       <c r="A24" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="56">
       <c r="A25" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>82</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="56">
       <c r="A26" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="70">
       <c r="A27" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="70">
       <c r="A28" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="39">
       <c r="A29" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="28">
       <c r="A30" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="56">
       <c r="A31" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>82</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="56">
       <c r="A32" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="56">
       <c r="A33" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="70">
       <c r="A34" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="39">
       <c r="A35" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E35" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="28">
       <c r="A36" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E36" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="56">
       <c r="A37" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>82</v>
       </c>
       <c r="E37" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="56">
       <c r="A38" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E38" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="56">
       <c r="A39" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="70">
       <c r="A40" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E40" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="39">
       <c r="A41" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E41" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="28">
       <c r="A42" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C42" s="38" t="s">
+        <v>282</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="E42" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="56">
       <c r="A43" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>82</v>
       </c>
       <c r="E43" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="56">
       <c r="A44" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E44" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="56">
       <c r="A45" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="70">
       <c r="A46" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E46" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="39">
       <c r="A47" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E47" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="28">
       <c r="A48" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C48" s="38" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E48" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="56">
       <c r="A49" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>82</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="56">
       <c r="A50" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E50" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="56">
       <c r="A51" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E51" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="70">
       <c r="A52" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E52" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="39">
       <c r="A53" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E53" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -9915,12 +10201,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C0A86D0A1DF85A4CBF24319CD50F658E" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="18023c554c1e7c0fe5f8bda126dbbbe1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -10034,7 +10314,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -10043,16 +10323,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64745CD4-DB27-427B-80D9-1CCB91D6E4BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10068,10 +10345,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testing Spreadsheet v1.0 OrderReceipt_AdamHale.xlsx
+++ b/Testing Spreadsheet v1.0 OrderReceipt_AdamHale.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <workbookProtection workbookPassword="A6C2" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="1420" windowWidth="25140" windowHeight="12720" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24840" windowHeight="15600" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="5" r:id="rId1"/>
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="243">
   <si>
     <t xml:space="preserve">Req </t>
   </si>
@@ -415,15 +415,6 @@
     <t>The Order receipt should include a list of the order items</t>
   </si>
   <si>
-    <t>4.1.34</t>
-  </si>
-  <si>
-    <t>The Order receipt should include a list of the order items including extras</t>
-  </si>
-  <si>
-    <t>The Order receipt should include a list of the order items including individual prices</t>
-  </si>
-  <si>
     <t>The Order receipt should include the total price</t>
   </si>
   <si>
@@ -436,33 +427,12 @@
     <t>Adam Hale</t>
   </si>
   <si>
-    <t>OrderPage_TConn_1</t>
-  </si>
-  <si>
     <t>Classic deluxe</t>
   </si>
   <si>
     <t>automated selenium test</t>
   </si>
   <si>
-    <t>Having added an order to the basket with no extras and confirmed the collection time, take user to the order receipt</t>
-  </si>
-  <si>
-    <t>OrderPage_TConn_2</t>
-  </si>
-  <si>
-    <t>OrderPage_TConn_3</t>
-  </si>
-  <si>
-    <t>OrderPage_TConn_4</t>
-  </si>
-  <si>
-    <t>OrderPage_TConn_5</t>
-  </si>
-  <si>
-    <t>OrderPage_TConn_6</t>
-  </si>
-  <si>
     <t>To test that the order receipt contains the items placed on order, specifically looking to see if it records the additional extras</t>
   </si>
   <si>
@@ -472,12 +442,6 @@
     <t>Cheese pizza with Olives, Pepperoni, Peppers and Onions as extras</t>
   </si>
   <si>
-    <t>Having added a plain cheese pizza to the basket with Olives, pepperoni, peppers and onions as extras and confirmed the collection time, take user to the order receipt</t>
-  </si>
-  <si>
-    <t>Meat Extravaganza with peppers and onions as extras</t>
-  </si>
-  <si>
     <t>Order receipt will show item in the receipt</t>
   </si>
   <si>
@@ -493,12 +457,6 @@
     <t>To test that the order receipt contains invididual prices for each item that have been ordered</t>
   </si>
   <si>
-    <t>Classic deluxe with olives</t>
-  </si>
-  <si>
-    <t>Having added an order to the basket with extras and confirmed the collection time, take user to the order receipt</t>
-  </si>
-  <si>
     <t>Order receipt will show the total price for all items that have been ordered</t>
   </si>
   <si>
@@ -514,54 +472,15 @@
     <t>To test that the order receipt includes the date and time that the order has been placed for collection if selecting to collect now</t>
   </si>
   <si>
-    <t>The Order receipt should include the confirmed date and time for collection having selected the now option</t>
-  </si>
-  <si>
-    <t>OrderPage_TConn_7</t>
-  </si>
-  <si>
-    <t>The Order receipt should include the confirmed date and time for collection having selected the later option for collection</t>
-  </si>
-  <si>
     <t>To test that the order receipt includes the date and time that the order has been placed for collection if selecting to collect later</t>
   </si>
   <si>
     <t>Classic deluxe with pepperoni</t>
   </si>
   <si>
-    <t>Having added an order to the basket with extras and confirmed the collection time as later and selecting when, take user to the order receipt</t>
-  </si>
-  <si>
-    <t>Having added an order to the basket with no extras and confirmed the collection time as now, take user to the order receipt</t>
-  </si>
-  <si>
-    <t>OrderPage_TConn_8</t>
-  </si>
-  <si>
-    <t>OrderPage_TConn_9</t>
-  </si>
-  <si>
-    <t>OrderPage_TConn_10</t>
-  </si>
-  <si>
-    <t>The Order receipt should include the confirmed date and time for collection having selected the later option for collection but choosing a time that has already passed</t>
-  </si>
-  <si>
-    <t>Having added an order to the basket with extras and confirmed the collection time as later and selecting a date that has passed, that it does not progress to the order receipt</t>
-  </si>
-  <si>
     <t xml:space="preserve">Order receipt will not be generated until valid date is input </t>
   </si>
   <si>
-    <t>Having added an order to the basket with extras and confirmed the collection time as later and selecting a time that has passed, that it does not progress to the order receipt</t>
-  </si>
-  <si>
-    <t>The Order receipt should include a unique order reference different to the test before</t>
-  </si>
-  <si>
-    <t>To test that the system does not progress to the order receipt</t>
-  </si>
-  <si>
     <t>Meat Extravaganza</t>
   </si>
   <si>
@@ -589,9 +508,6 @@
     <t>OrderReceipt_TProc_8</t>
   </si>
   <si>
-    <t xml:space="preserve">Having added an order to the basket and confirming valid collection details, the order receipt will have a unique ordering reference on it </t>
-  </si>
-  <si>
     <t>Order receipt will have a unique order reference</t>
   </si>
   <si>
@@ -601,9 +517,6 @@
     <t>OrderReceipt_TProc_10</t>
   </si>
   <si>
-    <t>Having added an order to the basket and confirming valid collection details, the order receipt will have a unique ordering reference on it comparing it to the prevoius result</t>
-  </si>
-  <si>
     <t>Meat Extravaganza with peppers</t>
   </si>
   <si>
@@ -613,15 +526,6 @@
     <t>To test that the system provides a unique order reference on the order receipt</t>
   </si>
   <si>
-    <t>OrderPage_1</t>
-  </si>
-  <si>
-    <t>OrderPage_2</t>
-  </si>
-  <si>
-    <t>OrderPage_3</t>
-  </si>
-  <si>
     <t>Having changed password, does the system still work and process the order providing a receipt</t>
   </si>
   <si>
@@ -631,18 +535,9 @@
     <t>Deluxe with olives</t>
   </si>
   <si>
-    <t>OrderPage_TConn_11</t>
-  </si>
-  <si>
-    <t>The Order receipt should be generated when a user changes their password and places and order</t>
-  </si>
-  <si>
     <t>OrderReceipt_TProc_11</t>
   </si>
   <si>
-    <t xml:space="preserve">Having changed the users password and placing an order, the order receipt will still be generated </t>
-  </si>
-  <si>
     <t>Order receipt will be successfully displayed with the correct order details and the unique order reference</t>
   </si>
   <si>
@@ -706,21 +601,9 @@
     <t>OrderReceipt_TConn_11</t>
   </si>
   <si>
-    <t>The Order receipt should not be accessed having confirmed date and time for collection, selecting the later option for collection but choosing a date that has already passed</t>
-  </si>
-  <si>
     <t>OrderReceip_TConn_12</t>
   </si>
   <si>
-    <t>OrderReceip_TConn_13</t>
-  </si>
-  <si>
-    <t>OrderReceip_TConn_14</t>
-  </si>
-  <si>
-    <t>OrderReceip_TConn_15</t>
-  </si>
-  <si>
     <t>The Order receipt page should have the company logo in the header of the web page</t>
   </si>
   <si>
@@ -736,30 +619,6 @@
     <t>Medium</t>
   </si>
   <si>
-    <t>4.1.1</t>
-  </si>
-  <si>
-    <t>4.1.2</t>
-  </si>
-  <si>
-    <t>4.1.4</t>
-  </si>
-  <si>
-    <t>4.1.7</t>
-  </si>
-  <si>
-    <t>OrderPage_TConn_12</t>
-  </si>
-  <si>
-    <t>OrderPage_TConn_13</t>
-  </si>
-  <si>
-    <t>OrderPage_TConn_14</t>
-  </si>
-  <si>
-    <t>OrderPage_TConn_15</t>
-  </si>
-  <si>
     <t>When on the Order Receipt page, the company logo should be in the header of the page</t>
   </si>
   <si>
@@ -802,1091 +661,311 @@
     <t>OrderReceipt_TConn_15</t>
   </si>
   <si>
-    <t>Having added a plain cheese pizza to the basket and confirmed collection, the user should see the company logo in the header of the page</t>
-  </si>
-  <si>
     <t>There will be the company logo within the header of the page</t>
   </si>
   <si>
     <t>exploratory</t>
   </si>
   <si>
-    <t>Having added a plain cheese pizza to the basket and confirmed collection, the user should see the company copyright and site version in the footer of the page</t>
-  </si>
-  <si>
     <t>There will be the company copyright and site version in the footer of the page</t>
   </si>
   <si>
-    <t>Having added a plain cheese pizza to the basket and confirmed collection, the user should see the title of the page they are on</t>
-  </si>
-  <si>
     <t>There will be a title for the Order Receipt page</t>
   </si>
   <si>
     <t>There will be common navigation on the page</t>
   </si>
   <si>
-    <t>Having added a plain cheese pizza to the basket and confirmed collection, the user should see common navagation on the page</t>
-  </si>
-  <si>
     <t>Minor</t>
   </si>
   <si>
-    <t xml:space="preserve">There is no copyright in the footer, also need to clarify if "2015 - QUB CSC3056 CSC7056" is valid for site version
+    <t>OrderReceipt_TProc_16</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_17</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_18</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_19</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_16</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_17</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_18</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_19</t>
+  </si>
+  <si>
+    <t>User will be directed to the Home page</t>
+  </si>
+  <si>
+    <t>User will be directed to the Order page</t>
+  </si>
+  <si>
+    <t>User will be directed to the About page</t>
+  </si>
+  <si>
+    <t>User will be directed to the Contact page</t>
+  </si>
+  <si>
+    <t>Test that clicking on the navigation for Order will direct user to Order page</t>
+  </si>
+  <si>
+    <t>Test that clicking on the navigation for Home will direct user to Home page</t>
+  </si>
+  <si>
+    <t>Test that clicking on the navigation for About will direct user to About page</t>
+  </si>
+  <si>
+    <t>Test that clicking on the navigation for Contact will direct user to Contact page</t>
+  </si>
+  <si>
+    <t>From the Order Receipt page, a user that is logged in can navigate to the reset password page</t>
+  </si>
+  <si>
+    <t>Users that are logged in should be able to log off from the Order Receipt page</t>
+  </si>
+  <si>
+    <t>Any user that is not registered should not be able to access the Order Receipt page</t>
+  </si>
+  <si>
+    <t>To ensure all logged users can navigate to the reset password page</t>
+  </si>
+  <si>
+    <t>To check that unregistered users or not logged in users can't access the Order Receipt page</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_20</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_21</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_22</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_20</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_21</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_22</t>
+  </si>
+  <si>
+    <t>Unregistered users are ristricted and are not allowed to view the Order Receipt page</t>
+  </si>
+  <si>
+    <t>User is able to get to the reset password page and reset password from Order Receipt page</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_1</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_2</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_3</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_4</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_5</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_6</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_7</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_8</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_9</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_10</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_11</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_12</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_13</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_14</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_15</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_16</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_17</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_18</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_19</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_20</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_21</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_22</t>
+  </si>
+  <si>
+    <t>User is able to log off from Order Receipt page</t>
+  </si>
+  <si>
+    <t>Meat Extravaganza with peppers and onions as extras and a Cheese pizza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Order receipt should include the confirmed date and time for collection </t>
+  </si>
+  <si>
+    <t>The Order receipt should be accessible when a user changes their password and places and order</t>
+  </si>
+  <si>
+    <t>All the navigation works from the Order receipt page</t>
+  </si>
+  <si>
+    <t>Classic deluxe with olives and a cheese pizza</t>
+  </si>
+  <si>
+    <t>To test that the system does not progress to the order receipt if a date that has passed is selected</t>
+  </si>
+  <si>
+    <t>To test that the system does not progress to the order receipt if the user selects a time that has passed</t>
+  </si>
+  <si>
+    <t>This works but it has failed due to the spec clearly saying that the collection time will be 20 minutes after ordering, when it is infact 30 minutes. This has been recorded through the automated Selenium test so can be regression tested easily again. However, it has also failed on every other browser, as well as each mobile device</t>
+  </si>
+  <si>
+    <t>When clicking on the log out button, the user is first redirected to the Order Page. They are not directly logged out straight away, it is only when this is clicked for a second time is the user logged out. This dails across all the browsers that were liste to test the website on, a well as all the mobile devices listed in the spec as well</t>
+  </si>
+  <si>
+    <t>Having added an order to the basket with no extras and confirmed the collection time, take user to the order receipt. This will be tested across all mobile devices that have been listed in the spec, as well as all the browsers. The automated test shall be made and recorded through Firefox browser</t>
+  </si>
+  <si>
+    <t>Having added a plain cheese pizza to the basket with Olives, pepperoni, peppers and onions as extras and confirmed the collection time, take user to the order receipt. This will be tested across all mobile devices that have been listed in the spec, as well as all the browsers. The automated test shall be made and recorded through Firefox browser</t>
+  </si>
+  <si>
+    <t>Having added an order to the basket with extras and confirmed the collection time, take user to the order receipt. This will be tested across all mobile devices that have been listed in the spec, as well as all the browsers. The automated test shall be made and recorded through Firefox browser</t>
+  </si>
+  <si>
+    <t>Having added an order to the basket with no extras and confirmed the collection time as now, take user to the order receipt. This will be tested across all mobile devices that have been listed in the spec, as well as all the browsers. The automated test shall be made and recorded through Firefox browser</t>
+  </si>
+  <si>
+    <t>Having added an order to the basket with extras and confirmed the collection time as later and selecting when, take user to the order receipt. This will be tested across all mobile devices that have been listed in the spec, as well as all the browsers. The automated test shall be made and recorded through Firefox browser</t>
+  </si>
+  <si>
+    <t>Having added an order to the basket with extras and confirmed the collection time as later and selecting a date that has passed, that it does not progress to the order receipt. This will be tested across all mobile devices that have been listed in the spec, as well as all the browsers. The automated test shall be made and recorded through Firefox browser</t>
+  </si>
+  <si>
+    <t>Having added an order to the basket with extras and confirmed the collection time as later and selecting a time that has passed, that it does not progress to the order receipt. This will be tested across all mobile devices that have been listed in the spec, as well as all the browsers. The automated test shall be made and recorded through Firefox browser</t>
+  </si>
+  <si>
+    <t>Having added an order to the basket and confirming valid collection details, the order receipt will have a unique ordering reference on it. This will be tested across all mobile devices that have been listed in the spec, as well as all the browsers. The automated test shall be made and recorded through Firefox browser</t>
+  </si>
+  <si>
+    <t>Having added an order to the basket and confirming valid collection details, the order receipt will have a unique ordering reference on it comparing it to the prevoius result. This will be tested across all mobile devices that have been listed in the spec, as well as all the browsers. The automated test shall be made and recorded through Firefox browser</t>
+  </si>
+  <si>
+    <t>Having changed the users password and placing an order, the order receipt will still be generated . This will be tested across all mobile devices that have been listed in the spec, as well as all the browsers. The automated test shall be made and recorded through Firefox browser</t>
+  </si>
+  <si>
+    <t>Having added a plain cheese pizza to the basket and confirmed collection, the user should see the company logo in the header of the page. This will be tested across all mobile devices that have been listed in the spec, as well as all the browsers. This will be a manual / exploratory test.</t>
+  </si>
+  <si>
+    <t>Having added a plain cheese pizza to the basket and confirmed collection, the user should see the company copyright and site version in the footer of the page. This will be tested across all mobile devices that have been listed in the spec, as well as all the browsers. This will be a manual / exploratory test.</t>
+  </si>
+  <si>
+    <t>Having added a plain cheese pizza to the basket and confirmed collection, the user should see the title of the page they are on. This will be tested across all mobile devices that have been listed in the spec, as well as all the browsers. This will be a manual / exploratory test.</t>
+  </si>
+  <si>
+    <t>Having added a plain cheese pizza to the basket and confirmed collection, the user should see common navagation on the page. This will be tested across all mobile devices that have been listed in the spec, as well as all the browsers. This will be a manual / exploratory test.</t>
+  </si>
+  <si>
+    <t>Test the the navigation for "Home" works from the Order Receipt page. This will be tested across all mobile devices that have been listed in the spec, as well as all the browsers. This will be a manual / exploratory test.</t>
+  </si>
+  <si>
+    <t>Test the the navigation for "Order" works from the Order Receipt page. This will be tested across all mobile devices that have been listed in the spec, as well as all the browsers. This will be a manual / exploratory test.</t>
+  </si>
+  <si>
+    <t>Test the the navigation for "About" works from the Order Receipt page. This will be tested across all mobile devices that have been listed in the spec, as well as all the browsers. This will be a manual / exploratory test.</t>
+  </si>
+  <si>
+    <t>Test the the navigation for "Contact" works from the Order Receipt page. This will be tested across all mobile devices that have been listed in the spec, as well as all the browsers. This will be a manual / exploratory test.</t>
+  </si>
+  <si>
+    <t>From the Order Receipt page, a logged user can navigate to the reset password page. This will be tested across all mobile devices that have been listed in the spec, as well as all the browsers. This will be a manual / exploratory test.</t>
+  </si>
+  <si>
+    <t>A logged user should be able to log off from the Order Receipt page. This will be tested across all mobile devices that have been listed in the spec, as well as all the browsers. The automated test shall be made and recorded through Firefox browser</t>
+  </si>
+  <si>
+    <t>The system should prevent unregistered users accessing the Schedule Order page. This will be tested across all mobile devices that have been listed in the spec, as well as all the browsers. The automated test shall be made and recorded through Firefox browser</t>
+  </si>
+  <si>
+    <t>OrderReceipt_1</t>
+  </si>
+  <si>
+    <t>OrderReceipt_2</t>
+  </si>
+  <si>
+    <t>OrderReceipt_3</t>
+  </si>
+  <si>
+    <t>OrderReceipt_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is no copyright in the footer or site version. This fails across all the mobile devices listed to be tested in the spec as well as all browsers
 </t>
   </si>
   <si>
-    <t>OrderReceipt_TProc_16</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TProc_17</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TProc_18</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TProc_19</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TConn_16</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TConn_17</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TConn_18</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TConn_19</t>
-  </si>
-  <si>
-    <t>Test the the navigation for "Home" works from the Order Receipt page</t>
-  </si>
-  <si>
-    <t>Test the the navigation for "Order" works from the Order Receipt page</t>
-  </si>
-  <si>
-    <t>Test the the navigation for "About" works from the Order Receipt page</t>
-  </si>
-  <si>
-    <t>Test the the navigation for "Contact" works from the Order Receipt page</t>
-  </si>
-  <si>
-    <t>User will be directed to the Home page</t>
-  </si>
-  <si>
-    <t>User will be directed to the Order page</t>
-  </si>
-  <si>
-    <t>User will be directed to the About page</t>
-  </si>
-  <si>
-    <t>User will be directed to the Contact page</t>
-  </si>
-  <si>
-    <t>OrderPage_TConn_16</t>
-  </si>
-  <si>
-    <t>OrderPage_TConn_17</t>
-  </si>
-  <si>
-    <t>OrderPage_TConn_18</t>
-  </si>
-  <si>
-    <t>OrderPage_TConn_19</t>
-  </si>
-  <si>
-    <t>Test that clicking on the navigation for Order will direct user to Order page</t>
-  </si>
-  <si>
-    <t>Test that clicking on the navigation for Home will direct user to Home page</t>
-  </si>
-  <si>
-    <t>Test that clicking on the navigation for About will direct user to About page</t>
-  </si>
-  <si>
-    <t>Test that clicking on the navigation for Contact will direct user to Contact page</t>
-  </si>
-  <si>
-    <t>OrderReceip_TConn_16</t>
-  </si>
-  <si>
-    <t>OrderReceip_TConn_17</t>
-  </si>
-  <si>
-    <t>OrderReceip_TConn_18</t>
-  </si>
-  <si>
-    <t>OrderReceip_TConn_19</t>
-  </si>
-  <si>
-    <t>4.1.8</t>
-  </si>
-  <si>
-    <t>Having clicked on the Home navigation while on the Order Receipt page, the user will be directed to the Home page</t>
-  </si>
-  <si>
-    <t>Having clicked on the Contact navigation while on the Order Receipt page, the user will be directed to the Contact page</t>
-  </si>
-  <si>
-    <t>Having clicked on the About navigation while on the Order Receipt page, the user will be directed to the About page</t>
-  </si>
-  <si>
-    <t>Having clicked on the Order navigation while on the Order Receipt page, the user will be directed to the Order page</t>
-  </si>
-  <si>
-    <t>From the Order Receipt page, a user that is logged in can navigate to the reset password page</t>
-  </si>
-  <si>
-    <t>Users that are logged in should be able to log off from the Order Receipt page</t>
-  </si>
-  <si>
-    <t>OrderPage_TConn_20</t>
-  </si>
-  <si>
-    <t>OrderPage_TConn_21</t>
-  </si>
-  <si>
-    <t>OrderPage_TConn_22</t>
-  </si>
-  <si>
-    <t>OrderPage_TConn_23</t>
-  </si>
-  <si>
-    <t>OrderPage_TConn_24</t>
-  </si>
-  <si>
-    <t>OrderPage_TConn_25</t>
-  </si>
-  <si>
-    <t>OrderPage_TConn_26</t>
-  </si>
-  <si>
-    <t>OrderPage_TConn_27</t>
-  </si>
-  <si>
-    <t>Any user that is not registered should not be able to access the Order Receipt page</t>
-  </si>
-  <si>
-    <t>OrderReceip_TConn_20</t>
-  </si>
-  <si>
-    <t>OrderReceip_TConn_21</t>
-  </si>
-  <si>
-    <t>OrderReceip_TConn_22</t>
-  </si>
-  <si>
-    <t>OrderReceip_TConn_23</t>
-  </si>
-  <si>
-    <t>OrderReceip_TConn_24</t>
-  </si>
-  <si>
-    <t>OrderReceip_TConn_25</t>
-  </si>
-  <si>
-    <t>OrderReceip_TConn_26</t>
-  </si>
-  <si>
-    <t>4.1.10</t>
-  </si>
-  <si>
-    <t>To ensure all logged users can navigate to the reset password page</t>
-  </si>
-  <si>
-    <t>To ensure that logged users can log off from the Order receipt page</t>
-  </si>
-  <si>
-    <t>OrderReceip_TConn_27</t>
-  </si>
-  <si>
-    <t>3.2.1</t>
-  </si>
-  <si>
-    <t>3.2.2</t>
-  </si>
-  <si>
-    <t>OrderPage_TConn_28</t>
-  </si>
-  <si>
-    <t>OrderPage_TConn_29</t>
-  </si>
-  <si>
-    <t>To check that unregistered users or not logged in users can't access the Order Receipt page</t>
-  </si>
-  <si>
-    <t>OrderReceip_TConn_28</t>
-  </si>
-  <si>
-    <t>OrderReceip_TConn_29</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TProc_20</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TProc_21</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TProc_22</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TProc_23</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TProc_24</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TProc_25</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TProc_26</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TProc_27</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TProc_28</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TProc_29</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TConn_20</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TConn_21</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TConn_22</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TConn_23</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TConn_24</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TConn_25</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TConn_26</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TConn_27</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TConn_28</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TConn_29</t>
-  </si>
-  <si>
-    <t>The system should prevent unregistered users accessing the Schedule Order page</t>
-  </si>
-  <si>
-    <t>Test Order Receipt page on a Google Nexus 10 mobile device</t>
-  </si>
-  <si>
-    <t>Test Order Receipt page on a Samsung Galaxy S4 mobile device</t>
-  </si>
-  <si>
-    <t>Order Receipt page opens as intended</t>
-  </si>
-  <si>
-    <t>Unregistered users are ristricted and are not allowed to view the Order Receipt page</t>
-  </si>
-  <si>
-    <t>User is able to get to the reset password page and reset password from Order Receipt page</t>
-  </si>
-  <si>
-    <t>From the Order Receipt page, a logged user can navigate to the reset password page</t>
-  </si>
-  <si>
-    <t>A logged user should be able to log off from the Order Receipt page</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TCase_1</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TCase_2</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TCase_3</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TCase_4</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TCase_5</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TCase_6</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TCase_7</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TCase_8</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TCase_9</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TCase_10</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TCase_11</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TCase_12</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TCase_13</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TCase_14</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TCase_15</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TCase_16</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TCase_17</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TCase_18</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TCase_19</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TCase_20</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TCase_21</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TCase_22</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TCase_23</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TCase_24</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TCase_25</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TCase_26</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TCase_27</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TCase_28</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TCase_29</t>
-  </si>
-  <si>
-    <t>OrderPage_21</t>
-  </si>
-  <si>
-    <t>OrderPage_13</t>
-  </si>
-  <si>
-    <t>When clicking on the log out button, the user is first redirected to the Order Page. They are not directly logged out straight away, it is only when this is clicked for a second time is the user logged out</t>
-  </si>
-  <si>
-    <t>Test Order Receipt page on an Amazon Kindle Fire 7 inch mobile device</t>
-  </si>
-  <si>
-    <t>Test the Order Receipt page on an Amazon Kindle Fire 7 inch mobile device</t>
-  </si>
-  <si>
-    <t>Test Order Receipt page on an iPad 4 mobile device</t>
-  </si>
-  <si>
-    <t>Test the Order Receipt page on a Google Nexus 10 mobile device</t>
-  </si>
-  <si>
-    <t>Test Order Receipt page on an iPhone 6 mobile device</t>
-  </si>
-  <si>
-    <t>Test the Order Receipt page on an iPhone 6 mobile device</t>
-  </si>
-  <si>
-    <t>On the Amazon Kindle Fire 7 inch mobile device, the Order receipt should include a list of the order items including individual prices</t>
-  </si>
-  <si>
-    <t>To check the Order Receipt page works on the Amazon Kindle Fire 7 inch mobile device. This will be a general test looking for new defects on this mobile device before testing begins for defects found initially</t>
-  </si>
-  <si>
-    <t>This is the same order reference as the previous test case thererfore it is not unique, it is not critical or high as it will not lead to system crash or failure, it will just cause significant difficulties on collection</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TProc_30</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TProc_31</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TProc_32</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TProc_33</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TProc_34</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TConn_30</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TConn_31</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TConn_32</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TConn_33</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TConn_34</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TCase_30</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TCase_31</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TCase_32</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TCase_33</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TCase_34</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TCase_35</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TCase_36</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TCase_37</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TCase_38</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TCase_39</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TCase_40</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TCase_41</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TCase_42</t>
-  </si>
-  <si>
-    <t>OrderPage_TConn_30</t>
-  </si>
-  <si>
-    <t>OrderPage_TConn_31</t>
-  </si>
-  <si>
-    <t>OrderPage_TConn_32</t>
-  </si>
-  <si>
-    <t>OrderPage_TConn_33</t>
-  </si>
-  <si>
-    <t>OrderPage_TConn_34</t>
-  </si>
-  <si>
-    <t>OrderPage_TConn_35</t>
-  </si>
-  <si>
-    <t>OrderPage_TConn_36</t>
-  </si>
-  <si>
-    <t>OrderPage_TConn_37</t>
-  </si>
-  <si>
-    <t>OrderPage_TConn_38</t>
-  </si>
-  <si>
-    <t>OrderPage_TConn_39</t>
-  </si>
-  <si>
-    <t>OrderPage_TConn_40</t>
-  </si>
-  <si>
-    <t>OrderPage_TConn_41</t>
-  </si>
-  <si>
-    <t>OrderPage_TConn_42</t>
-  </si>
-  <si>
-    <t>OrderPage_TConn_43</t>
-  </si>
-  <si>
-    <t>OrderPage_TConn_44</t>
-  </si>
-  <si>
-    <t>OrderPage_TConn_45</t>
-  </si>
-  <si>
-    <t>OrderPage_TConn_46</t>
-  </si>
-  <si>
-    <t>OrderPage_TConn_47</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TCase_43</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TCase_44</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TCase_45</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TCase_46</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TCase_47</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TCase_48</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TCase_49</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TCase_50</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TCase_51</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TCase_52</t>
-  </si>
-  <si>
-    <t>OrderPage_TConn_48</t>
-  </si>
-  <si>
-    <t>OrderPage_TConn_49</t>
-  </si>
-  <si>
-    <t>OrderPage_TConn_50</t>
-  </si>
-  <si>
-    <t>OrderPage_TConn_51</t>
-  </si>
-  <si>
-    <t>OrderPage_TConn_52</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TProc_35</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TProc_36</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TProc_37</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TProc_38</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TProc_39</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TProc_40</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TProc_41</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TProc_42</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TProc_43</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TProc_44</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TProc_45</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TProc_46</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TProc_47</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TProc_48</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TProc_49</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TProc_50</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TProc_51</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TProc_52</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TConn_35</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TConn_36</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TConn_37</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TConn_38</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TConn_39</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TConn_40</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TConn_41</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TConn_42</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TConn_43</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TConn_44</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TConn_45</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TConn_46</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TConn_47</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TConn_48</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TConn_49</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TConn_50</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TConn_51</t>
-  </si>
-  <si>
-    <t>OrderReceipt_TConn_52</t>
-  </si>
-  <si>
-    <t>On the iPad 4 mobile device, the Order receipt should include a list of the order items including individual prices</t>
-  </si>
-  <si>
-    <t>OrderReceip_TConn_30</t>
-  </si>
-  <si>
-    <t>OrderReceip_TConn_31</t>
-  </si>
-  <si>
-    <t>OrderReceip_TConn_32</t>
-  </si>
-  <si>
-    <t>OrderReceip_TConn_33</t>
-  </si>
-  <si>
-    <t>OrderReceip_TConn_34</t>
-  </si>
-  <si>
-    <t>To check the Order Receipt page works on the iPad 4 mobile device. This will be a general test looking for new defects on this mobile device before testing begins for defects found initially</t>
-  </si>
-  <si>
-    <t>Test the Order Receipt page on an iPad 4 mobile device</t>
-  </si>
-  <si>
-    <t>Test the Order Receipt page on  a Samsung Galaxy S4 mobile device</t>
-  </si>
-  <si>
-    <t>User is able to log off from Order Receipt page</t>
-  </si>
-  <si>
-    <t>OrderReceip_TConn_35</t>
-  </si>
-  <si>
-    <t>OrderReceip_TConn_36</t>
-  </si>
-  <si>
-    <t>OrderReceip_TConn_37</t>
-  </si>
-  <si>
-    <t>OrderReceip_TConn_38</t>
-  </si>
-  <si>
-    <t>OrderReceip_TConn_39</t>
-  </si>
-  <si>
-    <t>OrderReceip_TConn_40</t>
-  </si>
-  <si>
-    <t>OrderReceip_TConn_41</t>
-  </si>
-  <si>
-    <t>OrderReceip_TConn_42</t>
-  </si>
-  <si>
-    <t>OrderReceip_TConn_43</t>
-  </si>
-  <si>
-    <t>OrderReceip_TConn_44</t>
-  </si>
-  <si>
-    <t>OrderReceip_TConn_45</t>
-  </si>
-  <si>
-    <t>OrderReceip_TConn_46</t>
-  </si>
-  <si>
-    <t>OrderReceip_TConn_47</t>
-  </si>
-  <si>
-    <t>OrderReceip_TConn_48</t>
-  </si>
-  <si>
-    <t>OrderReceip_TConn_49</t>
-  </si>
-  <si>
-    <t>OrderReceip_TConn_50</t>
-  </si>
-  <si>
-    <t>OrderReceip_TConn_51</t>
-  </si>
-  <si>
-    <t>OrderReceip_TConn_52</t>
-  </si>
-  <si>
-    <t>To check the Order Receipt page works on the iPhone 6 mobile device. This will be a general test looking for new defects on this mobile device before testing begins for defects found initially</t>
-  </si>
-  <si>
-    <t>On the iPhone 6 mobile device, the Order receipt should include a list of the order items including individual prices</t>
-  </si>
-  <si>
-    <t>To check the Order Receipt page works on the Google Nexus 10 mobile device. This will be a general test looking for new defects on this mobile device before testing begins for defects found initially</t>
-  </si>
-  <si>
-    <t>On the Google nexus 10 mobile device, the Order receipt should include a list of the order items including individual prices</t>
-  </si>
-  <si>
-    <t>To check the Order Receipt page works on the Samsung Galaxy S4 mobile device. This will be a general test looking for new defects on this mobile device before testing begins for defects found initially</t>
-  </si>
-  <si>
-    <t>On the Samsung Galaxy S4 mobile device, the Order receipt should include a list of the order items including individual prices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On the Amazon Kindle Fire 7 inch mobile device, the Order receipt should include a unique order reference </t>
-  </si>
-  <si>
-    <t>On the Amazon Kindle Fire 7 inch mobile device, the Order receipt should include the confirmed date and time for collection having selected the now option</t>
-  </si>
-  <si>
-    <t>On the Amazon Kindle Fire 7 inch mobile device, to ensure that logged users can log off from the Order receipt page</t>
-  </si>
-  <si>
-    <t>On the Amazon Kindle Fire 7 inch mobile device, the Order receipt page should have a copyright and site version in the footer</t>
-  </si>
-  <si>
-    <t>On the iPad 4 mobile device, the Order receipt should include the confirmed date and time for collection having selected the now option</t>
-  </si>
-  <si>
-    <t>On the iPad 4 mobile device, the Order receipt should include a unique order reference different to the test before</t>
-  </si>
-  <si>
-    <t>On the iPad 4 mobile device, the Order receipt page should have a copyright and site version in the footer</t>
-  </si>
-  <si>
-    <t>On the iPad 4 mobile device, to ensure that logged users can log off from the Order receipt page</t>
-  </si>
-  <si>
-    <t>On the iPhone 6 mobile device, the Order receipt should include the confirmed date and time for collection having selected the now option</t>
-  </si>
-  <si>
-    <t>On the iPhone 6 mobile device, the Order receipt should include a unique order reference different to the test before</t>
-  </si>
-  <si>
-    <t>On the iPhone 6 mobile device, the Order receipt page should have a copyright and site version in the footer</t>
-  </si>
-  <si>
-    <t>On the iPhone 6 mobile device, to ensure that logged users can log off from the Order receipt page</t>
-  </si>
-  <si>
-    <t>On the Google nexus 10 mobile device, the Order receipt should include the confirmed date and time for collection having selected the now option</t>
-  </si>
-  <si>
-    <t>On the Google nexus 10 mobile device, the Order receipt should include a unique order reference different to the test before</t>
-  </si>
-  <si>
-    <t>On the Google nexus 10 mobile device, the Order receipt page should have a copyright and site version in the footer</t>
-  </si>
-  <si>
-    <t>On the Google nexus 10 mobile device, to ensure that logged users can log off from the Order receipt page</t>
-  </si>
-  <si>
-    <t>On the Samsung Galaxy S4 mobile device, the Order receipt should include the confirmed date and time for collection having selected the now option</t>
-  </si>
-  <si>
-    <t>On the Samsung Galaxy S4 mobile device, the Order receipt should include a unique order reference different to the test before</t>
-  </si>
-  <si>
-    <t>On the Samsung Galaxy S4 mobile device, the Order receipt page should have a copyright and site version in the footer</t>
-  </si>
-  <si>
-    <t>On the Samsung Galaxy S4 mobile device, to ensure that logged users can log off from the Order receipt page</t>
-  </si>
-  <si>
-    <t>Users that are logged in should be able to log off from the Order Receipt page on an Amazon Kindle Fire 7 inch mobile device</t>
-  </si>
-  <si>
-    <t>When on the Order Receipt page, the company Copyright and site version should be in the footer of the page on an Amazon Kindle Fire 7 inch mobile device</t>
-  </si>
-  <si>
-    <t>To test that the system provides a unique order reference  on the order receipt  on an Amazon Kindle Fire 7 inch mobile device</t>
-  </si>
-  <si>
-    <t>To test that the order receipt includes the date and time that the order has been placed for collection if selecting to collect now on an Amazon Kindle Fire 7 inch mobile device</t>
-  </si>
-  <si>
-    <t>To test that the order receipt contains invididual prices for each item that have been ordered on an Amazon Kindle Fire 7 inch mobile device</t>
-  </si>
-  <si>
-    <t>To test that the order receipt contains invididual prices for each item that have been ordered on an iPad 4 mobile device</t>
-  </si>
-  <si>
-    <t>To test that the order receipt includes the date and time that the order has been placed for collection if selecting to collect now  on an iPad 4 mobile device</t>
-  </si>
-  <si>
-    <t>To test that the system provides a unique order reference  on the order receipt  on an iPad 4 mobile device</t>
-  </si>
-  <si>
-    <t>When on the Order Receipt page, the company Copyright and site version should be in the footer of the page  on an iPad 4 mobile device</t>
-  </si>
-  <si>
-    <t>Users that are logged in should be able to log off from the Order Receipt page  on an iPad 4 mobile device</t>
-  </si>
-  <si>
-    <t>To test that the order receipt contains invididual prices for each item that have been ordered on an iPhone 6 mobile device</t>
-  </si>
-  <si>
-    <t>To test that the order receipt includes the date and time that the order has been placed for collection if selecting to collect now on an iPhone 6 mobile device</t>
-  </si>
-  <si>
-    <t>To test that the system provides a unique order reference  on the order receipt on an iPhone 6 mobile device</t>
-  </si>
-  <si>
-    <t>When on the Order Receipt page, the company Copyright and site version should be in the footer of the page on an iPhone 6 mobile device</t>
-  </si>
-  <si>
-    <t>Users that are logged in should be able to log off from the Order Receipt page on an iPhone 6 mobile device</t>
-  </si>
-  <si>
-    <t>To test that the order receipt contains invididual prices for each item that have been ordered on a Google Nexus 10 mobile device</t>
-  </si>
-  <si>
-    <t>To test that the order receipt includes the date and time that the order has been placed for collection if selecting to collect now on a Google Nexus 10 mobile device</t>
-  </si>
-  <si>
-    <t>To test that the system provides a unique order reference  on the order receipt on a Google Nexus 10 mobile device</t>
-  </si>
-  <si>
-    <t>When on the Order Receipt page, the company Copyright and site version should be in the footer of the page on a Google Nexus 10 mobile device</t>
-  </si>
-  <si>
-    <t>Users that are logged in should be able to log off from the Order Receipt page on a Google Nexus 10 mobile device</t>
-  </si>
-  <si>
-    <t>To test that the order receipt contains invididual prices for each item that have been orderedon  a Samsung Galaxy S4 mobile device</t>
-  </si>
-  <si>
-    <t>To test that the order receipt includes the date and time that the order has been placed for collection if selecting to collect now on  a Samsung Galaxy S4 mobile device</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To test that the system provides a unique order reference  on the order receipt on  a Samsung Galaxy S4 mobile device </t>
-  </si>
-  <si>
-    <t>When on the Order Receipt page, the company Copyright and site version should be in the footer of the page on  a Samsung Galaxy S4 mobile device</t>
-  </si>
-  <si>
-    <t>Users that are logged in should be able to log off from the Order Receipt page on  a Samsung Galaxy S4 mobile device</t>
-  </si>
-  <si>
-    <t>Having added an order to the basket with extras and confirmed the collection time, take user to the order receipt on an Amazon Kindle Fire 7 inch mobile device</t>
-  </si>
-  <si>
-    <t>Having added an order to the basket and confirming valid collection details, the order receipt will have a unique ordering reference using an Amazon Kindle Fire 7 inch mobile device</t>
-  </si>
-  <si>
-    <t>Having added an order to the basket with no extras and confirmed the collection time as now, take user to the order receipt, on an Amazon Kindle Fire 7 inch mobile device</t>
-  </si>
-  <si>
-    <t>Having added a plain cheese pizza to the basket and confirmed collection, the user should see the company copyright and site version in the footer of the page, on an Amazon Kindle Fire 7 inch mobile device</t>
-  </si>
-  <si>
-    <t>A logged user should be able to log off from the Order Receipt page, on an Amazon Kindle Fire 7 inch mobile device</t>
-  </si>
-  <si>
-    <t>Having added an order to the basket with extras and confirmed the collection time, take user to the order receipt on an iPad 4 mobile device</t>
-  </si>
-  <si>
-    <t>Having added an order to the basket with no extras and confirmed the collection time as now, take user to the order receipt, on an iPad 4 mobile device</t>
-  </si>
-  <si>
-    <t>Having added an order to the basket and confirming valid collection details, the order receipt will have a unique ordering reference on an iPad 4 mobile device</t>
-  </si>
-  <si>
-    <t>Having added a plain cheese pizza to the basket and confirmed collection, the user should see the company copyright and site version in the footer of the page, on an iPad 4 mobile device</t>
-  </si>
-  <si>
-    <t>A logged user should be able to log off from the Order Receipt page, on an iPad 4 mobile device</t>
-  </si>
-  <si>
-    <t>Having added an order to the basket with extras and confirmed the collection time, take user to the order receipt, on an iPhone 6 mobile device</t>
-  </si>
-  <si>
-    <t>Having added an order to the basket with no extras and confirmed the collection time as now, take user to the order receipt, on an iPhone 6 mobile device</t>
-  </si>
-  <si>
-    <t>Having added an order to the basket and confirming valid collection details, the order receipt will have a unique ordering reference on an iPhone 6 mobile device</t>
-  </si>
-  <si>
-    <t>Having added a plain cheese pizza to the basket and confirmed collection, the user should see the company copyright and site version in the footer of the page, on an iPhone 6 mobile device</t>
-  </si>
-  <si>
-    <t>A logged user should be able to log off from the Order Receipt page, on an iPhone 6 mobile device</t>
-  </si>
-  <si>
-    <t>Having added an order to the basket with extras and confirmed the collection time, take user to the order receipt, on a Google Nexus 10 mobile device</t>
-  </si>
-  <si>
-    <t>Having added an order to the basket with no extras and confirmed the collection time as now, take user to the order receipt, on a Google Nexus 10 mobile device</t>
-  </si>
-  <si>
-    <t>Having added an order to the basket and confirming valid collection details, the order receipt will have a unique ordering reference on a Google Nexus 10 mobile device</t>
-  </si>
-  <si>
-    <t>Having added a plain cheese pizza to the basket and confirmed collection, the user should see the company copyright and site version in the footer of the page, on a Google Nexus 10 mobile device</t>
-  </si>
-  <si>
-    <t>A logged user should be able to log off from the Order Receipt page, on a Google Nexus 10 mobile device</t>
-  </si>
-  <si>
-    <t>Having added an order to the basket with extras and confirmed the collection time, take user to the order receipt, on a Samsung Galaxy S4 mobile device</t>
-  </si>
-  <si>
-    <t>Having added an order to the basket with no extras and confirmed the collection time as now, take user to the order receipt, on a Samsung Galaxy S4 mobile device</t>
-  </si>
-  <si>
-    <t>Having added an order to the basket and confirming valid collection details, the order receipt will have a unique ordering reference on a Samsung Galaxy S4 mobile device</t>
-  </si>
-  <si>
-    <t>Having added a plain cheese pizza to the basket and confirmed collection, the user should see the company copyright and site version in the footer of the page, on a Samsung Galaxy S4 mobile device</t>
-  </si>
-  <si>
-    <t>A logged user should be able to log off from the Order Receipt page, on a Samsung Galaxy S4 mobile device</t>
-  </si>
-  <si>
-    <t>OrderPage_25</t>
-  </si>
-  <si>
-    <t>OrderPage_28</t>
-  </si>
-  <si>
-    <t>Individual prices are not shown for any item, only the total price for the order is.</t>
-  </si>
-  <si>
-    <t>Meat Extravaganza with peppers and onions as extras and a Cheese pizza</t>
-  </si>
-  <si>
-    <t>This works but it has failed due to the spec clearly saying that the collection time will be 20 minutes after ordering, when it is infact 30 minutes. This has been recorded through the automated Selenium test.</t>
-  </si>
-  <si>
-    <t>OrderPage_32</t>
-  </si>
-  <si>
-    <t>This works but it has failed due to the spec clearly saying that the collection time will be 20 minutes after ordering, when it is infact 30 minutes.</t>
-  </si>
-  <si>
-    <t>OrderPage_27</t>
-  </si>
-  <si>
-    <t>OrderPage_31</t>
-  </si>
-  <si>
-    <t>OrderPage_33</t>
-  </si>
-  <si>
-    <t>OrderPage_34</t>
-  </si>
-  <si>
-    <t>Meat Extravaganza with peppers and olives as extras and a cheese pizza</t>
-  </si>
-  <si>
-    <t>OderPage_37</t>
-  </si>
-  <si>
-    <t>This works but it has failed due to the spec clearly saying that the collection time will be 20 minutes after ordering, when it is infact 30 minutes</t>
-  </si>
-  <si>
-    <t>OrderPage_38</t>
-  </si>
-  <si>
-    <t>OrderPage_39</t>
-  </si>
-  <si>
-    <t>OrderPage_40</t>
-  </si>
-  <si>
-    <t>OrderPage_43</t>
-  </si>
-  <si>
-    <t>OrderPage_45</t>
-  </si>
-  <si>
-    <t>OrderPage_46</t>
-  </si>
-  <si>
-    <t>OrderPage_49</t>
-  </si>
-  <si>
-    <t>OrderPage_50</t>
-  </si>
-  <si>
-    <t>OderPage_51</t>
-  </si>
-  <si>
-    <t>OrderPage_52</t>
+    <t>4.1.6, 3.2.1, 3.2.2</t>
+  </si>
+  <si>
+    <t>4.1.10, 3.2.2</t>
+  </si>
+  <si>
+    <t>4.1.34, 3.2.2</t>
+  </si>
+  <si>
+    <t>4.1.1, 3.2.2</t>
+  </si>
+  <si>
+    <t>4.1.2, 3.2.2</t>
+  </si>
+  <si>
+    <t>4.1.4, 3.2.2</t>
+  </si>
+  <si>
+    <t>4.1.7, 3.2.2</t>
+  </si>
+  <si>
+    <t>4.1.8, 3.2.2</t>
+  </si>
+  <si>
+    <t>This is the same order reference as the previous test case thererfore it is not unique, it is not critical but the spec does suggest that the success of this business rests upon using a unique reference number, rendering it as a high priority defect. This case also fails on  the iPad4, the iPhone 6 and the samsung Galaxy S4 mobile device as well as Firefoxbrowser</t>
   </si>
 </sst>
 </file>
@@ -2105,8 +1184,60 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="741">
+  <cellStyleXfs count="793">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2954,7 +2085,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="741">
+  <cellStyles count="793">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3325,6 +2456,32 @@
     <cellStyle name="Followed Hyperlink" xfId="736" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="738" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="740" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="742" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="744" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="746" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="748" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="750" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="752" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="754" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="756" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="758" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="760" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="762" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="764" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="766" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="768" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="770" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="772" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="774" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="776" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="778" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="780" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="782" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="784" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="786" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="788" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="790" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="792" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3695,6 +2852,32 @@
     <cellStyle name="Hyperlink" xfId="735" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="737" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="739" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="741" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="743" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="745" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="747" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="749" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="751" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="753" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="755" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="757" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="759" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="761" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="763" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="765" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="767" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="769" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="771" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="773" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="775" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="777" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="779" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="781" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="783" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="785" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="787" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="789" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="791" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -3811,10 +2994,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>29.0</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.0</c:v>
@@ -3907,7 +3090,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>6.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.0</c:v>
@@ -3934,11 +3117,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2117287704"/>
-        <c:axId val="2117290648"/>
+        <c:axId val="2107412264"/>
+        <c:axId val="2107415208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2117287704"/>
+        <c:axId val="2107412264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3947,7 +3130,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117290648"/>
+        <c:crossAx val="2107415208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3955,7 +3138,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2117290648"/>
+        <c:axId val="2107415208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3966,7 +3149,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117287704"/>
+        <c:crossAx val="2107412264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4379,8 +3562,8 @@
   </sheetPr>
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4406,13 +3589,13 @@
     </row>
     <row r="2" spans="1:9" ht="35.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
+        <v>236</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
@@ -4423,13 +3606,13 @@
     </row>
     <row r="3" spans="1:9" ht="35.5" customHeight="1">
       <c r="A3" s="32" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>59</v>
+        <v>236</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>27</v>
@@ -4438,16 +3621,16 @@
     </row>
     <row r="4" spans="1:9" ht="28">
       <c r="A4" s="32" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>61</v>
+        <v>200</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>59</v>
+        <v>236</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>42</v>
@@ -4455,16 +3638,16 @@
     </row>
     <row r="5" spans="1:9" ht="23">
       <c r="A5" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>104</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>59</v>
+        <v>236</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>43</v>
@@ -4472,13 +3655,13 @@
     </row>
     <row r="6" spans="1:9" ht="28">
       <c r="A6" s="32" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>92</v>
+        <v>201</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>59</v>
+        <v>236</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>6</v>
@@ -4489,661 +3672,345 @@
     </row>
     <row r="7" spans="1:9" ht="28">
       <c r="A7" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>94</v>
+        <v>106</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>122</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>59</v>
+        <v>237</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="42">
+    <row r="8" spans="1:9" ht="28">
       <c r="A8" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>156</v>
+        <v>107</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>123</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>59</v>
+        <v>238</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="42">
+    <row r="9" spans="1:9">
       <c r="A9" s="32" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>59</v>
+        <v>239</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="28">
       <c r="A10" s="32" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="32" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>106</v>
+        <v>202</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>59</v>
+        <v>241</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="28">
       <c r="A12" s="32" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>59</v>
+        <v>235</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>6</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="28">
       <c r="A13" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>161</v>
+        <v>121</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>166</v>
+        <v>234</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="28">
-      <c r="A14" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="28">
-      <c r="A16" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="28">
-      <c r="A17" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="28">
-      <c r="A18" s="32" t="s">
-        <v>224</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="28">
-      <c r="A19" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="28">
-      <c r="A20" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="28">
-      <c r="A21" s="32" t="s">
-        <v>243</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="32"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="32" t="s">
-        <v>244</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>252</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="28">
-      <c r="A23" s="32" t="s">
-        <v>245</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="56">
-      <c r="A24" s="32" t="s">
-        <v>246</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="42">
-      <c r="A25" s="32" t="s">
-        <v>247</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="42">
-      <c r="A26" s="32" t="s">
-        <v>248</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="28">
-      <c r="A27" s="32" t="s">
-        <v>249</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>456</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="42">
-      <c r="A28" s="32" t="s">
-        <v>253</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>459</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A22" s="32"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="32"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="32"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="32"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="32"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="32" t="s">
-        <v>259</v>
-      </c>
-      <c r="B29" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="56">
-      <c r="A30" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="28">
-      <c r="A31" s="32" t="s">
-        <v>423</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="42">
-      <c r="A32" s="32" t="s">
-        <v>424</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="28">
-      <c r="A33" s="32" t="s">
-        <v>425</v>
-      </c>
-      <c r="B33" s="32" t="s">
-        <v>461</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="28">
-      <c r="A34" s="32" t="s">
-        <v>426</v>
-      </c>
-      <c r="B34" s="32" t="s">
-        <v>462</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A29" s="32"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="32"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="32"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="32"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
+      <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="32" t="s">
-        <v>427</v>
-      </c>
-      <c r="B35" s="37" t="s">
-        <v>463</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="56">
-      <c r="A36" s="32" t="s">
-        <v>432</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="28">
-      <c r="A37" s="32" t="s">
-        <v>433</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="42">
-      <c r="A38" s="32" t="s">
-        <v>434</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="28">
-      <c r="A39" s="32" t="s">
-        <v>435</v>
-      </c>
-      <c r="B39" s="32" t="s">
-        <v>465</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="28">
-      <c r="A40" s="32" t="s">
-        <v>436</v>
-      </c>
-      <c r="B40" s="32" t="s">
-        <v>466</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A35" s="32"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="32"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="32"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="32"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="32"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="32" t="s">
-        <v>437</v>
-      </c>
-      <c r="B41" s="37" t="s">
-        <v>467</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="56">
-      <c r="A42" s="32" t="s">
-        <v>438</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="42">
-      <c r="A43" s="32" t="s">
-        <v>439</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="42">
-      <c r="A44" s="32" t="s">
-        <v>440</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="42">
-      <c r="A45" s="32" t="s">
-        <v>441</v>
-      </c>
-      <c r="B45" s="32" t="s">
-        <v>469</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="28">
-      <c r="A46" s="32" t="s">
-        <v>442</v>
-      </c>
-      <c r="B46" s="32" t="s">
-        <v>470</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A41" s="32"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="32"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="32"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="32"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="32"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="32"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="32" t="s">
-        <v>443</v>
-      </c>
-      <c r="B47" s="37" t="s">
-        <v>471</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="56">
-      <c r="A48" s="32" t="s">
-        <v>444</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="42">
-      <c r="A49" s="32" t="s">
-        <v>445</v>
-      </c>
-      <c r="B49" s="32" t="s">
-        <v>455</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="42">
-      <c r="A50" s="32" t="s">
-        <v>446</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="42">
-      <c r="A51" s="32" t="s">
-        <v>447</v>
-      </c>
-      <c r="B51" s="32" t="s">
-        <v>473</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="28">
-      <c r="A52" s="32" t="s">
-        <v>448</v>
-      </c>
-      <c r="B52" s="32" t="s">
-        <v>474</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A47" s="32"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="32"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="32"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="32"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="32"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="32"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="32" t="s">
-        <v>449</v>
-      </c>
-      <c r="B53" s="37" t="s">
-        <v>475</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>165</v>
-      </c>
+      <c r="A53" s="32"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5156,7 +4023,7 @@
           <x14:formula1>
             <xm:f>Settings!$B$4:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D12</xm:sqref>
+          <xm:sqref>D2:D7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5174,8 +4041,8 @@
   </sheetPr>
   <dimension ref="A1:Z161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D44" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="O54" sqref="O54"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5247,19 +4114,19 @@
     </row>
     <row r="2" spans="1:26" ht="39">
       <c r="A2" s="1" t="s">
-        <v>289</v>
+        <v>176</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>6</v>
@@ -5271,7 +4138,7 @@
         <v>24</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="4"/>
@@ -5286,19 +4153,19 @@
     </row>
     <row r="3" spans="1:26" ht="52">
       <c r="A3" s="1" t="s">
-        <v>290</v>
+        <v>177</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>27</v>
@@ -5310,7 +4177,7 @@
         <v>24</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="4"/>
@@ -5325,19 +4192,19 @@
     </row>
     <row r="4" spans="1:26" ht="39">
       <c r="A4" s="1" t="s">
-        <v>291</v>
+        <v>178</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>529</v>
+        <v>199</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>27</v>
@@ -5346,29 +4213,17 @@
         <v>42074</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" s="33">
-        <v>42074</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>528</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
       <c r="P4" s="10"/>
       <c r="Z4" s="5" t="s">
         <v>50</v>
@@ -5376,19 +4231,19 @@
     </row>
     <row r="5" spans="1:26" ht="39">
       <c r="A5" s="1" t="s">
-        <v>292</v>
+        <v>179</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>85</v>
+        <v>203</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>27</v>
@@ -5400,7 +4255,7 @@
         <v>24</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="4"/>
@@ -5412,19 +4267,19 @@
     </row>
     <row r="6" spans="1:26" ht="52">
       <c r="A6" s="1" t="s">
-        <v>293</v>
+        <v>180</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>6</v>
@@ -5436,10 +4291,10 @@
         <v>25</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>33</v>
@@ -5451,28 +4306,28 @@
         <v>42074</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>530</v>
+        <v>206</v>
       </c>
       <c r="P6" s="10"/>
     </row>
     <row r="7" spans="1:26" ht="52">
       <c r="A7" s="1" t="s">
-        <v>294</v>
+        <v>181</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>6</v>
@@ -5484,7 +4339,7 @@
         <v>24</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="4"/>
@@ -5499,19 +4354,19 @@
     </row>
     <row r="8" spans="1:26" ht="39">
       <c r="A8" s="1" t="s">
-        <v>295</v>
+        <v>182</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>107</v>
+        <v>204</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>6</v>
@@ -5523,7 +4378,7 @@
         <v>24</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="4"/>
@@ -5537,24 +4392,24 @@
       </c>
       <c r="U8" s="31">
         <f>COUNTIF(H2:H90,"*Passed*")</f>
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="39">
       <c r="A9" s="1" t="s">
-        <v>296</v>
+        <v>183</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>107</v>
+        <v>205</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>6</v>
@@ -5566,7 +4421,7 @@
         <v>24</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="4"/>
@@ -5580,24 +4435,24 @@
       </c>
       <c r="U9" s="31">
         <f>COUNTIF(H3:H90,"*Failed*")</f>
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="39">
       <c r="A10" s="1" t="s">
-        <v>297</v>
+        <v>184</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>6</v>
@@ -5609,7 +4464,7 @@
         <v>24</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="4"/>
@@ -5628,19 +4483,19 @@
     </row>
     <row r="11" spans="1:26" ht="76" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>298</v>
+        <v>185</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>6</v>
@@ -5652,43 +4507,43 @@
         <v>25</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>33</v>
       </c>
       <c r="L11" s="35" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="M11" s="34">
         <v>42074</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>329</v>
+        <v>242</v>
       </c>
       <c r="P11" s="10"/>
     </row>
     <row r="12" spans="1:26" ht="52">
       <c r="A12" s="1" t="s">
-        <v>299</v>
+        <v>186</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>6</v>
@@ -5700,7 +4555,7 @@
         <v>24</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
@@ -5712,19 +4567,19 @@
     </row>
     <row r="13" spans="1:26" ht="39">
       <c r="A13" s="1" t="s">
-        <v>300</v>
+        <v>187</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>174</v>
+        <v>127</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>11</v>
@@ -5736,7 +4591,7 @@
         <v>24</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
@@ -5748,19 +4603,19 @@
     </row>
     <row r="14" spans="1:26" ht="42">
       <c r="A14" s="1" t="s">
-        <v>301</v>
+        <v>188</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>171</v>
+        <v>116</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>11</v>
@@ -5772,43 +4627,43 @@
         <v>25</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>319</v>
+        <v>231</v>
       </c>
       <c r="K14" s="35" t="s">
         <v>33</v>
       </c>
       <c r="L14" s="35" t="s">
-        <v>197</v>
+        <v>146</v>
       </c>
       <c r="M14" s="34">
         <v>42099</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="P14" s="10"/>
     </row>
     <row r="15" spans="1:26" ht="39">
       <c r="A15" s="1" t="s">
-        <v>302</v>
+        <v>189</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>172</v>
+        <v>117</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>11</v>
@@ -5820,7 +4675,7 @@
         <v>24</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
@@ -5832,19 +4687,19 @@
     </row>
     <row r="16" spans="1:26" ht="39">
       <c r="A16" s="1" t="s">
-        <v>303</v>
+        <v>190</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>179</v>
+        <v>132</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>11</v>
@@ -5856,7 +4711,7 @@
         <v>24</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
@@ -5866,21 +4721,21 @@
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
     </row>
-    <row r="17" spans="1:21" ht="26">
+    <row r="17" spans="1:21" ht="28">
       <c r="A17" s="1" t="s">
-        <v>304</v>
+        <v>191</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>215</v>
+        <v>151</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>11</v>
@@ -5892,7 +4747,7 @@
         <v>24</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
@@ -5902,21 +4757,21 @@
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
     </row>
-    <row r="18" spans="1:21" ht="26">
+    <row r="18" spans="1:21" ht="28">
       <c r="A18" s="1" t="s">
-        <v>305</v>
+        <v>192</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>219</v>
+        <v>159</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>216</v>
+        <v>118</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>11</v>
@@ -5928,7 +4783,7 @@
         <v>24</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
@@ -5938,21 +4793,21 @@
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
     </row>
-    <row r="19" spans="1:21" ht="26">
+    <row r="19" spans="1:21" ht="28">
       <c r="A19" s="1" t="s">
-        <v>306</v>
+        <v>193</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>221</v>
+        <v>161</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>217</v>
+        <v>118</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>11</v>
@@ -5964,7 +4819,7 @@
         <v>24</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
@@ -5974,21 +4829,21 @@
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
     </row>
-    <row r="20" spans="1:21" ht="26">
+    <row r="20" spans="1:21" ht="28">
       <c r="A20" s="1" t="s">
-        <v>307</v>
+        <v>194</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>222</v>
+        <v>162</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>218</v>
+        <v>118</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>11</v>
@@ -6000,7 +4855,7 @@
         <v>24</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
@@ -6012,19 +4867,19 @@
     </row>
     <row r="21" spans="1:21" ht="39">
       <c r="A21" s="1" t="s">
-        <v>308</v>
+        <v>195</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>232</v>
+        <v>163</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>234</v>
+        <v>119</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>11</v>
@@ -6036,7 +4891,7 @@
         <v>24</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
@@ -6046,21 +4901,21 @@
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
     </row>
-    <row r="22" spans="1:21" ht="26">
+    <row r="22" spans="1:21" ht="28">
       <c r="A22" s="1" t="s">
-        <v>309</v>
+        <v>196</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>233</v>
+        <v>164</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>235</v>
+        <v>120</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>27</v>
@@ -6072,10 +4927,10 @@
         <v>25</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>318</v>
+        <v>232</v>
       </c>
       <c r="K22" s="35" t="s">
         <v>33</v>
@@ -6087,28 +4942,28 @@
         <v>42099</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>320</v>
+        <v>207</v>
       </c>
       <c r="P22" s="10"/>
     </row>
     <row r="23" spans="1:21" ht="39">
       <c r="A23" s="1" t="s">
-        <v>310</v>
+        <v>197</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>242</v>
+        <v>165</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>236</v>
+        <v>137</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>6</v>
@@ -6120,7 +4975,7 @@
         <v>24</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
@@ -6130,34 +4985,16 @@
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
     </row>
-    <row r="24" spans="1:21" ht="39">
-      <c r="A24" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="36">
-        <v>42099</v>
-      </c>
-      <c r="H24" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>65</v>
-      </c>
+    <row r="24" spans="1:21">
+      <c r="A24" s="1"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="10"/>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -6166,34 +5003,16 @@
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
     </row>
-    <row r="25" spans="1:21" ht="52">
-      <c r="A25" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="E25" s="32" t="s">
-        <v>238</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="36">
-        <v>42099</v>
-      </c>
-      <c r="H25" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>65</v>
-      </c>
+    <row r="25" spans="1:21">
+      <c r="A25" s="1"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="10"/>
       <c r="J25" s="35"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -6205,89 +5024,41 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="65">
-      <c r="A26" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E26" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G26" s="36">
-        <v>42099</v>
-      </c>
-      <c r="H26" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>526</v>
-      </c>
-      <c r="K26" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L26" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M26" s="34">
-        <v>42106</v>
-      </c>
-      <c r="N26" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="O26" s="10" t="s">
-        <v>532</v>
-      </c>
+    <row r="26" spans="1:21">
+      <c r="A26" s="1"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
       <c r="P26" s="10"/>
       <c r="T26" t="s">
         <v>34</v>
       </c>
       <c r="U26" s="31">
         <f>COUNTIF(L2:L50,"*Minor*")</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="52">
-      <c r="A27" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E27" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G27" s="36">
-        <v>42099</v>
-      </c>
-      <c r="H27" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>65</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="1"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="10"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -6302,52 +5073,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="65">
-      <c r="A28" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E28" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="36">
-        <v>42099</v>
-      </c>
-      <c r="H28" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="J28" s="35" t="s">
-        <v>533</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L28" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M28" s="34">
-        <v>42106</v>
-      </c>
-      <c r="N28" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>198</v>
-      </c>
+    <row r="28" spans="1:21">
+      <c r="A28" s="1"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="1"/>
       <c r="P28" s="10"/>
       <c r="T28" t="s">
         <v>35</v>
@@ -6357,52 +5098,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="52">
-      <c r="A29" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E29" s="32" t="s">
-        <v>256</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G29" s="36">
-        <v>42099</v>
-      </c>
-      <c r="H29" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>527</v>
-      </c>
-      <c r="K29" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L29" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M29" s="34">
-        <v>42106</v>
-      </c>
-      <c r="N29" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="O29" s="10" t="s">
-        <v>320</v>
-      </c>
+    <row r="29" spans="1:21">
+      <c r="A29" s="1"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
       <c r="P29" s="10"/>
       <c r="T29" t="s">
         <v>36</v>
@@ -6412,34 +5123,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="26">
-      <c r="A30" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" s="32" t="s">
-        <v>257</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G30" s="36">
-        <v>42099</v>
-      </c>
-      <c r="H30" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>65</v>
-      </c>
+    <row r="30" spans="1:21">
+      <c r="A30" s="1"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="10"/>
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
@@ -6455,34 +5148,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="52">
-      <c r="A31" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B31" s="38" t="s">
-        <v>481</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="E31" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G31" s="36">
-        <v>42099</v>
-      </c>
-      <c r="H31" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="I31" s="10" t="s">
-        <v>65</v>
-      </c>
+    <row r="31" spans="1:21">
+      <c r="A31" s="1"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="10"/>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
@@ -6491,226 +5166,88 @@
       <c r="O31" s="10"/>
       <c r="P31" s="10"/>
     </row>
-    <row r="32" spans="1:21" ht="52">
-      <c r="A32" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E32" s="32" t="s">
-        <v>354</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G32" s="36">
-        <v>42099</v>
-      </c>
-      <c r="H32" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I32" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>534</v>
-      </c>
-      <c r="K32" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L32" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M32" s="34">
-        <v>42106</v>
-      </c>
-      <c r="N32" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="O32" s="10" t="s">
-        <v>532</v>
-      </c>
+    <row r="32" spans="1:21">
+      <c r="A32" s="1"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
       <c r="P32" s="10"/>
     </row>
-    <row r="33" spans="1:16" ht="39">
-      <c r="A33" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E33" s="32" t="s">
-        <v>355</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33" s="36">
-        <v>42099</v>
-      </c>
-      <c r="H33" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I33" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="J33" s="10" t="s">
-        <v>531</v>
-      </c>
-      <c r="K33" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L33" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M33" s="34">
-        <v>42106</v>
-      </c>
-      <c r="N33" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="O33" s="10" t="s">
-        <v>329</v>
-      </c>
+    <row r="33" spans="1:16">
+      <c r="A33" s="1"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
       <c r="P33" s="10"/>
     </row>
-    <row r="34" spans="1:16" ht="52">
-      <c r="A34" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E34" s="32" t="s">
-        <v>356</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="36">
-        <v>42099</v>
-      </c>
-      <c r="H34" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I34" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="J34" s="10" t="s">
-        <v>535</v>
-      </c>
-      <c r="K34" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L34" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M34" s="34">
-        <v>42106</v>
-      </c>
-      <c r="N34" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>198</v>
-      </c>
+    <row r="34" spans="1:16">
+      <c r="A34" s="1"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="1"/>
       <c r="P34" s="10"/>
     </row>
-    <row r="35" spans="1:16" ht="39">
-      <c r="A35" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E35" s="32" t="s">
-        <v>357</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G35" s="36">
-        <v>42099</v>
-      </c>
-      <c r="H35" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="J35" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="K35" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L35" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M35" s="34">
-        <v>42106</v>
-      </c>
-      <c r="N35" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="O35" s="10" t="s">
-        <v>320</v>
-      </c>
+    <row r="35" spans="1:16">
+      <c r="A35" s="1"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
       <c r="P35" s="10"/>
     </row>
-    <row r="36" spans="1:16" ht="26">
-      <c r="A36" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E36" s="32" t="s">
-        <v>358</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G36" s="36">
-        <v>42099</v>
-      </c>
-      <c r="H36" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="I36" s="10" t="s">
-        <v>65</v>
-      </c>
+    <row r="36" spans="1:16">
+      <c r="A36" s="1"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="10"/>
       <c r="J36" s="10"/>
       <c r="K36" s="10"/>
       <c r="L36" s="10"/>
@@ -6719,34 +5256,16 @@
       <c r="O36" s="10"/>
       <c r="P36" s="10"/>
     </row>
-    <row r="37" spans="1:16" ht="52">
-      <c r="A37" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="B37" s="38" t="s">
-        <v>486</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>359</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G37" s="39">
-        <v>42099</v>
-      </c>
-      <c r="H37" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="I37" s="10" t="s">
-        <v>65</v>
-      </c>
+    <row r="37" spans="1:16">
+      <c r="A37" s="1"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="10"/>
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
       <c r="L37" s="10"/>
@@ -6755,226 +5274,88 @@
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
     </row>
-    <row r="38" spans="1:16" ht="65">
-      <c r="A38" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E38" s="32" t="s">
-        <v>360</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G38" s="39">
-        <v>42099</v>
-      </c>
-      <c r="H38" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I38" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>538</v>
-      </c>
-      <c r="K38" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L38" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M38" s="34">
-        <v>42106</v>
-      </c>
-      <c r="N38" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="O38" s="10" t="s">
-        <v>539</v>
-      </c>
+    <row r="38" spans="1:16">
+      <c r="A38" s="1"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
       <c r="P38" s="10"/>
     </row>
-    <row r="39" spans="1:16" ht="39">
-      <c r="A39" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E39" s="32" t="s">
-        <v>361</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G39" s="39">
-        <v>42099</v>
-      </c>
-      <c r="H39" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I39" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="J39" s="10" t="s">
-        <v>540</v>
-      </c>
-      <c r="K39" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L39" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M39" s="34">
-        <v>42106</v>
-      </c>
-      <c r="N39" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="O39" s="10" t="s">
-        <v>329</v>
-      </c>
+    <row r="39" spans="1:16">
+      <c r="A39" s="1"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
       <c r="P39" s="10"/>
     </row>
-    <row r="40" spans="1:16" ht="52">
-      <c r="A40" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E40" s="32" t="s">
-        <v>362</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G40" s="39">
-        <v>42099</v>
-      </c>
-      <c r="H40" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I40" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="J40" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="K40" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L40" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M40" s="34">
-        <v>42106</v>
-      </c>
-      <c r="N40" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>198</v>
-      </c>
+    <row r="40" spans="1:16">
+      <c r="A40" s="1"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="1"/>
       <c r="P40" s="10"/>
     </row>
-    <row r="41" spans="1:16" ht="39">
-      <c r="A41" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E41" s="32" t="s">
-        <v>363</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G41" s="39">
-        <v>42099</v>
-      </c>
-      <c r="H41" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I41" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="J41" s="10" t="s">
-        <v>542</v>
-      </c>
-      <c r="K41" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L41" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M41" s="34">
-        <v>42106</v>
-      </c>
-      <c r="N41" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="O41" s="10" t="s">
-        <v>320</v>
-      </c>
+    <row r="41" spans="1:16">
+      <c r="A41" s="1"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
       <c r="P41" s="10"/>
     </row>
-    <row r="42" spans="1:16" ht="26">
-      <c r="A42" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E42" s="32" t="s">
-        <v>364</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G42" s="39">
-        <v>42099</v>
-      </c>
-      <c r="H42" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="I42" s="10" t="s">
-        <v>65</v>
-      </c>
+    <row r="42" spans="1:16">
+      <c r="A42" s="1"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="10"/>
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
       <c r="L42" s="10"/>
@@ -6983,34 +5364,16 @@
       <c r="O42" s="10"/>
       <c r="P42" s="10"/>
     </row>
-    <row r="43" spans="1:16" ht="52">
-      <c r="A43" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B43" s="38" t="s">
-        <v>491</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="E43" s="32" t="s">
-        <v>365</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G43" s="39">
-        <v>42099</v>
-      </c>
-      <c r="H43" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="I43" s="10" t="s">
-        <v>65</v>
-      </c>
+    <row r="43" spans="1:16">
+      <c r="A43" s="1"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="10"/>
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
       <c r="L43" s="10"/>
@@ -7019,82 +5382,34 @@
       <c r="O43" s="10"/>
       <c r="P43" s="10"/>
     </row>
-    <row r="44" spans="1:16" ht="65">
-      <c r="A44" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E44" s="32" t="s">
-        <v>366</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G44" s="39">
-        <v>42099</v>
-      </c>
-      <c r="H44" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I44" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="J44" s="10" t="s">
-        <v>543</v>
-      </c>
-      <c r="K44" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L44" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M44" s="34">
-        <v>42106</v>
-      </c>
-      <c r="N44" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="O44" s="10" t="s">
-        <v>539</v>
-      </c>
+    <row r="44" spans="1:16">
+      <c r="A44" s="1"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="34"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
       <c r="P44" s="10"/>
     </row>
-    <row r="45" spans="1:16" ht="52">
-      <c r="A45" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E45" s="32" t="s">
-        <v>367</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G45" s="39">
-        <v>42099</v>
-      </c>
-      <c r="H45" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="I45" s="10" t="s">
-        <v>65</v>
-      </c>
+    <row r="45" spans="1:16">
+      <c r="A45" s="1"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="10"/>
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
       <c r="L45" s="10"/>
@@ -7103,130 +5418,52 @@
       <c r="O45" s="10"/>
       <c r="P45" s="10"/>
     </row>
-    <row r="46" spans="1:16" ht="52">
-      <c r="A46" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E46" s="32" t="s">
-        <v>368</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G46" s="39">
-        <v>42099</v>
-      </c>
-      <c r="H46" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I46" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="J46" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="K46" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L46" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M46" s="34">
-        <v>42106</v>
-      </c>
-      <c r="N46" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>198</v>
-      </c>
+    <row r="46" spans="1:16">
+      <c r="A46" s="1"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="34"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="1"/>
       <c r="P46" s="10"/>
     </row>
-    <row r="47" spans="1:16" ht="39">
-      <c r="A47" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E47" s="32" t="s">
-        <v>369</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G47" s="39">
-        <v>42099</v>
-      </c>
-      <c r="H47" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I47" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="J47" s="10" t="s">
-        <v>545</v>
-      </c>
-      <c r="K47" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L47" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M47" s="34">
-        <v>42106</v>
-      </c>
-      <c r="N47" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="O47" s="10" t="s">
-        <v>320</v>
-      </c>
+    <row r="47" spans="1:16">
+      <c r="A47" s="1"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="34"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
       <c r="P47" s="10"/>
     </row>
-    <row r="48" spans="1:16" ht="26">
-      <c r="A48" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B48" s="38" t="s">
-        <v>430</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E48" s="32" t="s">
-        <v>370</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G48" s="39">
-        <v>42099</v>
-      </c>
-      <c r="H48" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="I48" s="10" t="s">
-        <v>65</v>
-      </c>
+    <row r="48" spans="1:16">
+      <c r="A48" s="1"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="10"/>
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
       <c r="L48" s="10"/>
@@ -7235,34 +5472,16 @@
       <c r="O48" s="10"/>
       <c r="P48" s="10"/>
     </row>
-    <row r="49" spans="1:16" ht="52">
-      <c r="A49" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="B49" s="38" t="s">
-        <v>496</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E49" s="32" t="s">
-        <v>381</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G49" s="39">
-        <v>42099</v>
-      </c>
-      <c r="H49" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="I49" s="10" t="s">
-        <v>65</v>
-      </c>
+    <row r="49" spans="1:16">
+      <c r="A49" s="1"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="10"/>
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
       <c r="L49" s="10"/>
@@ -7271,196 +5490,76 @@
       <c r="O49" s="10"/>
       <c r="P49" s="10"/>
     </row>
-    <row r="50" spans="1:16" ht="65">
-      <c r="A50" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E50" s="32" t="s">
-        <v>382</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G50" s="39">
-        <v>42099</v>
-      </c>
-      <c r="H50" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I50" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="J50" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="K50" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L50" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M50" s="34">
-        <v>42106</v>
-      </c>
-      <c r="N50" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="O50" s="10" t="s">
-        <v>539</v>
-      </c>
+    <row r="50" spans="1:16">
+      <c r="A50" s="1"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="34"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
       <c r="P50" s="10"/>
     </row>
-    <row r="51" spans="1:16" ht="52">
-      <c r="A51" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E51" s="32" t="s">
-        <v>383</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G51" s="39">
-        <v>42099</v>
-      </c>
-      <c r="H51" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I51" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="J51" s="10" t="s">
-        <v>547</v>
-      </c>
-      <c r="K51" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L51" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M51" s="34">
-        <v>42106</v>
-      </c>
-      <c r="N51" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="O51" s="10" t="s">
-        <v>329</v>
-      </c>
+    <row r="51" spans="1:16">
+      <c r="A51" s="1"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="34"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
       <c r="P51" s="10"/>
     </row>
-    <row r="52" spans="1:16" ht="52">
-      <c r="A52" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E52" s="32" t="s">
-        <v>384</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G52" s="39">
-        <v>42099</v>
-      </c>
-      <c r="H52" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I52" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="J52" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="K52" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L52" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M52" s="34">
-        <v>42106</v>
-      </c>
-      <c r="N52" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="O52" s="1" t="s">
-        <v>198</v>
-      </c>
+    <row r="52" spans="1:16">
+      <c r="A52" s="1"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="34"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="1"/>
       <c r="P52" s="10"/>
     </row>
-    <row r="53" spans="1:16" ht="52">
-      <c r="A53" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E53" s="32" t="s">
-        <v>385</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G53" s="39">
-        <v>42099</v>
-      </c>
-      <c r="H53" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I53" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="J53" s="10" t="s">
-        <v>549</v>
-      </c>
-      <c r="K53" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L53" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="M53" s="34">
-        <v>42106</v>
-      </c>
-      <c r="N53" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="O53" s="10" t="s">
-        <v>320</v>
-      </c>
+    <row r="53" spans="1:16">
+      <c r="A53" s="1"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="34"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
       <c r="P53" s="10"/>
     </row>
     <row r="54" spans="1:16">
@@ -9028,8 +7127,8 @@
   </sheetPr>
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -9069,21 +7168,21 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="42">
+    <row r="2" spans="1:13" ht="98">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>69</v>
+        <v>208</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F2" s="1"/>
       <c r="H2" s="27" t="s">
@@ -9095,21 +7194,21 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="56">
+    <row r="3" spans="1:13" ht="112">
       <c r="A3" s="1" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>78</v>
+        <v>209</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="1"/>
@@ -9120,21 +7219,21 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="56">
+    <row r="4" spans="1:13" ht="98">
       <c r="A4" s="1" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>86</v>
+        <v>210</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -9145,21 +7244,21 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="42">
+    <row r="5" spans="1:13" ht="98">
       <c r="A5" s="1" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>86</v>
+        <v>210</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -9170,21 +7269,21 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="42">
+    <row r="6" spans="1:13" ht="98">
       <c r="A6" s="1" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>98</v>
+        <v>211</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -9195,21 +7294,21 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="56">
+    <row r="7" spans="1:13" ht="112">
       <c r="A7" s="1" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>97</v>
+        <v>212</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -9220,21 +7319,21 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="56">
+    <row r="8" spans="1:13" ht="112">
       <c r="A8" s="1" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>103</v>
+        <v>213</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -9245,21 +7344,21 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="56">
+    <row r="9" spans="1:13" ht="112">
       <c r="A9" s="1" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>105</v>
+        <v>214</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -9270,21 +7369,21 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="56">
+    <row r="10" spans="1:13" ht="112">
       <c r="A10" s="1" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>117</v>
+        <v>215</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -9295,21 +7394,21 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="56">
+    <row r="11" spans="1:13" ht="112">
       <c r="A11" s="1" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>121</v>
+        <v>216</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -9322,19 +7421,19 @@
     </row>
     <row r="12" spans="1:13" ht="71" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>134</v>
+        <v>217</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -9345,21 +7444,21 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="56">
+    <row r="13" spans="1:13" ht="98">
       <c r="A13" s="1" t="s">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>184</v>
+        <v>137</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>189</v>
+        <v>141</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -9370,21 +7469,21 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" ht="56">
+    <row r="14" spans="1:13" ht="112">
       <c r="A14" s="1" t="s">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>185</v>
+        <v>138</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -9395,21 +7494,21 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" ht="42">
+    <row r="15" spans="1:13" ht="98">
       <c r="A15" s="1" t="s">
-        <v>182</v>
+        <v>135</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>186</v>
+        <v>139</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -9420,21 +7519,21 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" ht="42">
+    <row r="16" spans="1:13" ht="98">
       <c r="A16" s="1" t="s">
-        <v>183</v>
+        <v>136</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>195</v>
+        <v>145</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -9445,21 +7544,21 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" ht="28">
+    <row r="17" spans="1:13" ht="84">
       <c r="A17" s="1" t="s">
-        <v>199</v>
+        <v>147</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>203</v>
+        <v>151</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>211</v>
+        <v>155</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -9470,21 +7569,21 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" ht="28">
+    <row r="18" spans="1:13" ht="84">
       <c r="A18" s="1" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>204</v>
+        <v>152</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>212</v>
+        <v>156</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -9495,21 +7594,21 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" ht="28">
+    <row r="19" spans="1:13" ht="84">
       <c r="A19" s="1" t="s">
-        <v>201</v>
+        <v>149</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>205</v>
+        <v>153</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>213</v>
+        <v>157</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -9520,583 +7619,283 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" ht="28">
+    <row r="20" spans="1:13" ht="84">
       <c r="A20" s="1" t="s">
-        <v>202</v>
+        <v>150</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>214</v>
+        <v>158</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="56">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="78">
       <c r="A21" s="1" t="s">
-        <v>261</v>
+        <v>168</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>271</v>
+        <v>171</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>287</v>
+        <v>226</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>286</v>
+        <v>175</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="28">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="91">
       <c r="A22" s="1" t="s">
-        <v>262</v>
+        <v>169</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>272</v>
+        <v>172</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>288</v>
+        <v>227</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>431</v>
+        <v>198</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="56">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="91">
       <c r="A23" s="1" t="s">
-        <v>263</v>
+        <v>170</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>273</v>
+        <v>173</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>281</v>
+        <v>228</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>285</v>
+        <v>174</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="28">
-      <c r="A24" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E24" s="32" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="56">
-      <c r="A25" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" s="32" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="56">
-      <c r="A26" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E26" s="32" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="70">
-      <c r="A27" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E27" s="32" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="70">
-      <c r="A28" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E28" s="32" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="39">
-      <c r="A29" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="E29" s="32" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="28">
-      <c r="A30" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E30" s="32" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="56">
-      <c r="A31" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E31" s="32" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="56">
-      <c r="A32" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E32" s="32" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="56">
-      <c r="A33" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E33" s="32" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="70">
-      <c r="A34" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E34" s="32" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="39">
-      <c r="A35" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="E35" s="32" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="28">
-      <c r="A36" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E36" s="32" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="56">
-      <c r="A37" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="56">
-      <c r="A38" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E38" s="32" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="56">
-      <c r="A39" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E39" s="32" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="70">
-      <c r="A40" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E40" s="32" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="39">
-      <c r="A41" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="E41" s="32" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="28">
-      <c r="A42" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C42" s="38" t="s">
-        <v>282</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E42" s="32" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="56">
-      <c r="A43" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E43" s="32" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="56">
-      <c r="A44" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E44" s="32" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="56">
-      <c r="A45" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E45" s="32" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="70">
-      <c r="A46" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E46" s="32" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="39">
-      <c r="A47" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="E47" s="32" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="28">
-      <c r="A48" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C48" s="38" t="s">
-        <v>283</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E48" s="32" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="56">
-      <c r="A49" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E49" s="32" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="56">
-      <c r="A50" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E50" s="32" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="56">
-      <c r="A51" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E51" s="32" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="70">
-      <c r="A52" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E52" s="32" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="39">
-      <c r="A53" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="E53" s="32" t="s">
-        <v>190</v>
-      </c>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="32"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="32"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="32"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="32"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="32"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="32"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="32"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="32"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="32"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="32"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="32"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="32"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="32"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="32"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="32"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="32"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="32"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="32"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="32"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="32"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="32"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="32"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="32"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="32"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="32"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="32"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="32"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="32"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="32"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10201,6 +8000,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C0A86D0A1DF85A4CBF24319CD50F658E" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="18023c554c1e7c0fe5f8bda126dbbbe1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -10314,22 +8128,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64745CD4-DB27-427B-80D9-1CCB91D6E4BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10343,21 +8159,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Testing Spreadsheet v1.0 OrderReceipt_AdamHale.xlsx
+++ b/Testing Spreadsheet v1.0 OrderReceipt_AdamHale.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <workbookProtection workbookPassword="A6C2" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24840" windowHeight="15600" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="520" yWindow="0" windowWidth="24840" windowHeight="15600" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="5" r:id="rId1"/>
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="265">
   <si>
     <t xml:space="preserve">Req </t>
   </si>
@@ -532,9 +532,6 @@
     <t>Changed password and when through ordering process again to make sure that an order receipt is generated</t>
   </si>
   <si>
-    <t>Deluxe with olives</t>
-  </si>
-  <si>
     <t>OrderReceipt_TProc_11</t>
   </si>
   <si>
@@ -859,9 +856,6 @@
     <t>This works but it has failed due to the spec clearly saying that the collection time will be 20 minutes after ordering, when it is infact 30 minutes. This has been recorded through the automated Selenium test so can be regression tested easily again. However, it has also failed on every other browser, as well as each mobile device</t>
   </si>
   <si>
-    <t>When clicking on the log out button, the user is first redirected to the Order Page. They are not directly logged out straight away, it is only when this is clicked for a second time is the user logged out. This dails across all the browsers that were liste to test the website on, a well as all the mobile devices listed in the spec as well</t>
-  </si>
-  <si>
     <t>Having added an order to the basket with no extras and confirmed the collection time, take user to the order receipt. This will be tested across all mobile devices that have been listed in the spec, as well as all the browsers. The automated test shall be made and recorded through Firefox browser</t>
   </si>
   <si>
@@ -937,10 +931,6 @@
     <t>OrderReceipt_4</t>
   </si>
   <si>
-    <t xml:space="preserve">There is no copyright in the footer or site version. This fails across all the mobile devices listed to be tested in the spec as well as all browsers
-</t>
-  </si>
-  <si>
     <t>4.1.6, 3.2.1, 3.2.2</t>
   </si>
   <si>
@@ -965,7 +955,82 @@
     <t>4.1.8, 3.2.2</t>
   </si>
   <si>
-    <t>This is the same order reference as the previous test case thererfore it is not unique, it is not critical but the spec does suggest that the success of this business rests upon using a unique reference number, rendering it as a high priority defect. This case also fails on  the iPad4, the iPhone 6 and the samsung Galaxy S4 mobile device as well as Firefoxbrowser</t>
+    <t xml:space="preserve">When clicking on the log out button, the user is first redirected to the Order Page. They are not directly logged out straight away, it is only when this is clicked for a second time is the user logged out. This fails across all the browsersbar internet explorer  as well as all the mobile devices listed in the spec </t>
+  </si>
+  <si>
+    <t>There is no copyright in the footer or site version. This fails across all the mobile devices listed to be tested in the spec as well as all browsers</t>
+  </si>
+  <si>
+    <t>To test that the system does not progress to the orer receipt if the user selects a time and a date that have both passed</t>
+  </si>
+  <si>
+    <t>Have to have already placed an order and selected collection time  and date to see the order receipt</t>
+  </si>
+  <si>
+    <t>Classic Deluxe with olives</t>
+  </si>
+  <si>
+    <t>OrderReceipt_Tconn_4</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To test the layout for the Order Receipt page on the website </t>
+  </si>
+  <si>
+    <t>OrderReceip_TConn_13</t>
+  </si>
+  <si>
+    <t>To test the layout of the Order Receipt page and check it's consistency to that across all other web browsers and mobile devices listed in the spec</t>
+  </si>
+  <si>
+    <t>3.2.2, Exploratory</t>
+  </si>
+  <si>
+    <t>Having added an order to the basket with extras and confirmed the collection time as later and selecting a time that has passed, as well as a date that has also passed, that it does not progress to the order receipt. This will be tested across all mobile devices that have been listed in the spec, as well as all the browsers. The automated test shall be made and recorded through Firefox browser</t>
+  </si>
+  <si>
+    <t>Order receipt will not be generated until valid time and date  has been entered</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_23</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_23</t>
+  </si>
+  <si>
+    <t>To test the layout and its consistency between all the web browsers and mobile devices listed in the spec</t>
+  </si>
+  <si>
+    <t>There will be minor differences in some aspects of layout amongst the web browsers and mobile devices</t>
+  </si>
+  <si>
+    <t>There is a generic "unique" order reference used, though it is not critical, but the spec does suggest that the success of this business rests upon using a unique reference number, rendering it as a high priority defect. This case also fails on  the iPad4, the iPhone 6 and the Samsung Galaxy S4 mobile device as well as Firefox browser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To check for </t>
+  </si>
+  <si>
+    <t>OrderReceipt_Tconn_14</t>
+  </si>
+  <si>
+    <t>To test the Order Receipt page for general errors, such as spelling mistakes or unprofessional wording in the source code</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_24</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_25</t>
+  </si>
+  <si>
+    <t>06/14/15</t>
+  </si>
+  <si>
+    <t>OrderReceipt_5</t>
+  </si>
+  <si>
+    <t>Where it says "you're logged in as &lt;username&gt;, it is highlighten in bold with a full stop at the end. This could be confusing as having the full stop in bold may lead some users to think they have input their email incorrect. This is extremely minor and fussy however, but is consistent across all browsers and mobile devices</t>
   </si>
 </sst>
 </file>
@@ -1184,7 +1249,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="793">
+  <cellStyleXfs count="819">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1978,8 +2043,34 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2084,8 +2175,29 @@
     <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="793">
+  <cellStyles count="819">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2482,6 +2594,19 @@
     <cellStyle name="Followed Hyperlink" xfId="788" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="790" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="792" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="794" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="796" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="798" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="800" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="802" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="804" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="806" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="808" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="810" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="812" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="814" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="816" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="818" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2878,6 +3003,19 @@
     <cellStyle name="Hyperlink" xfId="787" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="789" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="791" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="793" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="795" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="797" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="799" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="801" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="803" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="805" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="807" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="809" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="811" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="813" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="815" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="817" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -2994,10 +3132,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>18.0</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.0</c:v>
@@ -3117,11 +3255,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2107412264"/>
-        <c:axId val="2107415208"/>
+        <c:axId val="2120051352"/>
+        <c:axId val="2119967704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2107412264"/>
+        <c:axId val="2120051352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3130,7 +3268,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107415208"/>
+        <c:crossAx val="2119967704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3138,7 +3276,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2107415208"/>
+        <c:axId val="2119967704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3149,7 +3287,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107412264"/>
+        <c:crossAx val="2120051352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3563,7 +3701,7 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3589,13 +3727,13 @@
     </row>
     <row r="2" spans="1:9" ht="35.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
@@ -3606,13 +3744,13 @@
     </row>
     <row r="3" spans="1:9" ht="35.5" customHeight="1">
       <c r="A3" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>27</v>
@@ -3621,13 +3759,13 @@
     </row>
     <row r="4" spans="1:9" ht="28">
       <c r="A4" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
@@ -3638,13 +3776,13 @@
     </row>
     <row r="5" spans="1:9" ht="23">
       <c r="A5" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" s="32" t="s">
         <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3655,13 +3793,13 @@
     </row>
     <row r="6" spans="1:9" ht="28">
       <c r="A6" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>6</v>
@@ -3672,13 +3810,13 @@
     </row>
     <row r="7" spans="1:9" ht="28">
       <c r="A7" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -3689,13 +3827,13 @@
     </row>
     <row r="8" spans="1:9" ht="28">
       <c r="A8" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -3706,13 +3844,13 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
@@ -3720,13 +3858,13 @@
     </row>
     <row r="10" spans="1:9" ht="28">
       <c r="A10" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
@@ -3734,13 +3872,13 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>11</v>
@@ -3748,43 +3886,59 @@
     </row>
     <row r="12" spans="1:9" ht="28">
       <c r="A12" s="32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="28">
       <c r="A13" s="32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+    <row r="14" spans="1:9" ht="42">
+      <c r="A14" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="42">
+      <c r="A15" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="32"/>
@@ -4041,8 +4195,8 @@
   </sheetPr>
   <dimension ref="A1:Z161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="G22" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4114,7 +4268,7 @@
     </row>
     <row r="2" spans="1:26" ht="39">
       <c r="A2" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>61</v>
@@ -4126,7 +4280,7 @@
         <v>63</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>6</v>
@@ -4153,7 +4307,7 @@
     </row>
     <row r="3" spans="1:26" ht="52">
       <c r="A3" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>65</v>
@@ -4165,7 +4319,7 @@
         <v>67</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>27</v>
@@ -4192,7 +4346,7 @@
     </row>
     <row r="4" spans="1:26" ht="39">
       <c r="A4" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>72</v>
@@ -4201,10 +4355,10 @@
         <v>66</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>27</v>
@@ -4231,7 +4385,7 @@
     </row>
     <row r="5" spans="1:26" ht="39">
       <c r="A5" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>74</v>
@@ -4240,10 +4394,10 @@
         <v>66</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>27</v>
@@ -4267,7 +4421,7 @@
     </row>
     <row r="6" spans="1:26" ht="52">
       <c r="A6" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>77</v>
@@ -4279,7 +4433,7 @@
         <v>75</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>6</v>
@@ -4294,7 +4448,7 @@
         <v>62</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>33</v>
@@ -4309,13 +4463,13 @@
         <v>71</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P6" s="10"/>
     </row>
     <row r="7" spans="1:26" ht="52">
       <c r="A7" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>78</v>
@@ -4327,7 +4481,7 @@
         <v>79</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>6</v>
@@ -4354,10 +4508,10 @@
     </row>
     <row r="8" spans="1:26" ht="39">
       <c r="A8" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>66</v>
@@ -4366,7 +4520,7 @@
         <v>79</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>6</v>
@@ -4392,15 +4546,15 @@
       </c>
       <c r="U8" s="31">
         <f>COUNTIF(H2:H90,"*Passed*")</f>
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="39">
       <c r="A9" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>66</v>
@@ -4409,7 +4563,7 @@
         <v>79</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>6</v>
@@ -4435,24 +4589,24 @@
       </c>
       <c r="U9" s="31">
         <f>COUNTIF(H3:H90,"*Failed*")</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="52">
       <c r="A10" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>95</v>
+        <v>241</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>81</v>
+        <v>242</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>243</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>113</v>
+        <v>244</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>6</v>
@@ -4483,539 +4637,575 @@
     </row>
     <row r="11" spans="1:26" ht="76" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>93</v>
+      <c r="D11" s="38" t="s">
+        <v>81</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="F11" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="41">
         <v>42074</v>
       </c>
-      <c r="H11" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="12" t="s">
+      <c r="H11" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="J11" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L11" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="M11" s="34">
-        <v>42074</v>
-      </c>
-      <c r="N11" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="O11" s="10" t="s">
-        <v>242</v>
-      </c>
+      <c r="J11" s="45"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
       <c r="P11" s="10"/>
     </row>
     <row r="12" spans="1:26" ht="52">
       <c r="A12" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="41">
+        <v>42074</v>
+      </c>
+      <c r="H12" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" s="46">
+        <v>42074</v>
+      </c>
+      <c r="N12" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="O12" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="P12" s="10"/>
+    </row>
+    <row r="13" spans="1:26" ht="52">
+      <c r="A13" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12" s="32" t="s">
+      <c r="D13" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="39">
+        <v>42086</v>
+      </c>
+      <c r="H13" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="10"/>
+    </row>
+    <row r="14" spans="1:26" ht="39">
+      <c r="A14" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="36">
-        <v>42086</v>
-      </c>
-      <c r="H12" s="26" t="s">
+      <c r="F14" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="39">
+        <v>42099</v>
+      </c>
+      <c r="H14" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I14" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-    </row>
-    <row r="13" spans="1:26" ht="39">
-      <c r="A13" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="36">
-        <v>42099</v>
-      </c>
-      <c r="H13" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-    </row>
-    <row r="14" spans="1:26" ht="42">
-      <c r="A14" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="36">
-        <v>42099</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="K14" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="L14" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="M14" s="34">
-        <v>42099</v>
-      </c>
-      <c r="N14" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>233</v>
-      </c>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
       <c r="P14" s="10"/>
     </row>
     <row r="15" spans="1:26" ht="39">
       <c r="A15" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D15" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B15" s="38" t="s">
         <v>129</v>
       </c>
+      <c r="C15" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>81</v>
+      </c>
       <c r="E15" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="F15" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="39">
         <v>42099</v>
       </c>
-      <c r="H15" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="10" t="s">
+      <c r="H15" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
+      <c r="J15" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="K15" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="M15" s="46">
+        <v>42099</v>
+      </c>
+      <c r="N15" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="O15" s="32" t="s">
+        <v>240</v>
+      </c>
       <c r="P15" s="10"/>
     </row>
     <row r="16" spans="1:26" ht="39">
       <c r="A16" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="39">
+        <v>42099</v>
+      </c>
+      <c r="H16" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="10"/>
+    </row>
+    <row r="17" spans="1:21" ht="39">
+      <c r="A17" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="B17" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="F16" s="11" t="s">
+      <c r="E17" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="36">
+      <c r="G17" s="39">
         <v>42099</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H17" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I17" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-    </row>
-    <row r="17" spans="1:21" ht="28">
-      <c r="A17" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="36">
-        <v>42099</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
       <c r="P17" s="10"/>
     </row>
     <row r="18" spans="1:21" ht="28">
       <c r="A18" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B18" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B18" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>129</v>
+      <c r="C18" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>79</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="F18" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F18" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="36">
+      <c r="G18" s="39">
         <v>42099</v>
       </c>
-      <c r="H18" s="26" t="s">
+      <c r="H18" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="I18" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
       <c r="P18" s="10"/>
     </row>
     <row r="19" spans="1:21" ht="28">
       <c r="A19" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>129</v>
+        <v>192</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>81</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="F19" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="39">
         <v>42099</v>
       </c>
-      <c r="H19" s="26" t="s">
+      <c r="H19" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
       <c r="P19" s="10"/>
     </row>
     <row r="20" spans="1:21" ht="28">
       <c r="A20" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="39">
+        <v>42099</v>
+      </c>
+      <c r="H20" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="10"/>
+    </row>
+    <row r="21" spans="1:21" ht="28">
+      <c r="A21" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="39">
+        <v>42099</v>
+      </c>
+      <c r="H21" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="10"/>
+    </row>
+    <row r="22" spans="1:21" ht="39">
+      <c r="A22" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B22" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C22" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="39">
+        <v>42099</v>
+      </c>
+      <c r="H22" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="10"/>
+    </row>
+    <row r="23" spans="1:21" ht="28">
+      <c r="A23" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="F20" s="11" t="s">
+      <c r="E23" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="39">
+        <v>42099</v>
+      </c>
+      <c r="H23" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="J23" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="K23" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="L23" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="M23" s="46">
+        <v>42099</v>
+      </c>
+      <c r="N23" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="O23" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="P23" s="10"/>
+    </row>
+    <row r="24" spans="1:21" ht="39">
+      <c r="A24" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="39">
+        <v>42099</v>
+      </c>
+      <c r="H24" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="10"/>
+    </row>
+    <row r="25" spans="1:21" ht="28">
+      <c r="A25" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="F25" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="36">
+      <c r="G25" s="36">
         <v>42099</v>
       </c>
-      <c r="H20" s="26" t="s">
+      <c r="H25" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I25" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-    </row>
-    <row r="21" spans="1:21" ht="39">
-      <c r="A21" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="36">
-        <v>42099</v>
-      </c>
-      <c r="H21" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-    </row>
-    <row r="22" spans="1:21" ht="28">
-      <c r="A22" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="36">
-        <v>42099</v>
-      </c>
-      <c r="H22" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="K22" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="L22" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="M22" s="34">
-        <v>42099</v>
-      </c>
-      <c r="N22" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="O22" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="P22" s="10"/>
-    </row>
-    <row r="23" spans="1:21" ht="39">
-      <c r="A23" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G23" s="36">
-        <v>42099</v>
-      </c>
-      <c r="H23" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-    </row>
-    <row r="24" spans="1:21">
-      <c r="A24" s="1"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-    </row>
-    <row r="25" spans="1:21">
-      <c r="A25" s="1"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="10"/>
       <c r="J25" s="35"/>
       <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
+      <c r="L25" s="35"/>
       <c r="M25" s="34"/>
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
@@ -5024,22 +5214,52 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
-      <c r="A26" s="1"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
+    <row r="26" spans="1:21" ht="28">
+      <c r="A26" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="K26" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="L26" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="M26" s="34">
+        <v>42099</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="O26" s="10" t="s">
+        <v>264</v>
+      </c>
       <c r="P26" s="10"/>
       <c r="T26" t="s">
         <v>34</v>
@@ -7091,13 +7311,13 @@
           <x14:formula1>
             <xm:f>Settings!$A$4:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H53</xm:sqref>
+          <xm:sqref>H2:H10 H25:H53</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Settings!$B$4:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F159</xm:sqref>
+          <xm:sqref>F2:F10 F25:F159</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -7109,7 +7329,7 @@
           <x14:formula1>
             <xm:f>Settings!$D$4:$D$6</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K11</xm:sqref>
+          <xm:sqref>K2:K10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7127,8 +7347,8 @@
   </sheetPr>
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A19" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7173,10 +7393,10 @@
         <v>82</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>68</v>
@@ -7199,10 +7419,10 @@
         <v>83</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>69</v>
@@ -7224,10 +7444,10 @@
         <v>84</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>70</v>
@@ -7249,10 +7469,10 @@
         <v>85</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>73</v>
@@ -7274,10 +7494,10 @@
         <v>86</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>76</v>
@@ -7299,10 +7519,10 @@
         <v>87</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>76</v>
@@ -7324,10 +7544,10 @@
         <v>88</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>80</v>
@@ -7349,10 +7569,10 @@
         <v>89</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>80</v>
@@ -7369,18 +7589,18 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="112">
+    <row r="10" spans="1:13" ht="126">
       <c r="A10" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>90</v>
+        <v>251</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>64</v>
@@ -7395,19 +7615,19 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" ht="112">
-      <c r="A11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="A11" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="D11" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="32" t="s">
         <v>64</v>
       </c>
       <c r="F11" s="1"/>
@@ -7420,19 +7640,19 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" ht="71" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="A12" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="32" t="s">
         <v>64</v>
       </c>
       <c r="F12" s="1"/>
@@ -7445,20 +7665,20 @@
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" ht="98">
-      <c r="A13" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>142</v>
+      <c r="A13" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>64</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -7469,21 +7689,21 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" ht="112">
-      <c r="A14" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>142</v>
+    <row r="14" spans="1:13" ht="98">
+      <c r="A14" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>141</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -7494,21 +7714,21 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" ht="98">
-      <c r="A15" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E15" s="1" t="s">
+    <row r="15" spans="1:13" ht="112">
+      <c r="A15" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="D15" s="32" t="s">
         <v>142</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>141</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -7520,20 +7740,20 @@
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" ht="98">
-      <c r="A16" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>145</v>
+      <c r="A16" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>143</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -7544,21 +7764,21 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" ht="84">
-      <c r="A17" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>155</v>
+    <row r="17" spans="1:13" ht="98">
+      <c r="A17" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>144</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -7570,20 +7790,20 @@
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="84">
-      <c r="A18" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>156</v>
+      <c r="A18" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -7595,20 +7815,20 @@
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" ht="84">
-      <c r="A19" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>157</v>
+      <c r="A19" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>155</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -7620,86 +7840,106 @@
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" ht="84">
-      <c r="A20" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="A20" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="84">
+      <c r="A21" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="78">
+      <c r="A22" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="91">
+      <c r="A23" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="C23" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="78">
-      <c r="A21" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="91">
-      <c r="A22" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="91">
-      <c r="A23" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>228</v>
-      </c>
       <c r="D23" s="32" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="E23" s="32" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="32"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="32"/>
+    <row r="24" spans="1:13" ht="91">
+      <c r="A24" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="56">
+      <c r="A25" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1"/>
@@ -8000,21 +8240,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C0A86D0A1DF85A4CBF24319CD50F658E" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="18023c554c1e7c0fe5f8bda126dbbbe1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -8128,15 +8359,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -8145,7 +8377,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64745CD4-DB27-427B-80D9-1CCB91D6E4BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8159,4 +8391,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testing Spreadsheet v1.0 OrderReceipt_AdamHale.xlsx
+++ b/Testing Spreadsheet v1.0 OrderReceipt_AdamHale.xlsx
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="266">
   <si>
     <t xml:space="preserve">Req </t>
   </si>
@@ -1031,6 +1031,9 @@
   </si>
   <si>
     <t>Where it says "you're logged in as &lt;username&gt;, it is highlighten in bold with a full stop at the end. This could be confusing as having the full stop in bold may lead some users to think they have input their email incorrect. This is extremely minor and fussy however, but is consistent across all browsers and mobile devices</t>
+  </si>
+  <si>
+    <t>Major</t>
   </si>
 </sst>
 </file>
@@ -3234,13 +3237,13 @@
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4195,8 +4198,8 @@
   </sheetPr>
   <dimension ref="A1:Z161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G22" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView tabSelected="1" topLeftCell="J12" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4706,7 +4709,7 @@
         <v>33</v>
       </c>
       <c r="L12" s="35" t="s">
-        <v>6</v>
+        <v>265</v>
       </c>
       <c r="M12" s="46">
         <v>42074</v>
@@ -5314,8 +5317,7 @@
         <v>35</v>
       </c>
       <c r="U28" s="31">
-        <f>COUNTIF(L2:L7,"*Major*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -5364,8 +5366,7 @@
         <v>38</v>
       </c>
       <c r="U30" s="31">
-        <f>COUNTIF(L2:L7,"*Cometic*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:21">

--- a/Testing Spreadsheet v1.0 OrderReceipt_AdamHale.xlsx
+++ b/Testing Spreadsheet v1.0 OrderReceipt_AdamHale.xlsx
@@ -955,9 +955,6 @@
     <t>4.1.8, 3.2.2</t>
   </si>
   <si>
-    <t xml:space="preserve">When clicking on the log out button, the user is first redirected to the Order Page. They are not directly logged out straight away, it is only when this is clicked for a second time is the user logged out. This fails across all the browsersbar internet explorer  as well as all the mobile devices listed in the spec </t>
-  </si>
-  <si>
     <t>There is no copyright in the footer or site version. This fails across all the mobile devices listed to be tested in the spec as well as all browsers</t>
   </si>
   <si>
@@ -1034,6 +1031,9 @@
   </si>
   <si>
     <t>Major</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When clicking on the log out button, the user is first redirected to the Order Page. They are not directly logged out straight away, it is only when this is clicked for a second time is the user logged out. This fails across all the browsers  as well as all the mobile devices listed in the spec </t>
   </si>
 </sst>
 </file>
@@ -3917,13 +3917,13 @@
     </row>
     <row r="14" spans="1:9" ht="42">
       <c r="A14" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="B14" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="C14" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>11</v>
@@ -3931,13 +3931,13 @@
     </row>
     <row r="15" spans="1:9" ht="42">
       <c r="A15" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="B15" s="32" t="s">
         <v>258</v>
       </c>
-      <c r="B15" s="32" t="s">
-        <v>259</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
@@ -4198,8 +4198,8 @@
   </sheetPr>
   <dimension ref="A1:Z161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J12" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="O12" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4600,16 +4600,16 @@
         <v>183</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="E10" s="32" t="s">
         <v>243</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>244</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>6</v>
@@ -4709,7 +4709,7 @@
         <v>33</v>
       </c>
       <c r="L12" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M12" s="46">
         <v>42074</v>
@@ -4718,7 +4718,7 @@
         <v>71</v>
       </c>
       <c r="O12" s="45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P12" s="10"/>
     </row>
@@ -4733,7 +4733,7 @@
         <v>97</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E13" s="32" t="s">
         <v>113</v>
@@ -4838,7 +4838,7 @@
         <v>71</v>
       </c>
       <c r="O15" s="32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P15" s="10"/>
     </row>
@@ -5138,13 +5138,13 @@
         <v>71</v>
       </c>
       <c r="O23" s="45" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="P23" s="10"/>
     </row>
     <row r="24" spans="1:21" ht="39">
       <c r="A24" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B24" s="38" t="s">
         <v>164</v>
@@ -5180,10 +5180,10 @@
     </row>
     <row r="25" spans="1:21" ht="28">
       <c r="A25" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>71</v>
@@ -5219,10 +5219,10 @@
     </row>
     <row r="26" spans="1:21" ht="28">
       <c r="A26" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>71</v>
@@ -5231,13 +5231,13 @@
         <v>71</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H26" s="26" t="s">
         <v>25</v>
@@ -5246,7 +5246,7 @@
         <v>62</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K26" s="35" t="s">
         <v>33</v>
@@ -5261,7 +5261,7 @@
         <v>71</v>
       </c>
       <c r="O26" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P26" s="10"/>
       <c r="T26" t="s">
@@ -7598,10 +7598,10 @@
         <v>117</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>64</v>
@@ -7927,16 +7927,16 @@
     </row>
     <row r="25" spans="1:13" ht="56">
       <c r="A25" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="B25" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="C25" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="E25" s="32" t="s">
         <v>141</v>

--- a/Testing Spreadsheet v1.0 OrderReceipt_AdamHale.xlsx
+++ b/Testing Spreadsheet v1.0 OrderReceipt_AdamHale.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <workbookProtection workbookPassword="A6C2" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="0" windowWidth="24840" windowHeight="15600" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24840" windowHeight="15600" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="5" r:id="rId1"/>
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="269">
   <si>
     <t xml:space="preserve">Req </t>
   </si>
@@ -427,9 +427,6 @@
     <t>Adam Hale</t>
   </si>
   <si>
-    <t>Classic deluxe</t>
-  </si>
-  <si>
     <t>automated selenium test</t>
   </si>
   <si>
@@ -439,9 +436,6 @@
     <t>Have to have already placed an order and selected collection time to see the order receipt</t>
   </si>
   <si>
-    <t>Cheese pizza with Olives, Pepperoni, Peppers and Onions as extras</t>
-  </si>
-  <si>
     <t>Order receipt will show item in the receipt</t>
   </si>
   <si>
@@ -463,9 +457,6 @@
     <t>To test that the order receipt contains the total price for all items that have been ordered</t>
   </si>
   <si>
-    <t>Cheese pizza</t>
-  </si>
-  <si>
     <t xml:space="preserve">Order receipt will show the date and time that the order has been placed for collection </t>
   </si>
   <si>
@@ -475,15 +466,9 @@
     <t>To test that the order receipt includes the date and time that the order has been placed for collection if selecting to collect later</t>
   </si>
   <si>
-    <t>Classic deluxe with pepperoni</t>
-  </si>
-  <si>
     <t xml:space="preserve">Order receipt will not be generated until valid date is input </t>
   </si>
   <si>
-    <t>Meat Extravaganza</t>
-  </si>
-  <si>
     <t>OrderReceipt_TProc_1</t>
   </si>
   <si>
@@ -517,9 +502,6 @@
     <t>OrderReceipt_TProc_10</t>
   </si>
   <si>
-    <t>Meat Extravaganza with peppers</t>
-  </si>
-  <si>
     <t>To test that the system provides a unique order reference  on the order receipt that is different to the previous Test Case</t>
   </si>
   <si>
@@ -622,9 +604,6 @@
     <t>Having ordered a pizza and confirmed collection</t>
   </si>
   <si>
-    <t>Cheese Pizza</t>
-  </si>
-  <si>
     <t>When on the Order Receipt page, the company Copyright and site version should be in the footer of the page</t>
   </si>
   <si>
@@ -832,9 +811,6 @@
     <t>User is able to log off from Order Receipt page</t>
   </si>
   <si>
-    <t>Meat Extravaganza with peppers and onions as extras and a Cheese pizza</t>
-  </si>
-  <si>
     <t xml:space="preserve">The Order receipt should include the confirmed date and time for collection </t>
   </si>
   <si>
@@ -844,9 +820,6 @@
     <t>All the navigation works from the Order receipt page</t>
   </si>
   <si>
-    <t>Classic deluxe with olives and a cheese pizza</t>
-  </si>
-  <si>
     <t>To test that the system does not progress to the order receipt if a date that has passed is selected</t>
   </si>
   <si>
@@ -964,9 +937,6 @@
     <t>Have to have already placed an order and selected collection time  and date to see the order receipt</t>
   </si>
   <si>
-    <t>Classic Deluxe with olives</t>
-  </si>
-  <si>
     <t>OrderReceipt_Tconn_4</t>
   </si>
   <si>
@@ -1034,6 +1004,45 @@
   </si>
   <si>
     <t xml:space="preserve">When clicking on the log out button, the user is first redirected to the Order Page. They are not directly logged out straight away, it is only when this is clicked for a second time is the user logged out. This fails across all the browsers  as well as all the mobile devices listed in the spec </t>
+  </si>
+  <si>
+    <t>automated selenium test involving a manual intervention</t>
+  </si>
+  <si>
+    <t>automated selenium testinvolving a manual intervention</t>
+  </si>
+  <si>
+    <t>Login: ahale03@qub.ac.uk    Password :lespaul260                  Pizza: Classic deluxe</t>
+  </si>
+  <si>
+    <t>Login: ahale03@qub.ac.uk    Password :lespaul260                  Pizza:Cheese pizza with Olives, Pepperoni, Peppers and Onions as extras</t>
+  </si>
+  <si>
+    <t>Login: ahale03@qub.ac.uk    Password :lespaul260                  Pizza:Meat Extravaganza with peppers and onions as extras and a Cheese pizza</t>
+  </si>
+  <si>
+    <t>Login: ahale03@qub.ac.uk    Password :lespaul260                  Pizza:Classic deluxe with olives and a cheese pizza</t>
+  </si>
+  <si>
+    <t>Login: ahale03@qub.ac.uk    Password :lespaul260                  Pizza:Cheese pizza</t>
+  </si>
+  <si>
+    <t>Login: ahale03@qub.ac.uk    Password :lespaul260                  Pizza:Classic deluxe with pepperoni</t>
+  </si>
+  <si>
+    <t>Login: ahale03@qub.ac.uk    Password :lespaul260                  Pizza:Classic Deluxe with olives</t>
+  </si>
+  <si>
+    <t>Login: ahale03@qub.ac.uk    Password :lespaul260                  Pizza:Meat Extravaganza</t>
+  </si>
+  <si>
+    <t>Login: ahale03@qub.ac.uk    Password :lespaul260                  Pizza:Meat Extravaganza with peppers</t>
+  </si>
+  <si>
+    <t>Login: ahale03@qub.ac.uk    Password :lespaul260                  Pizza:Cheese Pizza</t>
+  </si>
+  <si>
+    <t>Login: ahale03@qub.ac.uk    Password :lespaul260                  Pizza:na</t>
   </si>
 </sst>
 </file>
@@ -3258,11 +3267,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2120051352"/>
-        <c:axId val="2119967704"/>
+        <c:axId val="2122187048"/>
+        <c:axId val="2121896376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2120051352"/>
+        <c:axId val="2122187048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3271,7 +3280,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2119967704"/>
+        <c:crossAx val="2121896376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3279,7 +3288,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2119967704"/>
+        <c:axId val="2121896376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3290,7 +3299,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120051352"/>
+        <c:crossAx val="2122187048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3730,13 +3739,13 @@
     </row>
     <row r="2" spans="1:9" ht="35.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
@@ -3747,13 +3756,13 @@
     </row>
     <row r="3" spans="1:9" ht="35.5" customHeight="1">
       <c r="A3" s="32" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>27</v>
@@ -3762,13 +3771,13 @@
     </row>
     <row r="4" spans="1:9" ht="28">
       <c r="A4" s="32" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
@@ -3779,13 +3788,13 @@
     </row>
     <row r="5" spans="1:9" ht="23">
       <c r="A5" s="32" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B5" s="32" t="s">
         <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3796,13 +3805,13 @@
     </row>
     <row r="6" spans="1:9" ht="28">
       <c r="A6" s="32" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>6</v>
@@ -3813,13 +3822,13 @@
     </row>
     <row r="7" spans="1:9" ht="28">
       <c r="A7" s="32" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -3830,13 +3839,13 @@
     </row>
     <row r="8" spans="1:9" ht="28">
       <c r="A8" s="32" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -3847,13 +3856,13 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="32" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
@@ -3861,13 +3870,13 @@
     </row>
     <row r="10" spans="1:9" ht="28">
       <c r="A10" s="32" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
@@ -3875,13 +3884,13 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="32" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>11</v>
@@ -3889,27 +3898,27 @@
     </row>
     <row r="12" spans="1:9" ht="28">
       <c r="A12" s="32" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="28">
       <c r="A13" s="32" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>6</v>
@@ -3917,13 +3926,13 @@
     </row>
     <row r="14" spans="1:9" ht="42">
       <c r="A14" s="32" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>11</v>
@@ -3931,13 +3940,13 @@
     </row>
     <row r="15" spans="1:9" ht="42">
       <c r="A15" s="32" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
@@ -4198,8 +4207,8 @@
   </sheetPr>
   <dimension ref="A1:Z161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O12" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView topLeftCell="C1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4271,19 +4280,19 @@
     </row>
     <row r="2" spans="1:26" ht="39">
       <c r="A2" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>63</v>
+        <v>258</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>6</v>
@@ -4308,21 +4317,21 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="52">
+    <row r="3" spans="1:26" ht="65">
       <c r="A3" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>67</v>
+        <v>259</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>27</v>
@@ -4347,21 +4356,21 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="39">
+    <row r="4" spans="1:26" ht="65">
       <c r="A4" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>198</v>
+        <v>260</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>27</v>
@@ -4386,21 +4395,21 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="39">
+    <row r="5" spans="1:26" ht="52">
       <c r="A5" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>202</v>
+        <v>261</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>27</v>
@@ -4424,19 +4433,19 @@
     </row>
     <row r="6" spans="1:26" ht="52">
       <c r="A6" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>75</v>
+        <v>262</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>6</v>
@@ -4451,7 +4460,7 @@
         <v>62</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>33</v>
@@ -4463,28 +4472,28 @@
         <v>42074</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="P6" s="10"/>
     </row>
     <row r="7" spans="1:26" ht="52">
       <c r="A7" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>6</v>
@@ -4511,19 +4520,19 @@
     </row>
     <row r="8" spans="1:26" ht="39">
       <c r="A8" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>6</v>
@@ -4554,19 +4563,19 @@
     </row>
     <row r="9" spans="1:26" ht="39">
       <c r="A9" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>6</v>
@@ -4597,19 +4606,19 @@
     </row>
     <row r="10" spans="1:26" ht="52">
       <c r="A10" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>6</v>
@@ -4640,19 +4649,19 @@
     </row>
     <row r="11" spans="1:26" ht="76" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F11" s="40" t="s">
         <v>6</v>
@@ -4676,19 +4685,19 @@
     </row>
     <row r="12" spans="1:26" ht="52">
       <c r="A12" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>93</v>
+        <v>266</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F12" s="40" t="s">
         <v>6</v>
@@ -4703,40 +4712,40 @@
         <v>62</v>
       </c>
       <c r="J12" s="44" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>33</v>
       </c>
       <c r="L12" s="35" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="M12" s="46">
         <v>42074</v>
       </c>
       <c r="N12" s="45" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O12" s="45" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="P12" s="10"/>
     </row>
     <row r="13" spans="1:26" ht="52">
       <c r="A13" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F13" s="40" t="s">
         <v>6</v>
@@ -4760,19 +4769,19 @@
     </row>
     <row r="14" spans="1:26" ht="39">
       <c r="A14" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>128</v>
+        <v>267</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F14" s="40" t="s">
         <v>11</v>
@@ -4796,19 +4805,19 @@
     </row>
     <row r="15" spans="1:26" ht="39">
       <c r="A15" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F15" s="40" t="s">
         <v>11</v>
@@ -4823,40 +4832,40 @@
         <v>62</v>
       </c>
       <c r="J15" s="45" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="K15" s="35" t="s">
         <v>33</v>
       </c>
       <c r="L15" s="35" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="M15" s="46">
         <v>42099</v>
       </c>
       <c r="N15" s="45" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O15" s="32" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="P15" s="10"/>
     </row>
     <row r="16" spans="1:26" ht="39">
       <c r="A16" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F16" s="40" t="s">
         <v>11</v>
@@ -4880,19 +4889,19 @@
     </row>
     <row r="17" spans="1:21" ht="39">
       <c r="A17" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>128</v>
+        <v>267</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F17" s="40" t="s">
         <v>11</v>
@@ -4914,21 +4923,21 @@
       <c r="O17" s="45"/>
       <c r="P17" s="10"/>
     </row>
-    <row r="18" spans="1:21" ht="28">
+    <row r="18" spans="1:21" ht="39">
       <c r="A18" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F18" s="40" t="s">
         <v>11</v>
@@ -4950,21 +4959,21 @@
       <c r="O18" s="45"/>
       <c r="P18" s="10"/>
     </row>
-    <row r="19" spans="1:21" ht="28">
+    <row r="19" spans="1:21" ht="39">
       <c r="A19" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F19" s="40" t="s">
         <v>11</v>
@@ -4986,21 +4995,21 @@
       <c r="O19" s="45"/>
       <c r="P19" s="10"/>
     </row>
-    <row r="20" spans="1:21" ht="28">
+    <row r="20" spans="1:21" ht="39">
       <c r="A20" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>128</v>
+        <v>267</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F20" s="40" t="s">
         <v>11</v>
@@ -5022,21 +5031,21 @@
       <c r="O20" s="45"/>
       <c r="P20" s="10"/>
     </row>
-    <row r="21" spans="1:21" ht="28">
+    <row r="21" spans="1:21" ht="52">
       <c r="A21" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>202</v>
+        <v>261</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F21" s="40" t="s">
         <v>11</v>
@@ -5060,19 +5069,19 @@
     </row>
     <row r="22" spans="1:21" ht="39">
       <c r="A22" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F22" s="40" t="s">
         <v>11</v>
@@ -5094,21 +5103,21 @@
       <c r="O22" s="45"/>
       <c r="P22" s="10"/>
     </row>
-    <row r="23" spans="1:21" ht="28">
+    <row r="23" spans="1:21" ht="39">
       <c r="A23" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>128</v>
+        <v>267</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F23" s="40" t="s">
         <v>27</v>
@@ -5123,7 +5132,7 @@
         <v>62</v>
       </c>
       <c r="J23" s="45" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="K23" s="35" t="s">
         <v>33</v>
@@ -5135,28 +5144,28 @@
         <v>42099</v>
       </c>
       <c r="N23" s="45" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O23" s="45" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="P23" s="10"/>
     </row>
     <row r="24" spans="1:21" ht="39">
       <c r="A24" s="1" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>71</v>
+        <v>268</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F24" s="40" t="s">
         <v>6</v>
@@ -5178,21 +5187,21 @@
       <c r="O24" s="45"/>
       <c r="P24" s="10"/>
     </row>
-    <row r="25" spans="1:21" ht="28">
+    <row r="25" spans="1:21" ht="39">
       <c r="A25" s="1" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>71</v>
+        <v>268</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>11</v>
@@ -5217,27 +5226,27 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="28">
+    <row r="26" spans="1:21" ht="39">
       <c r="A26" s="1" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>71</v>
+        <v>268</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="H26" s="26" t="s">
         <v>25</v>
@@ -5246,7 +5255,7 @@
         <v>62</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="K26" s="35" t="s">
         <v>33</v>
@@ -5258,10 +5267,10 @@
         <v>42099</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O26" s="10" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="P26" s="10"/>
       <c r="T26" t="s">
@@ -7348,8 +7357,8 @@
   </sheetPr>
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7391,19 +7400,19 @@
     </row>
     <row r="2" spans="1:13" ht="98">
       <c r="A2" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="F2" s="1"/>
       <c r="H2" s="27" t="s">
@@ -7417,19 +7426,19 @@
     </row>
     <row r="3" spans="1:13" ht="112">
       <c r="A3" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="1"/>
@@ -7442,19 +7451,19 @@
     </row>
     <row r="4" spans="1:13" ht="98">
       <c r="A4" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -7467,19 +7476,19 @@
     </row>
     <row r="5" spans="1:13" ht="98">
       <c r="A5" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -7492,19 +7501,19 @@
     </row>
     <row r="6" spans="1:13" ht="98">
       <c r="A6" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -7517,19 +7526,19 @@
     </row>
     <row r="7" spans="1:13" ht="112">
       <c r="A7" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -7542,19 +7551,19 @@
     </row>
     <row r="8" spans="1:13" ht="112">
       <c r="A8" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -7567,19 +7576,19 @@
     </row>
     <row r="9" spans="1:13" ht="112">
       <c r="A9" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -7592,19 +7601,19 @@
     </row>
     <row r="10" spans="1:13" ht="126">
       <c r="A10" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -7617,19 +7626,19 @@
     </row>
     <row r="11" spans="1:13" ht="112">
       <c r="A11" s="32" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -7642,19 +7651,19 @@
     </row>
     <row r="12" spans="1:13" ht="71" customHeight="1">
       <c r="A12" s="32" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>64</v>
+        <v>257</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -7667,19 +7676,19 @@
     </row>
     <row r="13" spans="1:13" ht="98">
       <c r="A13" s="32" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -7692,19 +7701,19 @@
     </row>
     <row r="14" spans="1:13" ht="98">
       <c r="A14" s="32" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -7717,19 +7726,19 @@
     </row>
     <row r="15" spans="1:13" ht="112">
       <c r="A15" s="32" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -7742,19 +7751,19 @@
     </row>
     <row r="16" spans="1:13" ht="98">
       <c r="A16" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="32" t="s">
         <v>134</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>141</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -7767,19 +7776,19 @@
     </row>
     <row r="17" spans="1:13" ht="98">
       <c r="A17" s="32" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -7792,19 +7801,19 @@
     </row>
     <row r="18" spans="1:13" ht="84">
       <c r="A18" s="32" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -7817,19 +7826,19 @@
     </row>
     <row r="19" spans="1:13" ht="84">
       <c r="A19" s="32" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -7842,104 +7851,104 @@
     </row>
     <row r="20" spans="1:13" ht="84">
       <c r="A20" s="32" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="84">
       <c r="A21" s="32" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="78">
       <c r="A22" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="D22" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="B22" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>224</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>174</v>
-      </c>
       <c r="E22" s="32" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="91">
       <c r="A23" s="32" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="91">
       <c r="A24" s="32" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="56">
       <c r="A25" s="32" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -8241,12 +8250,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C0A86D0A1DF85A4CBF24319CD50F658E" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="18023c554c1e7c0fe5f8bda126dbbbe1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -8360,7 +8363,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -8369,16 +8372,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64745CD4-DB27-427B-80D9-1CCB91D6E4BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8394,10 +8394,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testing Spreadsheet v1.0 OrderReceipt_AdamHale.xlsx
+++ b/Testing Spreadsheet v1.0 OrderReceipt_AdamHale.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <workbookProtection workbookPassword="A6C2" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24840" windowHeight="15600" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="-760" yWindow="-460" windowWidth="25600" windowHeight="16000" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="5" r:id="rId1"/>
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="309">
   <si>
     <t xml:space="preserve">Req </t>
   </si>
@@ -430,9 +430,6 @@
     <t>automated selenium test</t>
   </si>
   <si>
-    <t>To test that the order receipt contains the items placed on order, specifically looking to see if it records the additional extras</t>
-  </si>
-  <si>
     <t>Have to have already placed an order and selected collection time to see the order receipt</t>
   </si>
   <si>
@@ -448,12 +445,6 @@
     <t>na</t>
   </si>
   <si>
-    <t>To test that the order receipt contains invididual prices for each item that have been ordered</t>
-  </si>
-  <si>
-    <t>Order receipt will show the total price for all items that have been ordered</t>
-  </si>
-  <si>
     <t>To test that the order receipt contains the total price for all items that have been ordered</t>
   </si>
   <si>
@@ -832,9 +823,6 @@
     <t>Having added an order to the basket with no extras and confirmed the collection time, take user to the order receipt. This will be tested across all mobile devices that have been listed in the spec, as well as all the browsers. The automated test shall be made and recorded through Firefox browser</t>
   </si>
   <si>
-    <t>Having added a plain cheese pizza to the basket with Olives, pepperoni, peppers and onions as extras and confirmed the collection time, take user to the order receipt. This will be tested across all mobile devices that have been listed in the spec, as well as all the browsers. The automated test shall be made and recorded through Firefox browser</t>
-  </si>
-  <si>
     <t>Having added an order to the basket with extras and confirmed the collection time, take user to the order receipt. This will be tested across all mobile devices that have been listed in the spec, as well as all the browsers. The automated test shall be made and recorded through Firefox browser</t>
   </si>
   <si>
@@ -976,9 +964,6 @@
     <t>There is a generic "unique" order reference used, though it is not critical, but the spec does suggest that the success of this business rests upon using a unique reference number, rendering it as a high priority defect. This case also fails on  the iPad4, the iPhone 6 and the Samsung Galaxy S4 mobile device as well as Firefox browser</t>
   </si>
   <si>
-    <t xml:space="preserve">To check for </t>
-  </si>
-  <si>
     <t>OrderReceipt_Tconn_14</t>
   </si>
   <si>
@@ -1018,9 +1003,6 @@
     <t>Login: ahale03@qub.ac.uk    Password :lespaul260                  Pizza:Cheese pizza with Olives, Pepperoni, Peppers and Onions as extras</t>
   </si>
   <si>
-    <t>Login: ahale03@qub.ac.uk    Password :lespaul260                  Pizza:Meat Extravaganza with peppers and onions as extras and a Cheese pizza</t>
-  </si>
-  <si>
     <t>Login: ahale03@qub.ac.uk    Password :lespaul260                  Pizza:Classic deluxe with olives and a cheese pizza</t>
   </si>
   <si>
@@ -1043,6 +1025,144 @@
   </si>
   <si>
     <t>Login: ahale03@qub.ac.uk    Password :lespaul260                  Pizza:na</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_26</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_27</t>
+  </si>
+  <si>
+    <t>Login: ahale03@qub.ac.uk    Password :lespaul260                  Pizza:Classic Deluxe pizza with Olives, Pepperoni, Peppers and Onions as extras</t>
+  </si>
+  <si>
+    <t>Login: ahale03@qub.ac.uk    Password :lespaul260                  Pizza: Meat extravaganza pizza with Olives, Pepperoni, Peppers and Onions as extras</t>
+  </si>
+  <si>
+    <t>To test that the order receipt contains the items placed on order, specifically looking to see if it records the additional extras for specific pizza</t>
+  </si>
+  <si>
+    <t>To test that the order receipt contains the items placed on order, specifically looking to see if it records the additional extras  for specific pizza</t>
+  </si>
+  <si>
+    <t>Failed due to onions extra not being on the order receipt as well as incorrect price for meat extravaganza pizza on the order receipt. On further testing, this was apparent across all browsers and mobile devices</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_24</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_25</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_26</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_24</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_25</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_26</t>
+  </si>
+  <si>
+    <t>Having added a meat extravaganza pizza to the basket with Olives, pepperoni, peppers and onions as extras and confirmed the collection time, take user to the order receipt. This will be tested across all mobile devices that have been listed in the spec, as well as all the browsers. The automated test shall be made and recorded through Firefox browser</t>
+  </si>
+  <si>
+    <t>Having added a  classic deluxe pizza to the basket with Olives, pepperoni, peppers and onions as extras and confirmed the collection time, take user to the order receipt. This will be tested across all mobile devices that have been listed in the spec, as well as all the browsers. The automated test shall be made and recorded through Firefox browser</t>
+  </si>
+  <si>
+    <t>Having added a cheese pizza to the basket with Olives, pepperoni, peppers and onions as extras and confirmed the collection time, take user to the order receipt. This will be tested across all mobile devices that have been listed in the spec, as well as all the browsers. The automated test shall be made and recorded through Firefox browser</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_27</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_27</t>
+  </si>
+  <si>
+    <t>To test the Orde Receipt page for general errors such as spelling mistakes</t>
+  </si>
+  <si>
+    <t>There will be little to no spelling mistakes on the order receipt page</t>
+  </si>
+  <si>
+    <t>To check for any spelling mistakes on the Order Receipt page</t>
+  </si>
+  <si>
+    <t>To test that the order receipt contains individual prices for each item that have been ordered</t>
+  </si>
+  <si>
+    <t>Login: ahale03@qub.ac.uk    Password :lespaul260                  Pizza:Classic deluxe with peppers and onions as extras and a Cheese pizza</t>
+  </si>
+  <si>
+    <t>Login: ahale03@qub.ac.uk    Password :lespaul260                  Pizza:Meat extravaganza with olives and a cheese pizza</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_28</t>
+  </si>
+  <si>
+    <t>Login: ahale03@qub.ac.uk    Password :lespaul260                  Pizza:Meat extravaganza with onions and a cheese pizza</t>
+  </si>
+  <si>
+    <t>This failed as an incorrect price for the total was given. This failed across all browsers and mobile devices</t>
+  </si>
+  <si>
+    <t>Login: ahale03@qub.ac.uk    Password :lespaul260                  Pizza:2 x cheese pizza and 1 x classic deluxe</t>
+  </si>
+  <si>
+    <t>To test that the order receipt contains the total price for all items that have been ordered and that the price is correct</t>
+  </si>
+  <si>
+    <t>To test that the order receipt contains the total price for all items that have been ordered and that price is correct using different data</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_29</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_30</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_28</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_29</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_30</t>
+  </si>
+  <si>
+    <t>Order receipt will show a total price for the user's order</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_28</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_29</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_30</t>
+  </si>
+  <si>
+    <t>Order receipt will show a total price for the user's order and this price will be correct</t>
+  </si>
+  <si>
+    <t>Order receipt will show the total price for all items that have been ordered and this will be the correct price using different test data to that of the previous test</t>
+  </si>
+  <si>
+    <t>Login: ahale03@qub.ac.uk    Password :lespaul260                  Pizza:Classic deluxe with pepperoni           Later Date: 12 March 2015 @ 12:00</t>
+  </si>
+  <si>
+    <t>automated selenium test involving a manual intervention (note - for selenium, change the date and time on the value fields to the day you are testing in the same format as test has saved, this will enable the test to run successfully)</t>
+  </si>
+  <si>
+    <t>automated selenium test involving a manual intervention  (note - for selenium, change the date and time on the value fields to the day you are testing in the same format as test has saved, this will enable the test to run successfully)</t>
+  </si>
+  <si>
+    <t>Login: ahale03@qub.ac.uk    Password :lespaul260                  Pizza:Classic deluxe with pepperoni Later Date: 11 March 2015 @ 03:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login: ahale03@qub.ac.uk    Password :lespaul260                  Pizza:Classic deluxe with pepperoni Later Date: 10 March 2015 </t>
   </si>
 </sst>
 </file>
@@ -1261,7 +1381,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="819">
+  <cellStyleXfs count="933">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2081,8 +2201,122 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2208,8 +2442,11 @@
     <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="819">
+  <cellStyles count="933">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2619,6 +2856,63 @@
     <cellStyle name="Followed Hyperlink" xfId="814" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="816" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="818" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="820" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="822" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="824" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="826" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="828" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="830" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="832" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="834" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="836" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="838" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="840" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="842" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="844" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="846" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="848" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="850" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="852" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="854" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="856" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="858" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="860" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="862" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="864" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="866" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="868" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="870" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="872" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="874" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="876" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="878" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="880" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="882" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="884" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="886" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="888" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="890" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="892" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="894" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="896" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="898" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="900" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="902" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="904" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="906" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="908" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="910" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="912" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="914" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="916" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="918" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="920" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="922" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="924" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="926" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="928" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="930" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="932" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3028,6 +3322,63 @@
     <cellStyle name="Hyperlink" xfId="813" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="815" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="817" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="819" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="821" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="823" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="825" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="827" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="829" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="831" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="833" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="835" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="837" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="839" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="841" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="843" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="845" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="847" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="849" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="851" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="853" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="855" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="857" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="859" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="861" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="863" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="865" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="867" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="869" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="871" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="873" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="875" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="877" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="879" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="881" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="883" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="885" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="887" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="889" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="891" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="893" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="895" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="897" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="899" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="901" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="903" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="905" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="907" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="909" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="911" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="913" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="915" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="917" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="919" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="921" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="923" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="925" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="927" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="929" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="931" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -3144,10 +3495,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>20.0</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.0</c:v>
@@ -3267,11 +3618,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2122187048"/>
-        <c:axId val="2121896376"/>
+        <c:axId val="2090835112"/>
+        <c:axId val="2090838056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2122187048"/>
+        <c:axId val="2090835112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3280,7 +3631,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121896376"/>
+        <c:crossAx val="2090838056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3288,7 +3639,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2121896376"/>
+        <c:axId val="2090838056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3299,7 +3650,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122187048"/>
+        <c:crossAx val="2090835112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3739,13 +4090,13 @@
     </row>
     <row r="2" spans="1:9" ht="35.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
@@ -3756,13 +4107,13 @@
     </row>
     <row r="3" spans="1:9" ht="35.5" customHeight="1">
       <c r="A3" s="32" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>27</v>
@@ -3771,13 +4122,13 @@
     </row>
     <row r="4" spans="1:9" ht="28">
       <c r="A4" s="32" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
@@ -3788,13 +4139,13 @@
     </row>
     <row r="5" spans="1:9" ht="23">
       <c r="A5" s="32" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B5" s="32" t="s">
         <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3805,13 +4156,13 @@
     </row>
     <row r="6" spans="1:9" ht="28">
       <c r="A6" s="32" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>6</v>
@@ -3822,13 +4173,13 @@
     </row>
     <row r="7" spans="1:9" ht="28">
       <c r="A7" s="32" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -3839,13 +4190,13 @@
     </row>
     <row r="8" spans="1:9" ht="28">
       <c r="A8" s="32" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -3856,13 +4207,13 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="32" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
@@ -3870,13 +4221,13 @@
     </row>
     <row r="10" spans="1:9" ht="28">
       <c r="A10" s="32" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
@@ -3884,13 +4235,13 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="32" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>11</v>
@@ -3898,27 +4249,27 @@
     </row>
     <row r="12" spans="1:9" ht="28">
       <c r="A12" s="32" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="28">
       <c r="A13" s="32" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>6</v>
@@ -3926,13 +4277,13 @@
     </row>
     <row r="14" spans="1:9" ht="42">
       <c r="A14" s="32" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>11</v>
@@ -3940,13 +4291,13 @@
     </row>
     <row r="15" spans="1:9" ht="42">
       <c r="A15" s="32" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
@@ -4207,8 +4558,8 @@
   </sheetPr>
   <dimension ref="A1:Z161"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4280,19 +4631,19 @@
     </row>
     <row r="2" spans="1:26" ht="39">
       <c r="A2" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>6</v>
@@ -4319,19 +4670,19 @@
     </row>
     <row r="3" spans="1:26" ht="65">
       <c r="A3" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>27</v>
@@ -4358,19 +4709,19 @@
     </row>
     <row r="4" spans="1:26" ht="65">
       <c r="A4" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>70</v>
+        <v>267</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>27</v>
@@ -4395,21 +4746,21 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="52">
+    <row r="5" spans="1:26" ht="65">
       <c r="A5" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>72</v>
+        <v>268</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>261</v>
+        <v>64</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>266</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>27</v>
@@ -4418,226 +4769,238 @@
         <v>42074</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
+      <c r="J5" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="33">
+        <v>42074</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>269</v>
+      </c>
       <c r="P5" s="10"/>
     </row>
-    <row r="6" spans="1:26" ht="52">
+    <row r="6" spans="1:26" ht="65">
       <c r="A6" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>262</v>
+        <v>169</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>285</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="13">
+        <v>91</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="41">
         <v>42074</v>
       </c>
-      <c r="H6" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="12" t="s">
+      <c r="H6" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="J6" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M6" s="33">
-        <v>42074</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>196</v>
-      </c>
+      <c r="J6" s="44"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
       <c r="P6" s="10"/>
     </row>
     <row r="7" spans="1:26" ht="52">
       <c r="A7" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>263</v>
+        <v>170</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>286</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="13">
+        <v>91</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="41">
         <v>42074</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="J7" s="9"/>
+      <c r="J7" s="44"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
       <c r="P7" s="10"/>
       <c r="T7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="39">
+    <row r="8" spans="1:26" ht="52">
       <c r="A8" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>263</v>
+        <v>171</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>290</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="13">
+        <v>92</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="41">
         <v>42074</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="J8" s="10"/>
+      <c r="J8" s="44"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
       <c r="P8" s="10"/>
       <c r="T8" t="s">
         <v>53</v>
       </c>
       <c r="U8" s="31">
         <f>COUNTIF(H2:H90,"*Passed*")</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="39">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="52">
       <c r="A9" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>263</v>
+        <v>172</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>291</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>290</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="13">
+        <v>92</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="41">
         <v>42074</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="J9" s="10"/>
+      <c r="J9" s="44"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
       <c r="P9" s="10"/>
       <c r="T9" t="s">
         <v>25</v>
       </c>
       <c r="U9" s="31">
         <f>COUNTIF(H3:H90,"*Failed*")</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="52">
       <c r="A10" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>232</v>
+        <v>173</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>292</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>64</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="13">
+        <v>92</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="41">
         <v>42074</v>
       </c>
-      <c r="H10" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="12" t="s">
+      <c r="H10" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="10"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
+      <c r="J10" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="M10" s="47">
+        <v>42074</v>
+      </c>
+      <c r="N10" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="O10" s="44" t="s">
+        <v>289</v>
+      </c>
       <c r="P10" s="10"/>
       <c r="T10" t="s">
         <v>54</v>
@@ -4649,19 +5012,19 @@
     </row>
     <row r="11" spans="1:26" ht="76" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F11" s="40" t="s">
         <v>6</v>
@@ -4670,34 +5033,46 @@
         <v>42074</v>
       </c>
       <c r="H11" s="42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I11" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="J11" s="45"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
+      <c r="J11" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M11" s="47">
+        <v>42074</v>
+      </c>
+      <c r="N11" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="O11" s="44" t="s">
+        <v>193</v>
+      </c>
       <c r="P11" s="10"/>
     </row>
     <row r="12" spans="1:26" ht="52">
       <c r="A12" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>266</v>
+        <v>304</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F12" s="40" t="s">
         <v>6</v>
@@ -4706,244 +5081,232 @@
         <v>42074</v>
       </c>
       <c r="H12" s="42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I12" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="J12" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L12" s="35" t="s">
-        <v>254</v>
-      </c>
-      <c r="M12" s="46">
-        <v>42074</v>
-      </c>
-      <c r="N12" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="O12" s="45" t="s">
-        <v>245</v>
-      </c>
+      <c r="J12" s="44"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
       <c r="P12" s="10"/>
     </row>
     <row r="13" spans="1:26" ht="52">
       <c r="A13" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>90</v>
+        <v>191</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F13" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="39">
-        <v>42086</v>
+      <c r="G13" s="41">
+        <v>42074</v>
       </c>
       <c r="H13" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="45" t="s">
+      <c r="I13" s="43" t="s">
         <v>62</v>
       </c>
       <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
+      <c r="K13" s="4"/>
       <c r="L13" s="45"/>
       <c r="M13" s="45"/>
       <c r="N13" s="45"/>
       <c r="O13" s="45"/>
       <c r="P13" s="10"/>
     </row>
-    <row r="14" spans="1:26" ht="39">
+    <row r="14" spans="1:26" ht="52">
       <c r="A14" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>120</v>
+        <v>192</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F14" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="39">
-        <v>42099</v>
+        <v>6</v>
+      </c>
+      <c r="G14" s="41">
+        <v>42074</v>
       </c>
       <c r="H14" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="45" t="s">
+      <c r="I14" s="43" t="s">
         <v>62</v>
       </c>
       <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
+      <c r="K14" s="4"/>
       <c r="L14" s="45"/>
       <c r="M14" s="45"/>
       <c r="N14" s="45"/>
       <c r="O14" s="45"/>
       <c r="P14" s="10"/>
     </row>
-    <row r="15" spans="1:26" ht="39">
+    <row r="15" spans="1:26" ht="52">
       <c r="A15" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>122</v>
+        <v>227</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>121</v>
+        <v>228</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>109</v>
+        <v>229</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="39">
-        <v>42099</v>
+        <v>6</v>
+      </c>
+      <c r="G15" s="41">
+        <v>42074</v>
       </c>
       <c r="H15" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="J15" s="45" t="s">
-        <v>220</v>
-      </c>
-      <c r="K15" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="L15" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="M15" s="46">
-        <v>42099</v>
-      </c>
-      <c r="N15" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="O15" s="32" t="s">
-        <v>230</v>
-      </c>
+      <c r="J15" s="45"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
       <c r="P15" s="10"/>
     </row>
     <row r="16" spans="1:26" ht="39">
       <c r="A16" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F16" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="39">
-        <v>42099</v>
+        <v>6</v>
+      </c>
+      <c r="G16" s="41">
+        <v>42074</v>
       </c>
       <c r="H16" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="45" t="s">
+      <c r="I16" s="43" t="s">
         <v>62</v>
       </c>
       <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
+      <c r="K16" s="4"/>
       <c r="L16" s="45"/>
       <c r="M16" s="45"/>
       <c r="N16" s="45"/>
       <c r="O16" s="45"/>
       <c r="P16" s="10"/>
     </row>
-    <row r="17" spans="1:21" ht="39">
+    <row r="17" spans="1:21" ht="52">
       <c r="A17" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F17" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="39">
-        <v>42099</v>
+        <v>6</v>
+      </c>
+      <c r="G17" s="41">
+        <v>42074</v>
       </c>
       <c r="H17" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
+      <c r="J17" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="M17" s="46">
+        <v>42074</v>
+      </c>
+      <c r="N17" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="O17" s="45" t="s">
+        <v>241</v>
+      </c>
       <c r="P17" s="10"/>
     </row>
-    <row r="18" spans="1:21" ht="39">
+    <row r="18" spans="1:21" ht="52">
       <c r="A18" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="F18" s="40" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G18" s="39">
-        <v>42099</v>
+        <v>42086</v>
       </c>
       <c r="H18" s="42" t="s">
         <v>24</v>
@@ -4961,19 +5324,19 @@
     </row>
     <row r="19" spans="1:21" ht="39">
       <c r="A19" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F19" s="40" t="s">
         <v>11</v>
@@ -4997,19 +5360,19 @@
     </row>
     <row r="20" spans="1:21" ht="39">
       <c r="A20" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F20" s="40" t="s">
         <v>11</v>
@@ -5018,34 +5381,46 @@
         <v>42099</v>
       </c>
       <c r="H20" s="42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I20" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
+      <c r="J20" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="K20" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="M20" s="46">
+        <v>42099</v>
+      </c>
+      <c r="N20" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="O20" s="32" t="s">
+        <v>226</v>
+      </c>
       <c r="P20" s="10"/>
     </row>
-    <row r="21" spans="1:21" ht="52">
+    <row r="21" spans="1:21" ht="39">
       <c r="A21" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F21" s="40" t="s">
         <v>11</v>
@@ -5069,19 +5444,19 @@
     </row>
     <row r="22" spans="1:21" ht="39">
       <c r="A22" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F22" s="40" t="s">
         <v>11</v>
@@ -5105,70 +5480,58 @@
     </row>
     <row r="23" spans="1:21" ht="39">
       <c r="A23" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="F23" s="40" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G23" s="39">
         <v>42099</v>
       </c>
       <c r="H23" s="42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I23" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="J23" s="45" t="s">
-        <v>221</v>
-      </c>
-      <c r="K23" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="L23" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="M23" s="46">
-        <v>42099</v>
-      </c>
-      <c r="N23" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="O23" s="45" t="s">
-        <v>255</v>
-      </c>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
       <c r="P23" s="10"/>
     </row>
     <row r="24" spans="1:21" ht="39">
       <c r="A24" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="F24" s="40" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G24" s="39">
         <v>42099</v>
@@ -5181,7 +5544,7 @@
       </c>
       <c r="J24" s="45"/>
       <c r="K24" s="45"/>
-      <c r="L24" s="35"/>
+      <c r="L24" s="45"/>
       <c r="M24" s="45"/>
       <c r="N24" s="45"/>
       <c r="O24" s="45"/>
@@ -5189,89 +5552,77 @@
     </row>
     <row r="25" spans="1:21" ht="39">
       <c r="A25" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>268</v>
+        <v>244</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>261</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="F25" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="36">
+      <c r="G25" s="39">
         <v>42099</v>
       </c>
-      <c r="H25" s="26" t="s">
+      <c r="H25" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="I25" s="10" t="s">
+      <c r="I25" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="J25" s="35"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
       <c r="P25" s="10"/>
       <c r="T25" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="39">
+    <row r="26" spans="1:21" ht="52">
       <c r="A26" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>268</v>
+        <v>245</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>255</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>247</v>
-      </c>
-      <c r="F26" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="H26" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I26" s="10" t="s">
+      <c r="G26" s="39">
+        <v>42099</v>
+      </c>
+      <c r="H26" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="J26" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="K26" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="L26" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="M26" s="34">
-        <v>42099</v>
-      </c>
-      <c r="N26" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="O26" s="10" t="s">
-        <v>253</v>
-      </c>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
       <c r="P26" s="10"/>
       <c r="T26" t="s">
         <v>34</v>
@@ -5281,22 +5632,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
-      <c r="A27" s="1"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
+    <row r="27" spans="1:21" ht="39">
+      <c r="A27" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="39">
+        <v>42099</v>
+      </c>
+      <c r="H27" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="45"/>
       <c r="P27" s="10"/>
       <c r="T27" t="s">
         <v>57</v>
@@ -5305,22 +5674,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
-      <c r="A28" s="1"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="1"/>
+    <row r="28" spans="1:21" ht="39">
+      <c r="A28" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="39">
+        <v>42099</v>
+      </c>
+      <c r="H28" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="J28" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="K28" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="L28" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="M28" s="46">
+        <v>42099</v>
+      </c>
+      <c r="N28" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="O28" s="45" t="s">
+        <v>250</v>
+      </c>
       <c r="P28" s="10"/>
       <c r="T28" t="s">
         <v>35</v>
@@ -5329,22 +5728,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
-      <c r="A29" s="1"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
+    <row r="29" spans="1:21" ht="39">
+      <c r="A29" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B29" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="38" t="s">
+        <v>262</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="39">
+        <v>42099</v>
+      </c>
+      <c r="H29" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="45"/>
       <c r="P29" s="10"/>
       <c r="T29" t="s">
         <v>36</v>
@@ -5354,22 +5771,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
-      <c r="A30" s="1"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
+    <row r="30" spans="1:21" ht="39">
+      <c r="A30" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>262</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="F30" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="39">
+        <v>42099</v>
+      </c>
+      <c r="H30" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="J30" s="35"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="45"/>
       <c r="P30" s="10"/>
       <c r="T30" t="s">
         <v>38</v>
@@ -5378,22 +5813,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
-      <c r="A31" s="1"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
+    <row r="31" spans="1:21" ht="39">
+      <c r="A31" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="38" t="s">
+        <v>262</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="F31" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="H31" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="J31" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="K31" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="L31" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="M31" s="46">
+        <v>42099</v>
+      </c>
+      <c r="N31" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="O31" s="45" t="s">
+        <v>248</v>
+      </c>
       <c r="P31" s="10"/>
     </row>
     <row r="32" spans="1:21">
@@ -7321,25 +7786,25 @@
           <x14:formula1>
             <xm:f>Settings!$A$4:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H10 H25:H53</xm:sqref>
+          <xm:sqref>H2:H5 H32:H53</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Settings!$B$4:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F10 F25:F159</xm:sqref>
+          <xm:sqref>F2:F5 F32:F159</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Settings!$F$4:$F$8</xm:f>
           </x14:formula1>
-          <xm:sqref>L2:L7</xm:sqref>
+          <xm:sqref>L2:L5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Settings!$D$4:$D$6</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K10</xm:sqref>
+          <xm:sqref>K2:K5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7357,8 +7822,8 @@
   </sheetPr>
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A9" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7400,19 +7865,19 @@
     </row>
     <row r="2" spans="1:13" ht="98">
       <c r="A2" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F2" s="1"/>
       <c r="H2" s="27" t="s">
@@ -7426,19 +7891,19 @@
     </row>
     <row r="3" spans="1:13" ht="112">
       <c r="A3" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>198</v>
+        <v>278</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="1"/>
@@ -7449,21 +7914,21 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="98">
+    <row r="4" spans="1:13" ht="112">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>199</v>
+        <v>277</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -7474,21 +7939,21 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="98">
+    <row r="5" spans="1:13" ht="126">
       <c r="A5" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>199</v>
+        <v>276</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -7501,19 +7966,19 @@
     </row>
     <row r="6" spans="1:13" ht="98">
       <c r="A6" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>256</v>
+        <v>104</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>251</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -7524,21 +7989,21 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="112">
+    <row r="7" spans="1:13" ht="98">
       <c r="A7" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>256</v>
+        <v>105</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>251</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -7549,21 +8014,21 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="112">
+    <row r="8" spans="1:13" ht="98">
       <c r="A8" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>256</v>
+        <v>106</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>251</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -7574,21 +8039,21 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="112">
+    <row r="9" spans="1:13" ht="98">
       <c r="A9" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>256</v>
+        <v>107</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>302</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>251</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -7599,21 +8064,21 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="126">
+    <row r="10" spans="1:13" ht="98">
       <c r="A10" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>256</v>
+        <v>108</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>251</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -7624,21 +8089,21 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="112">
-      <c r="A11" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>111</v>
+    <row r="11" spans="1:13" ht="126">
+      <c r="A11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>256</v>
+        <v>305</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -7650,20 +8115,20 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" ht="71" customHeight="1">
-      <c r="A12" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>112</v>
+      <c r="A12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>257</v>
+        <v>306</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -7674,21 +8139,21 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="98">
-      <c r="A13" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>113</v>
+    <row r="13" spans="1:13" ht="126">
+      <c r="A13" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>256</v>
+        <v>306</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -7699,21 +8164,21 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" ht="98">
-      <c r="A14" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>129</v>
+    <row r="14" spans="1:13" ht="126">
+      <c r="A14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>134</v>
+        <v>306</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -7724,21 +8189,21 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" ht="112">
-      <c r="A15" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>130</v>
+    <row r="15" spans="1:13" ht="126">
+      <c r="A15" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>135</v>
+        <v>236</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>134</v>
+        <v>251</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -7749,21 +8214,21 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" ht="98">
-      <c r="A16" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>131</v>
+    <row r="16" spans="1:13" ht="112">
+      <c r="A16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>134</v>
+        <v>251</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -7774,21 +8239,21 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" ht="98">
-      <c r="A17" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>132</v>
+    <row r="17" spans="1:13" ht="112">
+      <c r="A17" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>134</v>
+        <v>252</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -7799,21 +8264,21 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" ht="84">
-      <c r="A18" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>143</v>
+    <row r="18" spans="1:13" ht="98">
+      <c r="A18" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>134</v>
+        <v>251</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -7824,21 +8289,21 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" ht="84">
-      <c r="A19" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>144</v>
+    <row r="19" spans="1:13" ht="98">
+      <c r="A19" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -7849,155 +8314,215 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" ht="84">
-      <c r="A20" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="B20" s="32" t="s">
+    <row r="20" spans="1:13" ht="112">
+      <c r="A20" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="98">
+      <c r="A21" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="98">
+      <c r="A22" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="84">
+      <c r="A23" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="84">
+      <c r="A24" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="D24" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="E24" s="32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="84">
+      <c r="A25" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="84">
+      <c r="A26" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="78">
+      <c r="A27" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="91">
+      <c r="A28" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="91">
+      <c r="A29" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C29" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="D20" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="84">
-      <c r="A21" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="78">
-      <c r="A22" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="B22" s="32" t="s">
+      <c r="D29" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="C22" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="91">
-      <c r="A23" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="E23" s="32" t="s">
+      <c r="E29" s="32" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="91">
-      <c r="A24" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="E24" s="32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="56">
-      <c r="A25" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E25" s="32" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="32"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="32"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="32"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="32"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="32"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="32"/>
+    <row r="30" spans="1:13" ht="56">
+      <c r="A30" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="42">
+      <c r="A31" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
       <c r="E32" s="32"/>
     </row>
     <row r="33" spans="1:5">
@@ -8250,6 +8775,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C0A86D0A1DF85A4CBF24319CD50F658E" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="18023c554c1e7c0fe5f8bda126dbbbe1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -8363,22 +8903,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64745CD4-DB27-427B-80D9-1CCB91D6E4BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8392,21 +8934,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Testing Spreadsheet v1.0 OrderReceipt_AdamHale.xlsx
+++ b/Testing Spreadsheet v1.0 OrderReceipt_AdamHale.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <workbookProtection workbookPassword="A6C2" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-760" yWindow="-460" windowWidth="25600" windowHeight="16000" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="660" yWindow="280" windowWidth="24840" windowHeight="15600" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="5" r:id="rId1"/>
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="310">
   <si>
     <t xml:space="preserve">Req </t>
   </si>
@@ -1012,9 +1012,6 @@
     <t>Login: ahale03@qub.ac.uk    Password :lespaul260                  Pizza:Classic deluxe with pepperoni</t>
   </si>
   <si>
-    <t>Login: ahale03@qub.ac.uk    Password :lespaul260                  Pizza:Classic Deluxe with olives</t>
-  </si>
-  <si>
     <t>Login: ahale03@qub.ac.uk    Password :lespaul260                  Pizza:Meat Extravaganza</t>
   </si>
   <si>
@@ -1163,6 +1160,12 @@
   </si>
   <si>
     <t xml:space="preserve">Login: ahale03@qub.ac.uk    Password :lespaul260                  Pizza:Classic deluxe with pepperoni Later Date: 10 March 2015 </t>
+  </si>
+  <si>
+    <t>Login: ahale03@qub.ac.uk    Password :lespaul260                  Pizza:Classic Deluxe with olives   Later Date: 10 March 2015 @ 03:00</t>
+  </si>
+  <si>
+    <t>Login: ahale03@qub.ac.uk    Password :lespaul260                         New Password: adamhale03               Pizza:Classic Deluxe with olives</t>
   </si>
 </sst>
 </file>
@@ -4558,8 +4561,8 @@
   </sheetPr>
   <dimension ref="A1:Z161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4673,7 +4676,7 @@
         <v>166</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>64</v>
@@ -4712,13 +4715,13 @@
         <v>167</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E4" s="32" t="s">
         <v>91</v>
@@ -4751,13 +4754,13 @@
         <v>168</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E5" s="32" t="s">
         <v>91</v>
@@ -4790,7 +4793,7 @@
         <v>68</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P5" s="10"/>
     </row>
@@ -4799,13 +4802,13 @@
         <v>169</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C6" s="38" t="s">
         <v>64</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>91</v>
@@ -4835,13 +4838,13 @@
         <v>170</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C7" s="38" t="s">
         <v>64</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E7" s="32" t="s">
         <v>91</v>
@@ -4880,7 +4883,7 @@
         <v>64</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E8" s="32" t="s">
         <v>92</v>
@@ -4917,13 +4920,13 @@
         <v>172</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C9" s="38" t="s">
         <v>64</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E9" s="32" t="s">
         <v>92</v>
@@ -4960,13 +4963,13 @@
         <v>173</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C10" s="38" t="s">
         <v>64</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E10" s="32" t="s">
         <v>92</v>
@@ -4999,7 +5002,7 @@
         <v>68</v>
       </c>
       <c r="O10" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="P10" s="10"/>
       <c r="T10" t="s">
@@ -5069,7 +5072,7 @@
         <v>64</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E12" s="32" t="s">
         <v>102</v>
@@ -5105,7 +5108,7 @@
         <v>64</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E13" s="32" t="s">
         <v>102</v>
@@ -5141,7 +5144,7 @@
         <v>64</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E14" s="32" t="s">
         <v>102</v>
@@ -5177,7 +5180,7 @@
         <v>228</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>258</v>
+        <v>308</v>
       </c>
       <c r="E15" s="32" t="s">
         <v>229</v>
@@ -5213,7 +5216,7 @@
         <v>64</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E16" s="32" t="s">
         <v>103</v>
@@ -5249,7 +5252,7 @@
         <v>64</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E17" s="32" t="s">
         <v>103</v>
@@ -5297,7 +5300,7 @@
         <v>88</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>258</v>
+        <v>309</v>
       </c>
       <c r="E18" s="32" t="s">
         <v>104</v>
@@ -5333,7 +5336,7 @@
         <v>118</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E19" s="32" t="s">
         <v>105</v>
@@ -5369,7 +5372,7 @@
         <v>118</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E20" s="32" t="s">
         <v>106</v>
@@ -5453,7 +5456,7 @@
         <v>118</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E22" s="32" t="s">
         <v>108</v>
@@ -5525,7 +5528,7 @@
         <v>118</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E24" s="32" t="s">
         <v>108</v>
@@ -5561,7 +5564,7 @@
         <v>118</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E25" s="32" t="s">
         <v>108</v>
@@ -5634,7 +5637,7 @@
     </row>
     <row r="27" spans="1:21" ht="39">
       <c r="A27" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B27" s="38" t="s">
         <v>152</v>
@@ -5643,7 +5646,7 @@
         <v>118</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E27" s="32" t="s">
         <v>109</v>
@@ -5676,7 +5679,7 @@
     </row>
     <row r="28" spans="1:21" ht="39">
       <c r="A28" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B28" s="38" t="s">
         <v>153</v>
@@ -5685,7 +5688,7 @@
         <v>118</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E28" s="32" t="s">
         <v>110</v>
@@ -5730,7 +5733,7 @@
     </row>
     <row r="29" spans="1:21" ht="39">
       <c r="A29" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B29" s="38" t="s">
         <v>154</v>
@@ -5739,7 +5742,7 @@
         <v>68</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E29" s="32" t="s">
         <v>126</v>
@@ -5773,7 +5776,7 @@
     </row>
     <row r="30" spans="1:21" ht="39">
       <c r="A30" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B30" s="38" t="s">
         <v>231</v>
@@ -5782,7 +5785,7 @@
         <v>68</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E30" s="32" t="s">
         <v>127</v>
@@ -5815,16 +5818,16 @@
     </row>
     <row r="31" spans="1:21" ht="39">
       <c r="A31" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C31" s="38" t="s">
         <v>68</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E31" s="32" t="s">
         <v>242</v>
@@ -7822,8 +7825,8 @@
   </sheetPr>
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A24" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7897,7 +7900,7 @@
         <v>92</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>66</v>
@@ -7922,7 +7925,7 @@
         <v>102</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>66</v>
@@ -7947,7 +7950,7 @@
         <v>103</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>66</v>
@@ -8025,7 +8028,7 @@
         <v>195</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E8" s="32" t="s">
         <v>251</v>
@@ -8050,7 +8053,7 @@
         <v>195</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E9" s="32" t="s">
         <v>251</v>
@@ -8075,7 +8078,7 @@
         <v>195</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E10" s="32" t="s">
         <v>251</v>
@@ -8103,7 +8106,7 @@
         <v>70</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -8128,7 +8131,7 @@
         <v>70</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -8153,7 +8156,7 @@
         <v>73</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -8178,7 +8181,7 @@
         <v>73</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -8401,10 +8404,10 @@
     </row>
     <row r="25" spans="1:13" ht="84">
       <c r="A25" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>209</v>
@@ -8418,10 +8421,10 @@
     </row>
     <row r="26" spans="1:13" ht="84">
       <c r="A26" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C26" s="32" t="s">
         <v>210</v>
@@ -8435,10 +8438,10 @@
     </row>
     <row r="27" spans="1:13" ht="78">
       <c r="A27" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C27" s="38" t="s">
         <v>211</v>
@@ -8452,10 +8455,10 @@
     </row>
     <row r="28" spans="1:13" ht="91">
       <c r="A28" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="C28" s="38" t="s">
         <v>212</v>
@@ -8469,10 +8472,10 @@
     </row>
     <row r="29" spans="1:13" ht="91">
       <c r="A29" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C29" s="38" t="s">
         <v>213</v>
@@ -8486,10 +8489,10 @@
     </row>
     <row r="30" spans="1:13" ht="56">
       <c r="A30" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C30" s="32" t="s">
         <v>239</v>
@@ -8503,16 +8506,16 @@
     </row>
     <row r="31" spans="1:13" ht="42">
       <c r="A31" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C31" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="D31" s="32" t="s">
         <v>281</v>
-      </c>
-      <c r="D31" s="32" t="s">
-        <v>282</v>
       </c>
       <c r="E31" s="32" t="s">
         <v>131</v>

--- a/Testing Spreadsheet v1.0 OrderReceipt_AdamHale.xlsx
+++ b/Testing Spreadsheet v1.0 OrderReceipt_AdamHale.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <workbookProtection workbookPassword="A6C2" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="280" windowWidth="24840" windowHeight="15600" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24840" windowHeight="15600" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="5" r:id="rId1"/>

--- a/Testing Spreadsheet v1.0 OrderReceipt_AdamHale.xlsx
+++ b/Testing Spreadsheet v1.0 OrderReceipt_AdamHale.xlsx
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="312">
   <si>
     <t xml:space="preserve">Req </t>
   </si>
@@ -1166,6 +1166,12 @@
   </si>
   <si>
     <t>Login: ahale03@qub.ac.uk    Password :lespaul260                         New Password: adamhale03               Pizza:Classic Deluxe with olives</t>
+  </si>
+  <si>
+    <t>OrderReceipt_6</t>
+  </si>
+  <si>
+    <t>OrderReceipt_7</t>
   </si>
 </sst>
 </file>
@@ -3439,7 +3445,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -3449,7 +3454,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -3459,7 +3463,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -3524,7 +3527,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3621,11 +3623,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2090835112"/>
-        <c:axId val="2090838056"/>
+        <c:axId val="2100266264"/>
+        <c:axId val="2100269208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2090835112"/>
+        <c:axId val="2100266264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3634,7 +3636,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2090838056"/>
+        <c:crossAx val="2100269208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3642,7 +3644,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2090838056"/>
+        <c:axId val="2100269208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3653,7 +3655,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2090835112"/>
+        <c:crossAx val="2100266264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4561,8 +4563,8 @@
   </sheetPr>
   <dimension ref="A1:Z161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5042,7 +5044,7 @@
         <v>62</v>
       </c>
       <c r="J11" s="44" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>33</v>
@@ -5270,7 +5272,7 @@
         <v>62</v>
       </c>
       <c r="J17" s="44" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>33</v>
@@ -5390,7 +5392,7 @@
         <v>62</v>
       </c>
       <c r="J20" s="45" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="K20" s="35" t="s">
         <v>33</v>
@@ -5706,7 +5708,7 @@
         <v>62</v>
       </c>
       <c r="J28" s="45" t="s">
-        <v>217</v>
+        <v>310</v>
       </c>
       <c r="K28" s="35" t="s">
         <v>33</v>
@@ -5845,7 +5847,7 @@
         <v>62</v>
       </c>
       <c r="J31" s="45" t="s">
-        <v>247</v>
+        <v>311</v>
       </c>
       <c r="K31" s="35" t="s">
         <v>33</v>
@@ -8778,21 +8780,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C0A86D0A1DF85A4CBF24319CD50F658E" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="18023c554c1e7c0fe5f8bda126dbbbe1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -8906,15 +8899,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -8923,7 +8917,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64745CD4-DB27-427B-80D9-1CCB91D6E4BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8937,4 +8931,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testing Spreadsheet v1.0 OrderReceipt_AdamHale.xlsx
+++ b/Testing Spreadsheet v1.0 OrderReceipt_AdamHale.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <workbookProtection workbookPassword="A6C2" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24840" windowHeight="15600" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="540" yWindow="0" windowWidth="24840" windowHeight="15600" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="5" r:id="rId1"/>
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="313">
   <si>
     <t xml:space="preserve">Req </t>
   </si>
@@ -961,9 +961,6 @@
     <t>There will be minor differences in some aspects of layout amongst the web browsers and mobile devices</t>
   </si>
   <si>
-    <t>There is a generic "unique" order reference used, though it is not critical, but the spec does suggest that the success of this business rests upon using a unique reference number, rendering it as a high priority defect. This case also fails on  the iPad4, the iPhone 6 and the Samsung Galaxy S4 mobile device as well as Firefox browser</t>
-  </si>
-  <si>
     <t>OrderReceipt_Tconn_14</t>
   </si>
   <si>
@@ -1172,6 +1169,12 @@
   </si>
   <si>
     <t>OrderReceipt_7</t>
+  </si>
+  <si>
+    <t>The spec clearly state that a unique order reference will be provided on the order receipt and this is not the case on some devices and browsers. As there was significant emphasis placed on having a unique order reference from the spec, this has been assigned critical status. This case also fails on  the iPad4, the iPhone 6 and the Samsung Galaxy S4 mobile device as well as Firefox browser</t>
+  </si>
+  <si>
+    <t>Manual Test</t>
   </si>
 </sst>
 </file>
@@ -1390,8 +1393,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="933">
+  <cellStyleXfs count="937">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2455,7 +2462,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="933">
+  <cellStyles count="937">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2922,6 +2929,8 @@
     <cellStyle name="Followed Hyperlink" xfId="928" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="930" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="932" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="934" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="936" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3388,6 +3397,8 @@
     <cellStyle name="Hyperlink" xfId="927" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="929" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="931" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="933" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="935" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -3445,6 +3456,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -3454,6 +3466,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -3463,6 +3476,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -3527,6 +3541,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3602,10 +3617,10 @@
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.0</c:v>
@@ -3623,11 +3638,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2100266264"/>
-        <c:axId val="2100269208"/>
+        <c:axId val="2065458120"/>
+        <c:axId val="2065461064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2100266264"/>
+        <c:axId val="2065458120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3636,7 +3651,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2100269208"/>
+        <c:crossAx val="2065461064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3644,7 +3659,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2100269208"/>
+        <c:axId val="2065461064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3655,7 +3670,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2100266264"/>
+        <c:crossAx val="2065458120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4069,7 +4084,7 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4296,10 +4311,10 @@
     </row>
     <row r="15" spans="1:9" ht="42">
       <c r="A15" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="B15" s="32" t="s">
         <v>242</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>243</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>234</v>
@@ -4563,8 +4578,8 @@
   </sheetPr>
   <dimension ref="A1:Z161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4645,7 +4660,7 @@
         <v>64</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E2" s="32" t="s">
         <v>91</v>
@@ -4678,13 +4693,13 @@
         <v>166</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E3" s="32" t="s">
         <v>91</v>
@@ -4717,13 +4732,13 @@
         <v>167</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E4" s="32" t="s">
         <v>91</v>
@@ -4756,13 +4771,13 @@
         <v>168</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E5" s="32" t="s">
         <v>91</v>
@@ -4795,7 +4810,7 @@
         <v>68</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P5" s="10"/>
     </row>
@@ -4804,13 +4819,13 @@
         <v>169</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C6" s="38" t="s">
         <v>64</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>91</v>
@@ -4840,13 +4855,13 @@
         <v>170</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C7" s="38" t="s">
         <v>64</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E7" s="32" t="s">
         <v>91</v>
@@ -4885,7 +4900,7 @@
         <v>64</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E8" s="32" t="s">
         <v>92</v>
@@ -4922,13 +4937,13 @@
         <v>172</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C9" s="38" t="s">
         <v>64</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E9" s="32" t="s">
         <v>92</v>
@@ -4965,13 +4980,13 @@
         <v>173</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C10" s="38" t="s">
         <v>64</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E10" s="32" t="s">
         <v>92</v>
@@ -4995,7 +5010,7 @@
         <v>33</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M10" s="47">
         <v>42074</v>
@@ -5004,7 +5019,7 @@
         <v>68</v>
       </c>
       <c r="O10" s="44" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P10" s="10"/>
       <c r="T10" t="s">
@@ -5026,7 +5041,7 @@
         <v>64</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E11" s="32" t="s">
         <v>102</v>
@@ -5074,7 +5089,7 @@
         <v>64</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E12" s="32" t="s">
         <v>102</v>
@@ -5110,7 +5125,7 @@
         <v>64</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E13" s="32" t="s">
         <v>102</v>
@@ -5146,7 +5161,7 @@
         <v>64</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E14" s="32" t="s">
         <v>102</v>
@@ -5182,7 +5197,7 @@
         <v>228</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E15" s="32" t="s">
         <v>229</v>
@@ -5218,7 +5233,7 @@
         <v>64</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E16" s="32" t="s">
         <v>103</v>
@@ -5254,7 +5269,7 @@
         <v>64</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E17" s="32" t="s">
         <v>103</v>
@@ -5278,7 +5293,7 @@
         <v>33</v>
       </c>
       <c r="L17" s="35" t="s">
-        <v>249</v>
+        <v>36</v>
       </c>
       <c r="M17" s="46">
         <v>42074</v>
@@ -5287,7 +5302,7 @@
         <v>68</v>
       </c>
       <c r="O17" s="45" t="s">
-        <v>241</v>
+        <v>311</v>
       </c>
       <c r="P17" s="10"/>
     </row>
@@ -5302,7 +5317,7 @@
         <v>88</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E18" s="32" t="s">
         <v>104</v>
@@ -5338,7 +5353,7 @@
         <v>118</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E19" s="32" t="s">
         <v>105</v>
@@ -5374,7 +5389,7 @@
         <v>118</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E20" s="32" t="s">
         <v>106</v>
@@ -5392,7 +5407,7 @@
         <v>62</v>
       </c>
       <c r="J20" s="45" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K20" s="35" t="s">
         <v>33</v>
@@ -5422,7 +5437,7 @@
         <v>118</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E21" s="32" t="s">
         <v>107</v>
@@ -5458,7 +5473,7 @@
         <v>118</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E22" s="32" t="s">
         <v>108</v>
@@ -5494,7 +5509,7 @@
         <v>118</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E23" s="32" t="s">
         <v>140</v>
@@ -5530,7 +5545,7 @@
         <v>118</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E24" s="32" t="s">
         <v>108</v>
@@ -5557,7 +5572,7 @@
     </row>
     <row r="25" spans="1:21" ht="39">
       <c r="A25" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B25" s="38" t="s">
         <v>150</v>
@@ -5566,7 +5581,7 @@
         <v>118</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E25" s="32" t="s">
         <v>108</v>
@@ -5596,7 +5611,7 @@
     </row>
     <row r="26" spans="1:21" ht="52">
       <c r="A26" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B26" s="38" t="s">
         <v>151</v>
@@ -5605,7 +5620,7 @@
         <v>118</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E26" s="32" t="s">
         <v>108</v>
@@ -5639,7 +5654,7 @@
     </row>
     <row r="27" spans="1:21" ht="39">
       <c r="A27" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B27" s="38" t="s">
         <v>152</v>
@@ -5648,7 +5663,7 @@
         <v>118</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E27" s="32" t="s">
         <v>109</v>
@@ -5681,7 +5696,7 @@
     </row>
     <row r="28" spans="1:21" ht="39">
       <c r="A28" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B28" s="38" t="s">
         <v>153</v>
@@ -5690,7 +5705,7 @@
         <v>118</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E28" s="32" t="s">
         <v>110</v>
@@ -5708,7 +5723,7 @@
         <v>62</v>
       </c>
       <c r="J28" s="45" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K28" s="35" t="s">
         <v>33</v>
@@ -5723,19 +5738,19 @@
         <v>68</v>
       </c>
       <c r="O28" s="45" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P28" s="10"/>
       <c r="T28" t="s">
         <v>35</v>
       </c>
       <c r="U28" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="39">
       <c r="A29" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B29" s="38" t="s">
         <v>154</v>
@@ -5744,7 +5759,7 @@
         <v>68</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E29" s="32" t="s">
         <v>126</v>
@@ -5772,13 +5787,12 @@
         <v>36</v>
       </c>
       <c r="U29" s="31">
-        <f>COUNTIF(L2:L7,"*Critical*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="39">
       <c r="A30" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B30" s="38" t="s">
         <v>231</v>
@@ -5787,7 +5801,7 @@
         <v>68</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E30" s="32" t="s">
         <v>127</v>
@@ -5820,25 +5834,25 @@
     </row>
     <row r="31" spans="1:21" ht="39">
       <c r="A31" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C31" s="38" t="s">
         <v>68</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F31" s="40" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="39" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H31" s="42" t="s">
         <v>25</v>
@@ -5847,7 +5861,7 @@
         <v>62</v>
       </c>
       <c r="J31" s="45" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K31" s="35" t="s">
         <v>33</v>
@@ -5862,7 +5876,7 @@
         <v>68</v>
       </c>
       <c r="O31" s="45" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P31" s="10"/>
     </row>
@@ -7827,7 +7841,7 @@
   </sheetPr>
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -7882,7 +7896,7 @@
         <v>65</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F2" s="1"/>
       <c r="H2" s="27" t="s">
@@ -7902,13 +7916,13 @@
         <v>92</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="1"/>
@@ -7927,13 +7941,13 @@
         <v>102</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -7952,13 +7966,13 @@
         <v>103</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -7983,7 +7997,7 @@
         <v>67</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -8008,7 +8022,7 @@
         <v>67</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -8030,10 +8044,10 @@
         <v>195</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -8055,10 +8069,10 @@
         <v>195</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -8080,10 +8094,10 @@
         <v>195</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -8108,7 +8122,7 @@
         <v>70</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -8133,7 +8147,7 @@
         <v>70</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -8158,7 +8172,7 @@
         <v>73</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -8183,7 +8197,7 @@
         <v>73</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -8208,7 +8222,7 @@
         <v>236</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -8233,7 +8247,7 @@
         <v>82</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -8258,7 +8272,7 @@
         <v>82</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -8283,7 +8297,7 @@
         <v>90</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -8308,7 +8322,7 @@
         <v>130</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>131</v>
+        <v>312</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -8333,7 +8347,7 @@
         <v>132</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>131</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="98">
@@ -8350,7 +8364,7 @@
         <v>133</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>131</v>
+        <v>312</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="98">
@@ -8367,7 +8381,7 @@
         <v>134</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>131</v>
+        <v>312</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="84">
@@ -8384,7 +8398,7 @@
         <v>144</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>131</v>
+        <v>312</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="84">
@@ -8401,15 +8415,15 @@
         <v>145</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>131</v>
+        <v>312</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="84">
       <c r="A25" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>209</v>
@@ -8418,15 +8432,15 @@
         <v>146</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>131</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="84">
       <c r="A26" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C26" s="32" t="s">
         <v>210</v>
@@ -8435,15 +8449,15 @@
         <v>147</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>131</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="78">
       <c r="A27" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C27" s="38" t="s">
         <v>211</v>
@@ -8452,15 +8466,15 @@
         <v>164</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>131</v>
+        <v>312</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="91">
       <c r="A28" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="C28" s="38" t="s">
         <v>212</v>
@@ -8474,10 +8488,10 @@
     </row>
     <row r="29" spans="1:13" ht="91">
       <c r="A29" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C29" s="38" t="s">
         <v>213</v>
@@ -8491,10 +8505,10 @@
     </row>
     <row r="30" spans="1:13" ht="56">
       <c r="A30" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C30" s="32" t="s">
         <v>239</v>
@@ -8508,16 +8522,16 @@
     </row>
     <row r="31" spans="1:13" ht="42">
       <c r="A31" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C31" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="D31" s="32" t="s">
         <v>280</v>
-      </c>
-      <c r="D31" s="32" t="s">
-        <v>281</v>
       </c>
       <c r="E31" s="32" t="s">
         <v>131</v>
@@ -8693,7 +8707,7 @@
   <dimension ref="A3:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -8780,12 +8794,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C0A86D0A1DF85A4CBF24319CD50F658E" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="18023c554c1e7c0fe5f8bda126dbbbe1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -8899,7 +8907,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -8908,16 +8916,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64745CD4-DB27-427B-80D9-1CCB91D6E4BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8933,10 +8938,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testing Spreadsheet v1.0 OrderReceipt_AdamHale.xlsx
+++ b/Testing Spreadsheet v1.0 OrderReceipt_AdamHale.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <workbookProtection workbookPassword="A6C2" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="0" windowWidth="24840" windowHeight="15600" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24840" windowHeight="15600" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="5" r:id="rId1"/>
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="314">
   <si>
     <t xml:space="preserve">Req </t>
   </si>
@@ -703,9 +703,6 @@
     <t>Any user that is not registered should not be able to access the Order Receipt page</t>
   </si>
   <si>
-    <t>To ensure all logged users can navigate to the reset password page</t>
-  </si>
-  <si>
     <t>To check that unregistered users or not logged in users can't access the Order Receipt page</t>
   </si>
   <si>
@@ -892,9 +889,6 @@
     <t>OrderReceipt_4</t>
   </si>
   <si>
-    <t>4.1.6, 3.2.1, 3.2.2</t>
-  </si>
-  <si>
     <t>4.1.10, 3.2.2</t>
   </si>
   <si>
@@ -1175,6 +1169,15 @@
   </si>
   <si>
     <t>Manual Test</t>
+  </si>
+  <si>
+    <t>To ensure all logged users can navigate to the reset password page and should be able to log out from the order receipt page</t>
+  </si>
+  <si>
+    <t>4.1.6, 4.1.9, 3.2.1, 3.2.2</t>
+  </si>
+  <si>
+    <t>automated selenium test and manual test for mavigation to forgot password page</t>
   </si>
 </sst>
 </file>
@@ -3456,7 +3459,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -3466,7 +3468,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -3476,7 +3477,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -3541,7 +3541,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3638,11 +3637,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2065458120"/>
-        <c:axId val="2065461064"/>
+        <c:axId val="2091673432"/>
+        <c:axId val="2091676376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2065458120"/>
+        <c:axId val="2091673432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3651,7 +3650,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2065461064"/>
+        <c:crossAx val="2091676376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3659,7 +3658,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2065461064"/>
+        <c:axId val="2091676376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3670,7 +3669,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2065458120"/>
+        <c:crossAx val="2091673432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4084,7 +4083,7 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4116,7 +4115,7 @@
         <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
@@ -4133,7 +4132,7 @@
         <v>59</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>27</v>
@@ -4145,10 +4144,10 @@
         <v>93</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
@@ -4165,7 +4164,7 @@
         <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4179,10 +4178,10 @@
         <v>95</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>6</v>
@@ -4199,7 +4198,7 @@
         <v>112</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -4216,7 +4215,7 @@
         <v>113</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -4233,7 +4232,7 @@
         <v>114</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
@@ -4247,7 +4246,7 @@
         <v>115</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
@@ -4258,24 +4257,24 @@
         <v>100</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="28">
+    <row r="12" spans="1:9" ht="42">
       <c r="A12" s="32" t="s">
         <v>101</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>155</v>
+        <v>311</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>116</v>
@@ -4286,10 +4285,10 @@
         <v>111</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>218</v>
+        <v>312</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>6</v>
@@ -4297,13 +4296,13 @@
     </row>
     <row r="14" spans="1:9" ht="42">
       <c r="A14" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>11</v>
@@ -4311,13 +4310,13 @@
     </row>
     <row r="15" spans="1:9" ht="42">
       <c r="A15" s="32" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
@@ -4578,8 +4577,8 @@
   </sheetPr>
   <dimension ref="A1:Z161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView topLeftCell="A17" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4651,7 +4650,7 @@
     </row>
     <row r="2" spans="1:26" ht="39">
       <c r="A2" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>61</v>
@@ -4660,7 +4659,7 @@
         <v>64</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E2" s="32" t="s">
         <v>91</v>
@@ -4690,16 +4689,16 @@
     </row>
     <row r="3" spans="1:26" ht="65">
       <c r="A3" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E3" s="32" t="s">
         <v>91</v>
@@ -4729,16 +4728,16 @@
     </row>
     <row r="4" spans="1:26" ht="65">
       <c r="A4" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E4" s="32" t="s">
         <v>91</v>
@@ -4768,16 +4767,16 @@
     </row>
     <row r="5" spans="1:26" ht="65">
       <c r="A5" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E5" s="32" t="s">
         <v>91</v>
@@ -4795,7 +4794,7 @@
         <v>62</v>
       </c>
       <c r="J5" s="44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>33</v>
@@ -4810,22 +4809,22 @@
         <v>68</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P5" s="10"/>
     </row>
     <row r="6" spans="1:26" ht="65">
       <c r="A6" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C6" s="38" t="s">
         <v>64</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>91</v>
@@ -4852,16 +4851,16 @@
     </row>
     <row r="7" spans="1:26" ht="52">
       <c r="A7" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C7" s="38" t="s">
         <v>64</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E7" s="32" t="s">
         <v>91</v>
@@ -4891,7 +4890,7 @@
     </row>
     <row r="8" spans="1:26" ht="52">
       <c r="A8" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B8" s="38" t="s">
         <v>69</v>
@@ -4900,7 +4899,7 @@
         <v>64</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E8" s="32" t="s">
         <v>92</v>
@@ -4934,16 +4933,16 @@
     </row>
     <row r="9" spans="1:26" ht="52">
       <c r="A9" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C9" s="38" t="s">
         <v>64</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E9" s="32" t="s">
         <v>92</v>
@@ -4977,16 +4976,16 @@
     </row>
     <row r="10" spans="1:26" ht="52">
       <c r="A10" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C10" s="38" t="s">
         <v>64</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E10" s="32" t="s">
         <v>92</v>
@@ -5004,13 +5003,13 @@
         <v>62</v>
       </c>
       <c r="J10" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>33</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M10" s="47">
         <v>42074</v>
@@ -5019,7 +5018,7 @@
         <v>68</v>
       </c>
       <c r="O10" s="44" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="P10" s="10"/>
       <c r="T10" t="s">
@@ -5032,7 +5031,7 @@
     </row>
     <row r="11" spans="1:26" ht="76" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B11" s="38" t="s">
         <v>71</v>
@@ -5041,7 +5040,7 @@
         <v>64</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E11" s="32" t="s">
         <v>102</v>
@@ -5059,7 +5058,7 @@
         <v>62</v>
       </c>
       <c r="J11" s="44" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>33</v>
@@ -5074,13 +5073,13 @@
         <v>68</v>
       </c>
       <c r="O11" s="44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P11" s="10"/>
     </row>
     <row r="12" spans="1:26" ht="52">
       <c r="A12" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B12" s="38" t="s">
         <v>72</v>
@@ -5089,7 +5088,7 @@
         <v>64</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E12" s="32" t="s">
         <v>102</v>
@@ -5116,16 +5115,16 @@
     </row>
     <row r="13" spans="1:26" ht="52">
       <c r="A13" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C13" s="38" t="s">
         <v>64</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E13" s="32" t="s">
         <v>102</v>
@@ -5152,16 +5151,16 @@
     </row>
     <row r="14" spans="1:26" ht="52">
       <c r="A14" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C14" s="38" t="s">
         <v>64</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E14" s="32" t="s">
         <v>102</v>
@@ -5188,19 +5187,19 @@
     </row>
     <row r="15" spans="1:26" ht="52">
       <c r="A15" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B15" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>305</v>
+      </c>
+      <c r="E15" s="32" t="s">
         <v>227</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>307</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>229</v>
       </c>
       <c r="F15" s="40" t="s">
         <v>6</v>
@@ -5224,7 +5223,7 @@
     </row>
     <row r="16" spans="1:26" ht="39">
       <c r="A16" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B16" s="38" t="s">
         <v>86</v>
@@ -5233,7 +5232,7 @@
         <v>64</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E16" s="32" t="s">
         <v>103</v>
@@ -5260,7 +5259,7 @@
     </row>
     <row r="17" spans="1:21" ht="52">
       <c r="A17" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B17" s="38" t="s">
         <v>85</v>
@@ -5269,7 +5268,7 @@
         <v>64</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E17" s="32" t="s">
         <v>103</v>
@@ -5287,7 +5286,7 @@
         <v>62</v>
       </c>
       <c r="J17" s="44" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>33</v>
@@ -5302,13 +5301,13 @@
         <v>68</v>
       </c>
       <c r="O17" s="45" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="P17" s="10"/>
     </row>
     <row r="18" spans="1:21" ht="52">
       <c r="A18" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B18" s="38" t="s">
         <v>87</v>
@@ -5317,7 +5316,7 @@
         <v>88</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E18" s="32" t="s">
         <v>104</v>
@@ -5344,7 +5343,7 @@
     </row>
     <row r="19" spans="1:21" ht="39">
       <c r="A19" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B19" s="38" t="s">
         <v>117</v>
@@ -5353,7 +5352,7 @@
         <v>118</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E19" s="32" t="s">
         <v>105</v>
@@ -5380,7 +5379,7 @@
     </row>
     <row r="20" spans="1:21" ht="39">
       <c r="A20" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B20" s="38" t="s">
         <v>119</v>
@@ -5389,7 +5388,7 @@
         <v>118</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E20" s="32" t="s">
         <v>106</v>
@@ -5407,7 +5406,7 @@
         <v>62</v>
       </c>
       <c r="J20" s="45" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K20" s="35" t="s">
         <v>33</v>
@@ -5422,13 +5421,13 @@
         <v>68</v>
       </c>
       <c r="O20" s="32" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="P20" s="10"/>
     </row>
     <row r="21" spans="1:21" ht="39">
       <c r="A21" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B21" s="38" t="s">
         <v>120</v>
@@ -5437,7 +5436,7 @@
         <v>118</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E21" s="32" t="s">
         <v>107</v>
@@ -5464,7 +5463,7 @@
     </row>
     <row r="22" spans="1:21" ht="39">
       <c r="A22" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B22" s="38" t="s">
         <v>121</v>
@@ -5473,7 +5472,7 @@
         <v>118</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E22" s="32" t="s">
         <v>108</v>
@@ -5500,7 +5499,7 @@
     </row>
     <row r="23" spans="1:21" ht="39">
       <c r="A23" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B23" s="38" t="s">
         <v>149</v>
@@ -5509,7 +5508,7 @@
         <v>118</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E23" s="32" t="s">
         <v>140</v>
@@ -5536,7 +5535,7 @@
     </row>
     <row r="24" spans="1:21" ht="39">
       <c r="A24" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B24" s="38" t="s">
         <v>148</v>
@@ -5545,7 +5544,7 @@
         <v>118</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E24" s="32" t="s">
         <v>108</v>
@@ -5572,7 +5571,7 @@
     </row>
     <row r="25" spans="1:21" ht="39">
       <c r="A25" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B25" s="38" t="s">
         <v>150</v>
@@ -5581,7 +5580,7 @@
         <v>118</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E25" s="32" t="s">
         <v>108</v>
@@ -5611,7 +5610,7 @@
     </row>
     <row r="26" spans="1:21" ht="52">
       <c r="A26" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B26" s="38" t="s">
         <v>151</v>
@@ -5620,7 +5619,7 @@
         <v>118</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E26" s="32" t="s">
         <v>108</v>
@@ -5654,7 +5653,7 @@
     </row>
     <row r="27" spans="1:21" ht="39">
       <c r="A27" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B27" s="38" t="s">
         <v>152</v>
@@ -5663,7 +5662,7 @@
         <v>118</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E27" s="32" t="s">
         <v>109</v>
@@ -5696,7 +5695,7 @@
     </row>
     <row r="28" spans="1:21" ht="39">
       <c r="A28" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B28" s="38" t="s">
         <v>153</v>
@@ -5705,7 +5704,7 @@
         <v>118</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E28" s="32" t="s">
         <v>110</v>
@@ -5723,7 +5722,7 @@
         <v>62</v>
       </c>
       <c r="J28" s="45" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K28" s="35" t="s">
         <v>33</v>
@@ -5738,7 +5737,7 @@
         <v>68</v>
       </c>
       <c r="O28" s="45" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="P28" s="10"/>
       <c r="T28" t="s">
@@ -5750,7 +5749,7 @@
     </row>
     <row r="29" spans="1:21" ht="39">
       <c r="A29" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B29" s="38" t="s">
         <v>154</v>
@@ -5759,7 +5758,7 @@
         <v>68</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E29" s="32" t="s">
         <v>126</v>
@@ -5792,16 +5791,16 @@
     </row>
     <row r="30" spans="1:21" ht="39">
       <c r="A30" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B30" s="38" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C30" s="38" t="s">
         <v>68</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E30" s="32" t="s">
         <v>127</v>
@@ -5834,25 +5833,25 @@
     </row>
     <row r="31" spans="1:21" ht="39">
       <c r="A31" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C31" s="38" t="s">
         <v>68</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F31" s="40" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="39" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H31" s="42" t="s">
         <v>25</v>
@@ -5861,7 +5860,7 @@
         <v>62</v>
       </c>
       <c r="J31" s="45" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K31" s="35" t="s">
         <v>33</v>
@@ -5876,7 +5875,7 @@
         <v>68</v>
       </c>
       <c r="O31" s="45" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="P31" s="10"/>
     </row>
@@ -7841,8 +7840,8 @@
   </sheetPr>
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7890,13 +7889,13 @@
         <v>91</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F2" s="1"/>
       <c r="H2" s="27" t="s">
@@ -7916,13 +7915,13 @@
         <v>92</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="1"/>
@@ -7941,13 +7940,13 @@
         <v>102</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -7966,13 +7965,13 @@
         <v>103</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -7991,13 +7990,13 @@
         <v>104</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D6" s="32" t="s">
         <v>67</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -8016,13 +8015,13 @@
         <v>105</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>67</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -8041,13 +8040,13 @@
         <v>106</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -8066,13 +8065,13 @@
         <v>107</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -8091,13 +8090,13 @@
         <v>108</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -8116,13 +8115,13 @@
         <v>109</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D11" s="32" t="s">
         <v>70</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -8141,13 +8140,13 @@
         <v>110</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D12" s="32" t="s">
         <v>70</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -8166,13 +8165,13 @@
         <v>126</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D13" s="32" t="s">
         <v>73</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -8191,13 +8190,13 @@
         <v>127</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D14" s="32" t="s">
         <v>73</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -8216,13 +8215,13 @@
         <v>128</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -8241,13 +8240,13 @@
         <v>129</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D16" s="32" t="s">
         <v>82</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -8266,13 +8265,13 @@
         <v>140</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D17" s="32" t="s">
         <v>82</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -8291,13 +8290,13 @@
         <v>141</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D18" s="32" t="s">
         <v>90</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -8316,13 +8315,13 @@
         <v>142</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D19" s="32" t="s">
         <v>130</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -8341,146 +8340,146 @@
         <v>143</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D20" s="32" t="s">
         <v>132</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="98">
       <c r="A21" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D21" s="32" t="s">
         <v>133</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="98">
       <c r="A22" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D22" s="32" t="s">
         <v>134</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="84">
       <c r="A23" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D23" s="32" t="s">
         <v>144</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="84">
       <c r="A24" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D24" s="32" t="s">
         <v>145</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="84">
       <c r="A25" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D25" s="32" t="s">
         <v>146</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="84">
       <c r="A26" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D26" s="32" t="s">
         <v>147</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="78">
       <c r="A27" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="91">
       <c r="A28" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E28" s="32" t="s">
         <v>63</v>
@@ -8488,33 +8487,33 @@
     </row>
     <row r="29" spans="1:13" ht="91">
       <c r="A29" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>63</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="56">
       <c r="A30" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E30" s="32" t="s">
         <v>131</v>
@@ -8522,16 +8521,16 @@
     </row>
     <row r="31" spans="1:13" ht="42">
       <c r="A31" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E31" s="32" t="s">
         <v>131</v>
@@ -8794,6 +8793,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C0A86D0A1DF85A4CBF24319CD50F658E" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="18023c554c1e7c0fe5f8bda126dbbbe1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -8907,22 +8921,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64745CD4-DB27-427B-80D9-1CCB91D6E4BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8936,21 +8952,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Testing Spreadsheet v1.0 OrderReceipt_AdamHale.xlsx
+++ b/Testing Spreadsheet v1.0 OrderReceipt_AdamHale.xlsx
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="320">
   <si>
     <t xml:space="preserve">Req </t>
   </si>
@@ -871,9 +871,6 @@
     <t>From the Order Receipt page, a logged user can navigate to the reset password page. This will be tested across all mobile devices that have been listed in the spec, as well as all the browsers. This will be a manual / exploratory test.</t>
   </si>
   <si>
-    <t>A logged user should be able to log off from the Order Receipt page. This will be tested across all mobile devices that have been listed in the spec, as well as all the browsers. The automated test shall be made and recorded through Firefox browser</t>
-  </si>
-  <si>
     <t>The system should prevent unregistered users accessing the Schedule Order page. This will be tested across all mobile devices that have been listed in the spec, as well as all the browsers. The automated test shall be made and recorded through Firefox browser</t>
   </si>
   <si>
@@ -976,9 +973,6 @@
     <t>Where it says "you're logged in as &lt;username&gt;, it is highlighten in bold with a full stop at the end. This could be confusing as having the full stop in bold may lead some users to think they have input their email incorrect. This is extremely minor and fussy however, but is consistent across all browsers and mobile devices</t>
   </si>
   <si>
-    <t>Major</t>
-  </si>
-  <si>
     <t xml:space="preserve">When clicking on the log out button, the user is first redirected to the Order Page. They are not directly logged out straight away, it is only when this is clicked for a second time is the user logged out. This fails across all the browsers  as well as all the mobile devices listed in the spec </t>
   </si>
   <si>
@@ -1178,6 +1172,30 @@
   </si>
   <si>
     <t>automated selenium test and manual test for mavigation to forgot password page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any user can navigate to the forgot password page by clicking on their email address on the top right of the wedsite </t>
+  </si>
+  <si>
+    <t>be logged in and on the order receipt page</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TCase_31</t>
+  </si>
+  <si>
+    <t>Users are able to get to the reset password page</t>
+  </si>
+  <si>
+    <t>A logged in user should be able to log off from the Order Receipt page. This will be tested across all mobile devices that have been listed in the spec, as well as all the browsers. The automated test shall be made and recorded through Firefox browser</t>
+  </si>
+  <si>
+    <t>A logged in user should be able to navigate to the Forgot password page while on the Order Receipt page</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_31</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TConn_31</t>
   </si>
 </sst>
 </file>
@@ -1396,8 +1414,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="937">
+  <cellStyleXfs count="957">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2465,7 +2503,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="937">
+  <cellStyles count="957">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2934,6 +2972,16 @@
     <cellStyle name="Followed Hyperlink" xfId="932" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="934" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="936" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="938" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="940" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="942" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="944" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="946" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="948" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="950" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="952" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="954" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="956" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3402,6 +3450,16 @@
     <cellStyle name="Hyperlink" xfId="931" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="933" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="935" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="937" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="939" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="941" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="943" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="945" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="947" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="949" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="951" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="953" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="955" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -3459,6 +3517,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -3468,6 +3527,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -3477,6 +3537,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -3515,7 +3576,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>23.0</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>7.0</c:v>
@@ -3541,6 +3602,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3613,13 +3675,13 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.0</c:v>
@@ -3637,11 +3699,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2091673432"/>
-        <c:axId val="2091676376"/>
+        <c:axId val="2097851256"/>
+        <c:axId val="2097854200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2091673432"/>
+        <c:axId val="2097851256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3650,7 +3712,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2091676376"/>
+        <c:crossAx val="2097854200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3658,7 +3720,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2091676376"/>
+        <c:axId val="2097854200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3669,7 +3731,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2091673432"/>
+        <c:crossAx val="2097851256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4115,7 +4177,7 @@
         <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
@@ -4132,7 +4194,7 @@
         <v>59</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>27</v>
@@ -4147,7 +4209,7 @@
         <v>187</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
@@ -4164,7 +4226,7 @@
         <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4181,7 +4243,7 @@
         <v>188</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>6</v>
@@ -4198,7 +4260,7 @@
         <v>112</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -4215,7 +4277,7 @@
         <v>113</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -4232,7 +4294,7 @@
         <v>114</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
@@ -4246,7 +4308,7 @@
         <v>115</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
@@ -4260,7 +4322,7 @@
         <v>189</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>11</v>
@@ -4271,10 +4333,10 @@
         <v>101</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>116</v>
@@ -4288,7 +4350,7 @@
         <v>155</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>6</v>
@@ -4296,13 +4358,13 @@
     </row>
     <row r="14" spans="1:9" ht="42">
       <c r="A14" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="B14" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="C14" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>11</v>
@@ -4310,13 +4372,13 @@
     </row>
     <row r="15" spans="1:9" ht="42">
       <c r="A15" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="B15" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="B15" s="32" t="s">
-        <v>240</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
@@ -4577,8 +4639,8 @@
   </sheetPr>
   <dimension ref="A1:Z161"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A27" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4659,7 +4721,7 @@
         <v>64</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E2" s="32" t="s">
         <v>91</v>
@@ -4692,13 +4754,13 @@
         <v>165</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E3" s="32" t="s">
         <v>91</v>
@@ -4731,13 +4793,13 @@
         <v>166</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E4" s="32" t="s">
         <v>91</v>
@@ -4770,13 +4832,13 @@
         <v>167</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E5" s="32" t="s">
         <v>91</v>
@@ -4794,13 +4856,13 @@
         <v>62</v>
       </c>
       <c r="J5" s="44" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>33</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="M5" s="33">
         <v>42074</v>
@@ -4809,7 +4871,7 @@
         <v>68</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="P5" s="10"/>
     </row>
@@ -4818,13 +4880,13 @@
         <v>168</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C6" s="38" t="s">
         <v>64</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>91</v>
@@ -4854,13 +4916,13 @@
         <v>169</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C7" s="38" t="s">
         <v>64</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E7" s="32" t="s">
         <v>91</v>
@@ -4899,7 +4961,7 @@
         <v>64</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E8" s="32" t="s">
         <v>92</v>
@@ -4928,7 +4990,7 @@
       </c>
       <c r="U8" s="31">
         <f>COUNTIF(H2:H90,"*Passed*")</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="52">
@@ -4936,13 +4998,13 @@
         <v>171</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C9" s="38" t="s">
         <v>64</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E9" s="32" t="s">
         <v>92</v>
@@ -4979,13 +5041,13 @@
         <v>172</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C10" s="38" t="s">
         <v>64</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E10" s="32" t="s">
         <v>92</v>
@@ -5003,13 +5065,13 @@
         <v>62</v>
       </c>
       <c r="J10" s="44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>33</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>246</v>
+        <v>57</v>
       </c>
       <c r="M10" s="47">
         <v>42074</v>
@@ -5018,7 +5080,7 @@
         <v>68</v>
       </c>
       <c r="O10" s="44" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="P10" s="10"/>
       <c r="T10" t="s">
@@ -5040,7 +5102,7 @@
         <v>64</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E11" s="32" t="s">
         <v>102</v>
@@ -5058,7 +5120,7 @@
         <v>62</v>
       </c>
       <c r="J11" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>33</v>
@@ -5088,7 +5150,7 @@
         <v>64</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E12" s="32" t="s">
         <v>102</v>
@@ -5124,7 +5186,7 @@
         <v>64</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E13" s="32" t="s">
         <v>102</v>
@@ -5160,7 +5222,7 @@
         <v>64</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E14" s="32" t="s">
         <v>102</v>
@@ -5190,16 +5252,16 @@
         <v>177</v>
       </c>
       <c r="B15" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="C15" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="D15" s="38" t="s">
+        <v>303</v>
+      </c>
+      <c r="E15" s="32" t="s">
         <v>226</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>305</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>227</v>
       </c>
       <c r="F15" s="40" t="s">
         <v>6</v>
@@ -5232,7 +5294,7 @@
         <v>64</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E16" s="32" t="s">
         <v>103</v>
@@ -5268,7 +5330,7 @@
         <v>64</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E17" s="32" t="s">
         <v>103</v>
@@ -5286,13 +5348,13 @@
         <v>62</v>
       </c>
       <c r="J17" s="44" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L17" s="35" t="s">
-        <v>36</v>
+      <c r="L17" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="M17" s="46">
         <v>42074</v>
@@ -5301,7 +5363,7 @@
         <v>68</v>
       </c>
       <c r="O17" s="45" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="P17" s="10"/>
     </row>
@@ -5316,7 +5378,7 @@
         <v>88</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E18" s="32" t="s">
         <v>104</v>
@@ -5352,7 +5414,7 @@
         <v>118</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E19" s="32" t="s">
         <v>105</v>
@@ -5388,7 +5450,7 @@
         <v>118</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E20" s="32" t="s">
         <v>106</v>
@@ -5406,7 +5468,7 @@
         <v>62</v>
       </c>
       <c r="J20" s="45" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K20" s="35" t="s">
         <v>33</v>
@@ -5421,7 +5483,7 @@
         <v>68</v>
       </c>
       <c r="O20" s="32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P20" s="10"/>
     </row>
@@ -5436,7 +5498,7 @@
         <v>118</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E21" s="32" t="s">
         <v>107</v>
@@ -5472,7 +5534,7 @@
         <v>118</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E22" s="32" t="s">
         <v>108</v>
@@ -5508,7 +5570,7 @@
         <v>118</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E23" s="32" t="s">
         <v>140</v>
@@ -5535,7 +5597,7 @@
     </row>
     <row r="24" spans="1:21" ht="39">
       <c r="A24" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B24" s="38" t="s">
         <v>148</v>
@@ -5544,7 +5606,7 @@
         <v>118</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E24" s="32" t="s">
         <v>108</v>
@@ -5571,7 +5633,7 @@
     </row>
     <row r="25" spans="1:21" ht="39">
       <c r="A25" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B25" s="38" t="s">
         <v>150</v>
@@ -5580,7 +5642,7 @@
         <v>118</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E25" s="32" t="s">
         <v>108</v>
@@ -5610,7 +5672,7 @@
     </row>
     <row r="26" spans="1:21" ht="52">
       <c r="A26" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B26" s="38" t="s">
         <v>151</v>
@@ -5619,7 +5681,7 @@
         <v>118</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E26" s="32" t="s">
         <v>108</v>
@@ -5653,7 +5715,7 @@
     </row>
     <row r="27" spans="1:21" ht="39">
       <c r="A27" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B27" s="38" t="s">
         <v>152</v>
@@ -5662,7 +5724,7 @@
         <v>118</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E27" s="32" t="s">
         <v>109</v>
@@ -5690,12 +5752,12 @@
         <v>57</v>
       </c>
       <c r="U27" s="31">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="39">
       <c r="A28" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B28" s="38" t="s">
         <v>153</v>
@@ -5704,7 +5766,7 @@
         <v>118</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E28" s="32" t="s">
         <v>110</v>
@@ -5722,7 +5784,7 @@
         <v>62</v>
       </c>
       <c r="J28" s="45" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K28" s="35" t="s">
         <v>33</v>
@@ -5737,19 +5799,19 @@
         <v>68</v>
       </c>
       <c r="O28" s="45" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="P28" s="10"/>
       <c r="T28" t="s">
         <v>35</v>
       </c>
       <c r="U28" s="31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="39">
       <c r="A29" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B29" s="38" t="s">
         <v>154</v>
@@ -5758,7 +5820,7 @@
         <v>68</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E29" s="32" t="s">
         <v>126</v>
@@ -5786,27 +5848,27 @@
         <v>36</v>
       </c>
       <c r="U29" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="52">
       <c r="A30" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B30" s="38" t="s">
-        <v>229</v>
+        <v>312</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>68</v>
+        <v>313</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="F30" s="40" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G30" s="39">
         <v>42099</v>
@@ -5833,68 +5895,86 @@
     </row>
     <row r="31" spans="1:21" ht="39">
       <c r="A31" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>279</v>
+        <v>228</v>
       </c>
       <c r="C31" s="38" t="s">
         <v>68</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>239</v>
+        <v>127</v>
       </c>
       <c r="F31" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="39" t="s">
-        <v>243</v>
+      <c r="G31" s="39">
+        <v>42099</v>
       </c>
       <c r="H31" s="42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I31" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="J31" s="45" t="s">
-        <v>308</v>
-      </c>
-      <c r="K31" s="35" t="s">
+      <c r="J31" s="35"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="10"/>
+    </row>
+    <row r="32" spans="1:21" ht="39">
+      <c r="A32" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="C32" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="F32" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="H32" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="J32" s="45" t="s">
+        <v>306</v>
+      </c>
+      <c r="K32" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="L31" s="35" t="s">
+      <c r="L32" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="M31" s="46">
+      <c r="M32" s="46">
         <v>42099</v>
       </c>
-      <c r="N31" s="45" t="s">
+      <c r="N32" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="O31" s="45" t="s">
-        <v>245</v>
-      </c>
-      <c r="P31" s="10"/>
-    </row>
-    <row r="32" spans="1:21">
-      <c r="A32" s="1"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
+      <c r="O32" s="45" t="s">
+        <v>244</v>
+      </c>
       <c r="P32" s="10"/>
     </row>
     <row r="33" spans="1:16">
@@ -7804,19 +7884,19 @@
           <x14:formula1>
             <xm:f>Settings!$A$4:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H5 H32:H53</xm:sqref>
+          <xm:sqref>H2:H5 H33:H53</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Settings!$B$4:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F5 F32:F159</xm:sqref>
+          <xm:sqref>F2:F5 F33:F159</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Settings!$F$4:$F$8</xm:f>
           </x14:formula1>
-          <xm:sqref>L2:L5</xm:sqref>
+          <xm:sqref>L2:L5 L10 L17</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -7840,8 +7920,8 @@
   </sheetPr>
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7895,7 +7975,7 @@
         <v>65</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F2" s="1"/>
       <c r="H2" s="27" t="s">
@@ -7915,13 +7995,13 @@
         <v>92</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="1"/>
@@ -7940,13 +8020,13 @@
         <v>102</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -7965,13 +8045,13 @@
         <v>103</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -7996,7 +8076,7 @@
         <v>67</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -8021,7 +8101,7 @@
         <v>67</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -8043,10 +8123,10 @@
         <v>194</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -8068,10 +8148,10 @@
         <v>194</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -8093,10 +8173,10 @@
         <v>194</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -8121,7 +8201,7 @@
         <v>70</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -8146,7 +8226,7 @@
         <v>70</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -8171,7 +8251,7 @@
         <v>73</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -8196,7 +8276,7 @@
         <v>73</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -8215,13 +8295,13 @@
         <v>128</v>
       </c>
       <c r="C15" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="D15" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="D15" s="32" t="s">
-        <v>234</v>
-      </c>
       <c r="E15" s="32" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -8246,7 +8326,7 @@
         <v>82</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -8271,7 +8351,7 @@
         <v>82</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -8296,7 +8376,7 @@
         <v>90</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -8321,7 +8401,7 @@
         <v>130</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -8346,7 +8426,7 @@
         <v>132</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="98">
@@ -8363,7 +8443,7 @@
         <v>133</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="98">
@@ -8380,7 +8460,7 @@
         <v>134</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="84">
@@ -8397,15 +8477,15 @@
         <v>144</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="84">
       <c r="A24" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>207</v>
@@ -8414,15 +8494,15 @@
         <v>145</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="84">
       <c r="A25" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>208</v>
@@ -8431,15 +8511,15 @@
         <v>146</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="84">
       <c r="A26" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C26" s="32" t="s">
         <v>209</v>
@@ -8448,15 +8528,15 @@
         <v>147</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="78">
       <c r="A27" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C27" s="38" t="s">
         <v>210</v>
@@ -8465,18 +8545,18 @@
         <v>163</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="91">
       <c r="A28" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>211</v>
+        <v>316</v>
       </c>
       <c r="D28" s="32" t="s">
         <v>186</v>
@@ -8487,61 +8567,71 @@
     </row>
     <row r="29" spans="1:13" ht="91">
       <c r="A29" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D29" s="32" t="s">
         <v>162</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="56">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="42">
       <c r="A30" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C30" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="56">
+      <c r="A31" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="D31" s="32" t="s">
         <v>237</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>238</v>
-      </c>
-      <c r="E30" s="32" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="42">
-      <c r="A31" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>277</v>
-      </c>
-      <c r="D31" s="32" t="s">
-        <v>278</v>
       </c>
       <c r="E31" s="32" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="1"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
+    <row r="32" spans="1:13" ht="42">
+      <c r="A32" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1"/>
@@ -8793,21 +8883,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C0A86D0A1DF85A4CBF24319CD50F658E" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="18023c554c1e7c0fe5f8bda126dbbbe1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -8921,15 +9002,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -8938,7 +9020,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64745CD4-DB27-427B-80D9-1CCB91D6E4BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8952,4 +9034,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>